--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD3112-04F7-43D8-A72D-C84E5FD583C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910C7E1-AA26-2241-AE19-C3947DA5A0C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regressão" sheetId="3" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Período</t>
   </si>
@@ -61,12 +63,87 @@
   <si>
     <t>S*R = X/MA</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +153,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -445,11 +530,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,6 +637,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,8 +649,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,25 +970,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEB974C-AAE5-5D46-966E-4388741164C8}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="38">
+        <v>2.1833960565708476E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="38">
+        <v>4.767218339849128E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="38">
+        <v>-6.2768138292989733E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="38">
+        <v>84.886907996767476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38">
+        <v>508.64558008802123</v>
+      </c>
+      <c r="D12" s="38">
+        <v>508.64558008802123</v>
+      </c>
+      <c r="E12" s="38">
+        <v>7.0588482500602998E-2</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.79085160422005807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="38">
+        <v>148</v>
+      </c>
+      <c r="C13" s="38">
+        <v>1066456.4980892467</v>
+      </c>
+      <c r="D13" s="38">
+        <v>7205.787149251667</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="39">
+        <v>149</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1066965.1436693347</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="38">
+        <v>402.00990156599499</v>
+      </c>
+      <c r="C17" s="38">
+        <v>13.931574336132988</v>
+      </c>
+      <c r="D17" s="38">
+        <v>28.856028175031163</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1.1960481916784774E-62</v>
+      </c>
+      <c r="F17" s="38">
+        <v>374.47940414891019</v>
+      </c>
+      <c r="G17" s="38">
+        <v>429.54039898307889</v>
+      </c>
+      <c r="H17" s="38">
+        <v>374.47940414891019</v>
+      </c>
+      <c r="I17" s="38">
+        <v>429.54039898307889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="39">
+        <v>-4.2527614560647048E-2</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.16006784584535907</v>
+      </c>
+      <c r="D18" s="39">
+        <v>-0.26568493088694911</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.7908516042203475</v>
+      </c>
+      <c r="F18" s="39">
+        <v>-0.35884128523995829</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0.27378605611866424</v>
+      </c>
+      <c r="H18" s="39">
+        <v>-0.35884128523995829</v>
+      </c>
+      <c r="I18" s="39">
+        <v>0.27378605611866424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5668C67-9EF1-46A6-97CB-2F5D0860746D}">
   <dimension ref="B2:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
@@ -921,8 +1260,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="35">
         <v>2016</v>
       </c>
       <c r="C5" s="31">
@@ -936,8 +1275,8 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
       <c r="C6" s="32">
         <v>2</v>
       </c>
@@ -949,8 +1288,8 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
       <c r="C7" s="32">
         <v>3</v>
       </c>
@@ -962,8 +1301,8 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
       <c r="C8" s="32">
         <v>4</v>
       </c>
@@ -975,8 +1314,8 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
       <c r="C9" s="32">
         <v>5</v>
       </c>
@@ -988,8 +1327,8 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
       <c r="C10" s="32">
         <v>6</v>
       </c>
@@ -1001,8 +1340,8 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
       <c r="C11" s="32">
         <v>7</v>
       </c>
@@ -1014,8 +1353,8 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
       <c r="C12" s="32">
         <v>8</v>
       </c>
@@ -1027,8 +1366,8 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
       <c r="C13" s="32">
         <v>9</v>
       </c>
@@ -1040,8 +1379,8 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
       <c r="C14" s="32">
         <v>10</v>
       </c>
@@ -1053,8 +1392,8 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
       <c r="C15" s="32">
         <v>11</v>
       </c>
@@ -1066,8 +1405,8 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
       <c r="C16" s="32">
         <v>12</v>
       </c>
@@ -1079,8 +1418,8 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
       <c r="C17" s="32">
         <v>13</v>
       </c>
@@ -1092,8 +1431,8 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
       <c r="C18" s="32">
         <v>14</v>
       </c>
@@ -1105,8 +1444,8 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
       <c r="C19" s="32">
         <v>15</v>
       </c>
@@ -1118,8 +1457,8 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
       <c r="C20" s="32">
         <v>16</v>
       </c>
@@ -1131,8 +1470,8 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
       <c r="C21" s="32">
         <v>17</v>
       </c>
@@ -1144,8 +1483,8 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
       <c r="C22" s="32">
         <v>18</v>
       </c>
@@ -1157,8 +1496,8 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
       <c r="C23" s="32">
         <v>19</v>
       </c>
@@ -1170,8 +1509,8 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
       <c r="C24" s="32">
         <v>20</v>
       </c>
@@ -1183,8 +1522,8 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
       <c r="C25" s="32">
         <v>21</v>
       </c>
@@ -1196,8 +1535,8 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
       <c r="C26" s="32">
         <v>22</v>
       </c>
@@ -1209,8 +1548,8 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
       <c r="C27" s="32">
         <v>23</v>
       </c>
@@ -1222,8 +1561,8 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
       <c r="C28" s="32">
         <v>24</v>
       </c>
@@ -1235,8 +1574,8 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
       <c r="C29" s="32">
         <v>25</v>
       </c>
@@ -1248,8 +1587,8 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
       <c r="C30" s="32">
         <v>26</v>
       </c>
@@ -1260,12 +1599,15 @@
         <f>AVERAGE(D5:D54)</f>
         <v>383.45359999999988</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="27">
+        <f>402.009901565995 + -0.042527614560647 * C30</f>
+        <v>400.90418358741817</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
       <c r="C31" s="32">
         <v>27</v>
       </c>
@@ -1276,12 +1618,15 @@
         <f t="shared" ref="E31:E94" si="0">AVERAGE(D6:D55)</f>
         <v>383.75999999999988</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="27">
+        <f t="shared" ref="F31:F94" si="1">402.009901565995 + -0.042527614560647 * C31</f>
+        <v>400.86165597285753</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
       <c r="C32" s="32">
         <v>28</v>
       </c>
@@ -1292,12 +1637,15 @@
         <f t="shared" si="0"/>
         <v>384.06639999999976</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="27">
+        <f t="shared" si="1"/>
+        <v>400.81912835829689</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
       <c r="C33" s="32">
         <v>29</v>
       </c>
@@ -1308,12 +1656,15 @@
         <f t="shared" si="0"/>
         <v>384.37279999999976</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="27">
+        <f t="shared" si="1"/>
+        <v>400.77660074373625</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
       <c r="C34" s="32">
         <v>30</v>
       </c>
@@ -1324,12 +1675,15 @@
         <f t="shared" si="0"/>
         <v>384.67919999999975</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="27">
+        <f t="shared" si="1"/>
+        <v>400.73407312917556</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
       <c r="C35" s="32">
         <v>31</v>
       </c>
@@ -1340,12 +1694,15 @@
         <f t="shared" si="0"/>
         <v>384.98559999999969</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="27">
+        <f t="shared" si="1"/>
+        <v>400.69154551461492</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
       <c r="C36" s="32">
         <v>32</v>
       </c>
@@ -1356,12 +1713,15 @@
         <f t="shared" si="0"/>
         <v>385.29199999999969</v>
       </c>
-      <c r="F36" s="27"/>
+      <c r="F36" s="27">
+        <f t="shared" si="1"/>
+        <v>400.64901790005428</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
       <c r="C37" s="32">
         <v>33</v>
       </c>
@@ -1372,12 +1732,15 @@
         <f t="shared" si="0"/>
         <v>385.59839999999969</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="27">
+        <f t="shared" si="1"/>
+        <v>400.60649028549363</v>
+      </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
       <c r="C38" s="32">
         <v>34</v>
       </c>
@@ -1388,12 +1751,15 @@
         <f t="shared" si="0"/>
         <v>385.90479999999968</v>
       </c>
-      <c r="F38" s="27"/>
+      <c r="F38" s="27">
+        <f t="shared" si="1"/>
+        <v>400.56396267093299</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
       <c r="C39" s="32">
         <v>35</v>
       </c>
@@ -1404,12 +1770,15 @@
         <f t="shared" si="0"/>
         <v>386.21119999999968</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="27">
+        <f t="shared" si="1"/>
+        <v>400.52143505637235</v>
+      </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
       <c r="C40" s="32">
         <v>36</v>
       </c>
@@ -1420,12 +1789,15 @@
         <f t="shared" si="0"/>
         <v>386.51759999999967</v>
       </c>
-      <c r="F40" s="27"/>
+      <c r="F40" s="27">
+        <f t="shared" si="1"/>
+        <v>400.47890744181171</v>
+      </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
       <c r="C41" s="32">
         <v>37</v>
       </c>
@@ -1436,12 +1808,15 @@
         <f t="shared" si="0"/>
         <v>386.82399999999973</v>
       </c>
-      <c r="F41" s="27"/>
+      <c r="F41" s="27">
+        <f t="shared" si="1"/>
+        <v>400.43637982725107</v>
+      </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
       <c r="C42" s="32">
         <v>38</v>
       </c>
@@ -1452,12 +1827,15 @@
         <f t="shared" si="0"/>
         <v>387.13039999999972</v>
       </c>
-      <c r="F42" s="27"/>
+      <c r="F42" s="27">
+        <f t="shared" si="1"/>
+        <v>400.39385221269043</v>
+      </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="35"/>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="36"/>
       <c r="C43" s="32">
         <v>39</v>
       </c>
@@ -1468,12 +1846,15 @@
         <f t="shared" si="0"/>
         <v>387.43679999999972</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="27">
+        <f t="shared" si="1"/>
+        <v>400.35132459812974</v>
+      </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="36"/>
       <c r="C44" s="32">
         <v>40</v>
       </c>
@@ -1484,12 +1865,15 @@
         <f t="shared" si="0"/>
         <v>387.74319999999972</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F44" s="27">
+        <f t="shared" si="1"/>
+        <v>400.3087969835691</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="36"/>
       <c r="C45" s="32">
         <v>41</v>
       </c>
@@ -1500,12 +1884,15 @@
         <f t="shared" si="0"/>
         <v>388.04959999999971</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="27">
+        <f t="shared" si="1"/>
+        <v>400.26626936900846</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="36"/>
       <c r="C46" s="32">
         <v>42</v>
       </c>
@@ -1516,12 +1903,15 @@
         <f t="shared" si="0"/>
         <v>388.35599999999971</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="27">
+        <f t="shared" si="1"/>
+        <v>400.22374175444781</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="36"/>
       <c r="C47" s="32">
         <v>43</v>
       </c>
@@ -1532,12 +1922,15 @@
         <f t="shared" si="0"/>
         <v>388.76119999999975</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="27">
+        <f t="shared" si="1"/>
+        <v>400.18121413988717</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="36"/>
       <c r="C48" s="32">
         <v>44</v>
       </c>
@@ -1548,12 +1941,15 @@
         <f t="shared" si="0"/>
         <v>389.16639999999978</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="27">
+        <f t="shared" si="1"/>
+        <v>400.13868652532653</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="36"/>
       <c r="C49" s="32">
         <v>45</v>
       </c>
@@ -1564,12 +1960,15 @@
         <f t="shared" si="0"/>
         <v>389.57159999999982</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="27">
+        <f t="shared" si="1"/>
+        <v>400.09615891076589</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="36"/>
       <c r="C50" s="32">
         <v>46</v>
       </c>
@@ -1580,12 +1979,15 @@
         <f t="shared" si="0"/>
         <v>389.97679999999986</v>
       </c>
-      <c r="F50" s="27"/>
+      <c r="F50" s="27">
+        <f t="shared" si="1"/>
+        <v>400.05363129620525</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="36"/>
       <c r="C51" s="32">
         <v>47</v>
       </c>
@@ -1596,12 +1998,15 @@
         <f t="shared" si="0"/>
         <v>390.38199999999989</v>
       </c>
-      <c r="F51" s="27"/>
+      <c r="F51" s="27">
+        <f t="shared" si="1"/>
+        <v>400.01110368164461</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="36"/>
       <c r="C52" s="32">
         <v>48</v>
       </c>
@@ -1612,12 +2017,15 @@
         <f t="shared" si="0"/>
         <v>390.78719999999993</v>
       </c>
-      <c r="F52" s="27"/>
+      <c r="F52" s="27">
+        <f t="shared" si="1"/>
+        <v>399.96857606708392</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="35"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="36"/>
       <c r="C53" s="32">
         <v>49</v>
       </c>
@@ -1628,12 +2036,15 @@
         <f t="shared" si="0"/>
         <v>391.19239999999991</v>
       </c>
-      <c r="F53" s="27"/>
+      <c r="F53" s="27">
+        <f t="shared" si="1"/>
+        <v>399.92604845252328</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
+    <row r="54" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37"/>
       <c r="C54" s="33">
         <v>50</v>
       </c>
@@ -1644,12 +2055,15 @@
         <f t="shared" si="0"/>
         <v>391.59759999999989</v>
       </c>
-      <c r="F54" s="27"/>
+      <c r="F54" s="27">
+        <f t="shared" si="1"/>
+        <v>399.88352083796264</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="34">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="35">
         <v>2017</v>
       </c>
       <c r="C55" s="31">
@@ -1662,12 +2076,15 @@
         <f t="shared" si="0"/>
         <v>392.00279999999992</v>
       </c>
-      <c r="F55" s="27"/>
+      <c r="F55" s="27">
+        <f t="shared" si="1"/>
+        <v>399.84099322340199</v>
+      </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="36"/>
       <c r="C56" s="32">
         <v>52</v>
       </c>
@@ -1678,12 +2095,15 @@
         <f t="shared" si="0"/>
         <v>392.4079999999999</v>
       </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="27">
+        <f t="shared" si="1"/>
+        <v>399.79846560884135</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="35"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="36"/>
       <c r="C57" s="32">
         <v>53</v>
       </c>
@@ -1694,12 +2114,15 @@
         <f t="shared" si="0"/>
         <v>392.81319999999982</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="27">
+        <f t="shared" si="1"/>
+        <v>399.75593799428071</v>
+      </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="35"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="36"/>
       <c r="C58" s="32">
         <v>54</v>
       </c>
@@ -1710,12 +2133,15 @@
         <f t="shared" si="0"/>
         <v>393.21839999999992</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="27">
+        <f t="shared" si="1"/>
+        <v>399.71341037972007</v>
+      </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="36"/>
       <c r="C59" s="32">
         <v>55</v>
       </c>
@@ -1726,12 +2152,15 @@
         <f t="shared" si="0"/>
         <v>393.46299999999991</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="27">
+        <f t="shared" si="1"/>
+        <v>399.67088276515943</v>
+      </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="36"/>
       <c r="C60" s="32">
         <v>56</v>
       </c>
@@ -1742,12 +2171,15 @@
         <f t="shared" si="0"/>
         <v>393.7075999999999</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="27">
+        <f t="shared" si="1"/>
+        <v>399.62835515059874</v>
+      </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="35"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="36"/>
       <c r="C61" s="32">
         <v>57</v>
       </c>
@@ -1758,12 +2190,15 @@
         <f t="shared" si="0"/>
         <v>393.95219999999989</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="27">
+        <f t="shared" si="1"/>
+        <v>399.5858275360381</v>
+      </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="36"/>
       <c r="C62" s="32">
         <v>58</v>
       </c>
@@ -1774,12 +2209,15 @@
         <f t="shared" si="0"/>
         <v>394.19679999999988</v>
       </c>
-      <c r="F62" s="27"/>
+      <c r="F62" s="27">
+        <f t="shared" si="1"/>
+        <v>399.54329992147746</v>
+      </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="36"/>
       <c r="C63" s="32">
         <v>59</v>
       </c>
@@ -1790,12 +2228,15 @@
         <f t="shared" si="0"/>
         <v>394.44139999999987</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="27">
+        <f t="shared" si="1"/>
+        <v>399.50077230691682</v>
+      </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="35"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="36"/>
       <c r="C64" s="32">
         <v>60</v>
       </c>
@@ -1806,12 +2247,15 @@
         <f t="shared" si="0"/>
         <v>394.68599999999986</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="27">
+        <f t="shared" si="1"/>
+        <v>399.45824469235617</v>
+      </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="35"/>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="36"/>
       <c r="C65" s="32">
         <v>61</v>
       </c>
@@ -1822,12 +2266,15 @@
         <f t="shared" si="0"/>
         <v>394.93059999999986</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="27">
+        <f t="shared" si="1"/>
+        <v>399.41571707779553</v>
+      </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="36"/>
       <c r="C66" s="32">
         <v>62</v>
       </c>
@@ -1838,12 +2285,15 @@
         <f t="shared" si="0"/>
         <v>395.17519999999985</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="27">
+        <f t="shared" si="1"/>
+        <v>399.37318946323489</v>
+      </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="35"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="36"/>
       <c r="C67" s="32">
         <v>63</v>
       </c>
@@ -1854,12 +2304,15 @@
         <f t="shared" si="0"/>
         <v>395.41979999999973</v>
       </c>
-      <c r="F67" s="27"/>
+      <c r="F67" s="27">
+        <f t="shared" si="1"/>
+        <v>399.33066184867425</v>
+      </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="36"/>
       <c r="C68" s="32">
         <v>64</v>
       </c>
@@ -1870,12 +2323,15 @@
         <f t="shared" si="0"/>
         <v>395.66439999999972</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="27">
+        <f t="shared" si="1"/>
+        <v>399.28813423411361</v>
+      </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="35"/>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="36"/>
       <c r="C69" s="32">
         <v>65</v>
       </c>
@@ -1886,12 +2342,15 @@
         <f t="shared" si="0"/>
         <v>395.90899999999971</v>
       </c>
-      <c r="F69" s="27"/>
+      <c r="F69" s="27">
+        <f t="shared" si="1"/>
+        <v>399.24560661955292</v>
+      </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="35"/>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="36"/>
       <c r="C70" s="32">
         <v>66</v>
       </c>
@@ -1902,12 +2361,15 @@
         <f t="shared" si="0"/>
         <v>396.1535999999997</v>
       </c>
-      <c r="F70" s="27"/>
+      <c r="F70" s="27">
+        <f t="shared" si="1"/>
+        <v>399.20307900499228</v>
+      </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="35"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="36"/>
       <c r="C71" s="32">
         <v>67</v>
       </c>
@@ -1918,12 +2380,15 @@
         <f t="shared" si="0"/>
         <v>396.39819999999969</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="27">
+        <f t="shared" si="1"/>
+        <v>399.16055139043164</v>
+      </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="35"/>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="36"/>
       <c r="C72" s="32">
         <v>68</v>
       </c>
@@ -1934,12 +2399,15 @@
         <f t="shared" si="0"/>
         <v>396.64279999999968</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="27">
+        <f t="shared" si="1"/>
+        <v>399.11802377587099</v>
+      </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="35"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="36"/>
       <c r="C73" s="32">
         <v>69</v>
       </c>
@@ -1950,12 +2418,15 @@
         <f t="shared" si="0"/>
         <v>396.88739999999967</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="27">
+        <f t="shared" si="1"/>
+        <v>399.07549616131035</v>
+      </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="35"/>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="36"/>
       <c r="C74" s="32">
         <v>70</v>
       </c>
@@ -1966,12 +2437,15 @@
         <f t="shared" si="0"/>
         <v>397.13199999999966</v>
       </c>
-      <c r="F74" s="27"/>
+      <c r="F74" s="27">
+        <f t="shared" si="1"/>
+        <v>399.03296854674971</v>
+      </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="36"/>
       <c r="C75" s="32">
         <v>71</v>
       </c>
@@ -1982,12 +2456,15 @@
         <f t="shared" si="0"/>
         <v>397.37659999999977</v>
       </c>
-      <c r="F75" s="27"/>
+      <c r="F75" s="27">
+        <f t="shared" si="1"/>
+        <v>398.99044093218907</v>
+      </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="35"/>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="36"/>
       <c r="C76" s="32">
         <v>72</v>
       </c>
@@ -1998,12 +2475,15 @@
         <f t="shared" si="0"/>
         <v>397.62119999999965</v>
       </c>
-      <c r="F76" s="27"/>
+      <c r="F76" s="27">
+        <f t="shared" si="1"/>
+        <v>398.94791331762843</v>
+      </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="36"/>
       <c r="C77" s="32">
         <v>73</v>
       </c>
@@ -2014,12 +2494,15 @@
         <f t="shared" si="0"/>
         <v>397.86579999999975</v>
       </c>
-      <c r="F77" s="27"/>
+      <c r="F77" s="27">
+        <f t="shared" si="1"/>
+        <v>398.90538570306774</v>
+      </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="35"/>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="36"/>
       <c r="C78" s="32">
         <v>74</v>
       </c>
@@ -2030,12 +2513,15 @@
         <f t="shared" si="0"/>
         <v>398.11039999999974</v>
       </c>
-      <c r="F78" s="27"/>
+      <c r="F78" s="27">
+        <f t="shared" si="1"/>
+        <v>398.8628580885071</v>
+      </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="35"/>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="36"/>
       <c r="C79" s="32">
         <v>75</v>
       </c>
@@ -2046,12 +2532,15 @@
         <f t="shared" si="0"/>
         <v>398.35499999999973</v>
       </c>
-      <c r="F79" s="27"/>
+      <c r="F79" s="27">
+        <f t="shared" si="1"/>
+        <v>398.82033047394646</v>
+      </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="35"/>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="36"/>
       <c r="C80" s="32">
         <v>76</v>
       </c>
@@ -2062,12 +2551,15 @@
         <f t="shared" si="0"/>
         <v>398.59959999999973</v>
       </c>
-      <c r="F80" s="27"/>
+      <c r="F80" s="27">
+        <f t="shared" si="1"/>
+        <v>398.77780285938582</v>
+      </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="35"/>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="36"/>
       <c r="C81" s="32">
         <v>77</v>
       </c>
@@ -2078,12 +2570,15 @@
         <f t="shared" si="0"/>
         <v>398.91819999999973</v>
       </c>
-      <c r="F81" s="27"/>
+      <c r="F81" s="27">
+        <f t="shared" si="1"/>
+        <v>398.73527524482517</v>
+      </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="36"/>
       <c r="C82" s="32">
         <v>78</v>
       </c>
@@ -2094,12 +2589,15 @@
         <f t="shared" si="0"/>
         <v>399.23679999999962</v>
       </c>
-      <c r="F82" s="27"/>
+      <c r="F82" s="27">
+        <f t="shared" si="1"/>
+        <v>398.69274763026453</v>
+      </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="35"/>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="36"/>
       <c r="C83" s="32">
         <v>79</v>
       </c>
@@ -2110,12 +2608,15 @@
         <f t="shared" si="0"/>
         <v>399.55539999999962</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="27">
+        <f t="shared" si="1"/>
+        <v>398.65022001570389</v>
+      </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="35"/>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="36"/>
       <c r="C84" s="32">
         <v>80</v>
       </c>
@@ -2126,12 +2627,15 @@
         <f t="shared" si="0"/>
         <v>399.87399999999963</v>
       </c>
-      <c r="F84" s="27"/>
+      <c r="F84" s="27">
+        <f t="shared" si="1"/>
+        <v>398.60769240114325</v>
+      </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="35"/>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="36"/>
       <c r="C85" s="32">
         <v>81</v>
       </c>
@@ -2142,12 +2646,15 @@
         <f t="shared" si="0"/>
         <v>400.19259999999957</v>
       </c>
-      <c r="F85" s="27"/>
+      <c r="F85" s="27">
+        <f t="shared" si="1"/>
+        <v>398.56516478658261</v>
+      </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="35"/>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="36"/>
       <c r="C86" s="32">
         <v>82</v>
       </c>
@@ -2158,12 +2665,15 @@
         <f t="shared" si="0"/>
         <v>400.51119999999958</v>
       </c>
-      <c r="F86" s="27"/>
+      <c r="F86" s="27">
+        <f t="shared" si="1"/>
+        <v>398.52263717202192</v>
+      </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="35"/>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="36"/>
       <c r="C87" s="32">
         <v>83</v>
       </c>
@@ -2174,12 +2684,15 @@
         <f t="shared" si="0"/>
         <v>400.82979999999958</v>
       </c>
-      <c r="F87" s="27"/>
+      <c r="F87" s="27">
+        <f t="shared" si="1"/>
+        <v>398.48010955746128</v>
+      </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="35"/>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="36"/>
       <c r="C88" s="32">
         <v>84</v>
       </c>
@@ -2190,12 +2703,15 @@
         <f t="shared" si="0"/>
         <v>401.14839999999953</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="F88" s="27">
+        <f t="shared" si="1"/>
+        <v>398.43758194290064</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="35"/>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="36"/>
       <c r="C89" s="32">
         <v>85</v>
       </c>
@@ -2206,12 +2722,15 @@
         <f t="shared" si="0"/>
         <v>401.46699999999953</v>
       </c>
-      <c r="F89" s="27"/>
+      <c r="F89" s="27">
+        <f t="shared" si="1"/>
+        <v>398.39505432834</v>
+      </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="35"/>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="36"/>
       <c r="C90" s="32">
         <v>86</v>
       </c>
@@ -2222,12 +2741,15 @@
         <f t="shared" si="0"/>
         <v>401.78559999999953</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="F90" s="27">
+        <f t="shared" si="1"/>
+        <v>398.35252671377935</v>
+      </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="36"/>
       <c r="C91" s="32">
         <v>87</v>
       </c>
@@ -2238,12 +2760,15 @@
         <f t="shared" si="0"/>
         <v>402.10419999999954</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="F91" s="27">
+        <f t="shared" si="1"/>
+        <v>398.30999909921871</v>
+      </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="35"/>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="36"/>
       <c r="C92" s="32">
         <v>88</v>
       </c>
@@ -2254,12 +2779,15 @@
         <f t="shared" si="0"/>
         <v>402.42279999999954</v>
       </c>
-      <c r="F92" s="27"/>
+      <c r="F92" s="27">
+        <f t="shared" si="1"/>
+        <v>398.26747148465807</v>
+      </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="35"/>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="36"/>
       <c r="C93" s="32">
         <v>89</v>
       </c>
@@ -2270,12 +2798,15 @@
         <f t="shared" si="0"/>
         <v>402.74139999999954</v>
       </c>
-      <c r="F93" s="27"/>
+      <c r="F93" s="27">
+        <f t="shared" si="1"/>
+        <v>398.22494387009743</v>
+      </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="35"/>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="36"/>
       <c r="C94" s="32">
         <v>90</v>
       </c>
@@ -2286,12 +2817,15 @@
         <f t="shared" si="0"/>
         <v>403.05999999999966</v>
       </c>
-      <c r="F94" s="27"/>
+      <c r="F94" s="27">
+        <f t="shared" si="1"/>
+        <v>398.18241625553674</v>
+      </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="35"/>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="36"/>
       <c r="C95" s="32">
         <v>91</v>
       </c>
@@ -2299,15 +2833,18 @@
         <v>321.89</v>
       </c>
       <c r="E95" s="27">
-        <f t="shared" ref="E95:E130" si="1">AVERAGE(D70:D119)</f>
+        <f t="shared" ref="E95:E130" si="2">AVERAGE(D70:D119)</f>
         <v>403.37859999999966</v>
       </c>
-      <c r="F95" s="27"/>
+      <c r="F95" s="27">
+        <f t="shared" ref="F95:F130" si="3">402.009901565995 + -0.042527614560647 * C95</f>
+        <v>398.1398886409761</v>
+      </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="35"/>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="36"/>
       <c r="C96" s="32">
         <v>92</v>
       </c>
@@ -2315,15 +2852,18 @@
         <v>321.89</v>
       </c>
       <c r="E96" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>403.69719999999967</v>
       </c>
-      <c r="F96" s="27"/>
+      <c r="F96" s="27">
+        <f t="shared" si="3"/>
+        <v>398.09736102641546</v>
+      </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="35"/>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="36"/>
       <c r="C97" s="32">
         <v>93</v>
       </c>
@@ -2331,15 +2871,18 @@
         <v>321.89</v>
       </c>
       <c r="E97" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>404.11839999999972</v>
       </c>
-      <c r="F97" s="27"/>
+      <c r="F97" s="27">
+        <f t="shared" si="3"/>
+        <v>398.05483341185482</v>
+      </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="36"/>
       <c r="C98" s="32">
         <v>94</v>
       </c>
@@ -2347,15 +2890,18 @@
         <v>321.89</v>
       </c>
       <c r="E98" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>404.53959999999984</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="F98" s="27">
+        <f t="shared" si="3"/>
+        <v>398.01230579729418</v>
+      </c>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="35"/>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="36"/>
       <c r="C99" s="32">
         <v>95</v>
       </c>
@@ -2363,15 +2909,18 @@
         <v>321.89</v>
       </c>
       <c r="E99" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>404.96079999999989</v>
       </c>
-      <c r="F99" s="27"/>
+      <c r="F99" s="27">
+        <f t="shared" si="3"/>
+        <v>397.96977818273353</v>
+      </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="35"/>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="36"/>
       <c r="C100" s="32">
         <v>96</v>
       </c>
@@ -2379,15 +2928,18 @@
         <v>321.89</v>
       </c>
       <c r="E100" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>405.38200000000006</v>
       </c>
-      <c r="F100" s="27"/>
+      <c r="F100" s="27">
+        <f t="shared" si="3"/>
+        <v>397.92725056817289</v>
+      </c>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="35"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="36"/>
       <c r="C101" s="32">
         <v>97</v>
       </c>
@@ -2395,15 +2947,18 @@
         <v>321.89</v>
       </c>
       <c r="E101" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>405.80320000000006</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="F101" s="27">
+        <f t="shared" si="3"/>
+        <v>397.88472295361225</v>
+      </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="35"/>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="36"/>
       <c r="C102" s="32">
         <v>98</v>
       </c>
@@ -2411,15 +2966,18 @@
         <v>321.89</v>
       </c>
       <c r="E102" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406.22440000000017</v>
       </c>
-      <c r="F102" s="27"/>
+      <c r="F102" s="27">
+        <f t="shared" si="3"/>
+        <v>397.84219533905161</v>
+      </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="35"/>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="36"/>
       <c r="C103" s="32">
         <v>99</v>
       </c>
@@ -2427,15 +2985,18 @@
         <v>321.89</v>
       </c>
       <c r="E103" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406.64560000000017</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="27">
+        <f t="shared" si="3"/>
+        <v>397.79966772449092</v>
+      </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
     </row>
-    <row r="104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
+    <row r="104" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="37"/>
       <c r="C104" s="33">
         <v>100</v>
       </c>
@@ -2443,15 +3004,18 @@
         <v>321.89</v>
       </c>
       <c r="E104" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>407.06680000000023</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="F104" s="27">
+        <f t="shared" si="3"/>
+        <v>397.75714010993028</v>
+      </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="34">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="35">
         <v>2018</v>
       </c>
       <c r="C105" s="31">
@@ -2461,15 +3025,18 @@
         <v>419.1</v>
       </c>
       <c r="E105" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>407.48800000000023</v>
       </c>
-      <c r="F105" s="27"/>
+      <c r="F105" s="27">
+        <f t="shared" si="3"/>
+        <v>397.71461249536964</v>
+      </c>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="35"/>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="36"/>
       <c r="C106" s="32">
         <v>102</v>
       </c>
@@ -2477,15 +3044,18 @@
         <v>419.1</v>
       </c>
       <c r="E106" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>407.90920000000028</v>
       </c>
-      <c r="F106" s="27"/>
+      <c r="F106" s="27">
+        <f t="shared" si="3"/>
+        <v>397.672084880809</v>
+      </c>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="35"/>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="36"/>
       <c r="C107" s="32">
         <v>103</v>
       </c>
@@ -2493,15 +3063,18 @@
         <v>419.1</v>
       </c>
       <c r="E107" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>408.33040000000028</v>
       </c>
-      <c r="F107" s="27"/>
+      <c r="F107" s="27">
+        <f t="shared" si="3"/>
+        <v>397.62955726624836</v>
+      </c>
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="35"/>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="36"/>
       <c r="C108" s="32">
         <v>104</v>
       </c>
@@ -2509,15 +3082,18 @@
         <v>419.1</v>
       </c>
       <c r="E108" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>408.75160000000034</v>
       </c>
-      <c r="F108" s="27"/>
+      <c r="F108" s="27">
+        <f t="shared" si="3"/>
+        <v>397.58702965168771</v>
+      </c>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="35"/>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="36"/>
       <c r="C109" s="32">
         <v>105</v>
       </c>
@@ -2525,15 +3101,18 @@
         <v>419.1</v>
       </c>
       <c r="E109" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>409.00580000000025</v>
       </c>
-      <c r="F109" s="27"/>
+      <c r="F109" s="27">
+        <f t="shared" si="3"/>
+        <v>397.54450203712707</v>
+      </c>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="35"/>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="36"/>
       <c r="C110" s="32">
         <v>106</v>
       </c>
@@ -2541,15 +3120,18 @@
         <v>419.1</v>
       </c>
       <c r="E110" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>409.26000000000022</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="27">
+        <f t="shared" si="3"/>
+        <v>397.50197442256643</v>
+      </c>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="35"/>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="36"/>
       <c r="C111" s="32">
         <v>107</v>
       </c>
@@ -2557,15 +3139,18 @@
         <v>419.1</v>
       </c>
       <c r="E111" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>409.51420000000019</v>
       </c>
-      <c r="F111" s="27"/>
+      <c r="F111" s="27">
+        <f t="shared" si="3"/>
+        <v>397.45944680800574</v>
+      </c>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="36"/>
       <c r="C112" s="32">
         <v>108</v>
       </c>
@@ -2573,15 +3158,18 @@
         <v>419.1</v>
       </c>
       <c r="E112" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>409.76840000000016</v>
       </c>
-      <c r="F112" s="27"/>
+      <c r="F112" s="27">
+        <f t="shared" si="3"/>
+        <v>397.4169191934451</v>
+      </c>
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="35"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="36"/>
       <c r="C113" s="32">
         <v>109</v>
       </c>
@@ -2589,15 +3177,18 @@
         <v>419.1</v>
       </c>
       <c r="E113" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.02260000000007</v>
       </c>
-      <c r="F113" s="27"/>
+      <c r="F113" s="27">
+        <f t="shared" si="3"/>
+        <v>397.37439157888446</v>
+      </c>
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="35"/>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="36"/>
       <c r="C114" s="32">
         <v>110</v>
       </c>
@@ -2605,15 +3196,18 @@
         <v>419.1</v>
       </c>
       <c r="E114" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.27680000000009</v>
       </c>
-      <c r="F114" s="27"/>
+      <c r="F114" s="27">
+        <f t="shared" si="3"/>
+        <v>397.33186396432382</v>
+      </c>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="35"/>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="36"/>
       <c r="C115" s="32">
         <v>111</v>
       </c>
@@ -2621,15 +3215,18 @@
         <v>419.1</v>
       </c>
       <c r="E115" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.53100000000006</v>
       </c>
-      <c r="F115" s="27"/>
+      <c r="F115" s="27">
+        <f t="shared" si="3"/>
+        <v>397.28933634976318</v>
+      </c>
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="35"/>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="36"/>
       <c r="C116" s="32">
         <v>112</v>
       </c>
@@ -2637,15 +3234,18 @@
         <v>419.1</v>
       </c>
       <c r="E116" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.78520000000003</v>
       </c>
-      <c r="F116" s="27"/>
+      <c r="F116" s="27">
+        <f t="shared" si="3"/>
+        <v>397.24680873520253</v>
+      </c>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="35"/>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="36"/>
       <c r="C117" s="32">
         <v>113</v>
       </c>
@@ -2653,15 +3253,18 @@
         <v>419.1</v>
       </c>
       <c r="E117" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.03939999999994</v>
       </c>
-      <c r="F117" s="27"/>
+      <c r="F117" s="27">
+        <f t="shared" si="3"/>
+        <v>397.20428112064189</v>
+      </c>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="35"/>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="36"/>
       <c r="C118" s="32">
         <v>114</v>
       </c>
@@ -2669,15 +3272,18 @@
         <v>419.1</v>
       </c>
       <c r="E118" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.29359999999991</v>
       </c>
-      <c r="F118" s="27"/>
+      <c r="F118" s="27">
+        <f t="shared" si="3"/>
+        <v>397.16175350608125</v>
+      </c>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="36"/>
       <c r="C119" s="32">
         <v>115</v>
       </c>
@@ -2685,15 +3291,18 @@
         <v>419.1</v>
       </c>
       <c r="E119" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.54779999999994</v>
       </c>
-      <c r="F119" s="27"/>
+      <c r="F119" s="27">
+        <f t="shared" si="3"/>
+        <v>397.11922589152061</v>
+      </c>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="35"/>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="36"/>
       <c r="C120" s="32">
         <v>116</v>
       </c>
@@ -2701,15 +3310,18 @@
         <v>419.1</v>
       </c>
       <c r="E120" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.80199999999991</v>
       </c>
-      <c r="F120" s="27"/>
+      <c r="F120" s="27">
+        <f t="shared" si="3"/>
+        <v>397.07669827695992</v>
+      </c>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="35"/>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="36"/>
       <c r="C121" s="32">
         <v>117</v>
       </c>
@@ -2717,15 +3329,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E121" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.05619999999988</v>
       </c>
-      <c r="F121" s="27"/>
+      <c r="F121" s="27">
+        <f t="shared" si="3"/>
+        <v>397.03417066239928</v>
+      </c>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="35"/>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="36"/>
       <c r="C122" s="32">
         <v>118</v>
       </c>
@@ -2733,15 +3348,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E122" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.31039999999985</v>
       </c>
-      <c r="F122" s="27"/>
+      <c r="F122" s="27">
+        <f t="shared" si="3"/>
+        <v>396.99164304783864</v>
+      </c>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="35"/>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="36"/>
       <c r="C123" s="32">
         <v>119</v>
       </c>
@@ -2749,15 +3367,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E123" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.56459999999993</v>
       </c>
-      <c r="F123" s="27"/>
+      <c r="F123" s="27">
+        <f t="shared" si="3"/>
+        <v>396.949115433278</v>
+      </c>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="35"/>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="36"/>
       <c r="C124" s="32">
         <v>120</v>
       </c>
@@ -2765,15 +3386,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E124" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.8187999999999</v>
       </c>
-      <c r="F124" s="27"/>
+      <c r="F124" s="27">
+        <f t="shared" si="3"/>
+        <v>396.90658781871736</v>
+      </c>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="35"/>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="36"/>
       <c r="C125" s="32">
         <v>121</v>
       </c>
@@ -2781,15 +3405,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E125" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>413.07299999999987</v>
       </c>
-      <c r="F125" s="27"/>
+      <c r="F125" s="27">
+        <f t="shared" si="3"/>
+        <v>396.86406020415671</v>
+      </c>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="36"/>
       <c r="C126" s="32">
         <v>122</v>
       </c>
@@ -2797,15 +3424,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E126" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>413.32719999999989</v>
       </c>
-      <c r="F126" s="27"/>
+      <c r="F126" s="27">
+        <f t="shared" si="3"/>
+        <v>396.82153258959607</v>
+      </c>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="35"/>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="36"/>
       <c r="C127" s="32">
         <v>123</v>
       </c>
@@ -2813,15 +3443,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E127" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>413.58139999999992</v>
       </c>
-      <c r="F127" s="27"/>
+      <c r="F127" s="27">
+        <f t="shared" si="3"/>
+        <v>396.77900497503543</v>
+      </c>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="35"/>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="36"/>
       <c r="C128" s="32">
         <v>124</v>
       </c>
@@ -2829,15 +3462,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E128" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>413.83559999999989</v>
       </c>
-      <c r="F128" s="27"/>
+      <c r="F128" s="27">
+        <f t="shared" si="3"/>
+        <v>396.73647736047479</v>
+      </c>
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="35"/>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="36"/>
       <c r="C129" s="32">
         <v>125</v>
       </c>
@@ -2845,15 +3481,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E129" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>414.08979999999991</v>
       </c>
-      <c r="F129" s="27"/>
+      <c r="F129" s="27">
+        <f t="shared" si="3"/>
+        <v>396.6939497459141</v>
+      </c>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="35"/>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="36"/>
       <c r="C130" s="32">
         <v>126</v>
       </c>
@@ -2861,15 +3500,18 @@
         <v>554.20000000000005</v>
       </c>
       <c r="E130" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>414.34399999999988</v>
       </c>
-      <c r="F130" s="27"/>
+      <c r="F130" s="27">
+        <f t="shared" si="3"/>
+        <v>396.65142213135346</v>
+      </c>
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="35"/>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="36"/>
       <c r="C131" s="32">
         <v>127</v>
       </c>
@@ -2881,8 +3523,8 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="35"/>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="36"/>
       <c r="C132" s="32">
         <v>128</v>
       </c>
@@ -2894,8 +3536,8 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="36"/>
       <c r="C133" s="32">
         <v>129</v>
       </c>
@@ -2907,8 +3549,8 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="35"/>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="36"/>
       <c r="C134" s="32">
         <v>130</v>
       </c>
@@ -2920,8 +3562,8 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="35"/>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="36"/>
       <c r="C135" s="32">
         <v>131</v>
       </c>
@@ -2933,8 +3575,8 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="35"/>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="36"/>
       <c r="C136" s="32">
         <v>132</v>
       </c>
@@ -2946,8 +3588,8 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="35"/>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="36"/>
       <c r="C137" s="32">
         <v>133</v>
       </c>
@@ -2959,8 +3601,8 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="35"/>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="36"/>
       <c r="C138" s="32">
         <v>134</v>
       </c>
@@ -2972,8 +3614,8 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="35"/>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="36"/>
       <c r="C139" s="32">
         <v>135</v>
       </c>
@@ -2985,8 +3627,8 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="36"/>
       <c r="C140" s="32">
         <v>136</v>
       </c>
@@ -2998,8 +3640,8 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="35"/>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="36"/>
       <c r="C141" s="32">
         <v>137</v>
       </c>
@@ -3011,8 +3653,8 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="35"/>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="36"/>
       <c r="C142" s="32">
         <v>138</v>
       </c>
@@ -3024,8 +3666,8 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="35"/>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="36"/>
       <c r="C143" s="32">
         <v>139</v>
       </c>
@@ -3037,8 +3679,8 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="35"/>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="36"/>
       <c r="C144" s="32">
         <v>140</v>
       </c>
@@ -3050,8 +3692,8 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="35"/>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="36"/>
       <c r="C145" s="32">
         <v>141</v>
       </c>
@@ -3063,8 +3705,8 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="35"/>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="36"/>
       <c r="C146" s="32">
         <v>142</v>
       </c>
@@ -3076,8 +3718,8 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="36"/>
       <c r="C147" s="32">
         <v>143</v>
       </c>
@@ -3089,8 +3731,8 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="35"/>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="36"/>
       <c r="C148" s="32">
         <v>144</v>
       </c>
@@ -3102,8 +3744,8 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="35"/>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" s="36"/>
       <c r="C149" s="32">
         <v>145</v>
       </c>
@@ -3115,8 +3757,8 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="35"/>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="36"/>
       <c r="C150" s="32">
         <v>146</v>
       </c>
@@ -3128,8 +3770,8 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="35"/>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="36"/>
       <c r="C151" s="32">
         <v>147</v>
       </c>
@@ -3141,8 +3783,8 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="35"/>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="36"/>
       <c r="C152" s="32">
         <v>148</v>
       </c>
@@ -3154,8 +3796,8 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="35"/>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="36"/>
       <c r="C153" s="32">
         <v>149</v>
       </c>
@@ -3167,8 +3809,8 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
     </row>
-    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="36"/>
+    <row r="154" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="37"/>
       <c r="C154" s="33">
         <v>150</v>
       </c>
@@ -3180,8 +3822,8 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="34">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="35">
         <v>2019</v>
       </c>
       <c r="C155" s="31">
@@ -3193,8 +3835,8 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="35"/>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="36"/>
       <c r="C156" s="32">
         <v>152</v>
       </c>
@@ -3204,8 +3846,8 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="35"/>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="36"/>
       <c r="C157" s="32">
         <v>153</v>
       </c>
@@ -3215,8 +3857,8 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="35"/>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="36"/>
       <c r="C158" s="32">
         <v>154</v>
       </c>
@@ -3226,8 +3868,8 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="35"/>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="36"/>
       <c r="C159" s="32">
         <v>155</v>
       </c>
@@ -3237,8 +3879,8 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="35"/>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="36"/>
       <c r="C160" s="32">
         <v>156</v>
       </c>
@@ -3248,8 +3890,8 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" s="36"/>
       <c r="C161" s="32">
         <v>157</v>
       </c>
@@ -3259,8 +3901,8 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="35"/>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B162" s="36"/>
       <c r="C162" s="32">
         <v>158</v>
       </c>
@@ -3270,8 +3912,8 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="35"/>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="36"/>
       <c r="C163" s="32">
         <v>159</v>
       </c>
@@ -3281,8 +3923,8 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="35"/>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="36"/>
       <c r="C164" s="32">
         <v>160</v>
       </c>
@@ -3292,8 +3934,8 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="35"/>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" s="36"/>
       <c r="C165" s="32">
         <v>161</v>
       </c>
@@ -3303,8 +3945,8 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="35"/>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B166" s="36"/>
       <c r="C166" s="32">
         <v>162</v>
       </c>
@@ -3314,8 +3956,8 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="35"/>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B167" s="36"/>
       <c r="C167" s="32">
         <v>163</v>
       </c>
@@ -3325,8 +3967,8 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" s="36"/>
       <c r="C168" s="32">
         <v>164</v>
       </c>
@@ -3336,8 +3978,8 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="35"/>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B169" s="36"/>
       <c r="C169" s="32">
         <v>165</v>
       </c>
@@ -3347,8 +3989,8 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="35"/>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="36"/>
       <c r="C170" s="32">
         <v>166</v>
       </c>
@@ -3358,8 +4000,8 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="35"/>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="36"/>
       <c r="C171" s="32">
         <v>167</v>
       </c>
@@ -3369,8 +4011,8 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="35"/>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="36"/>
       <c r="C172" s="32">
         <v>168</v>
       </c>
@@ -3380,8 +4022,8 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="35"/>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="36"/>
       <c r="C173" s="32">
         <v>169</v>
       </c>
@@ -3391,8 +4033,8 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="36"/>
       <c r="C174" s="32">
         <v>170</v>
       </c>
@@ -3402,8 +4044,8 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="35"/>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="36"/>
       <c r="C175" s="32">
         <v>171</v>
       </c>
@@ -3413,8 +4055,8 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="35"/>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="36"/>
       <c r="C176" s="32">
         <v>172</v>
       </c>
@@ -3424,8 +4066,8 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="35"/>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="36"/>
       <c r="C177" s="32">
         <v>173</v>
       </c>
@@ -3435,8 +4077,8 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="35"/>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="36"/>
       <c r="C178" s="32">
         <v>174</v>
       </c>
@@ -3446,8 +4088,8 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" s="35"/>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="36"/>
       <c r="C179" s="32">
         <v>175</v>
       </c>
@@ -3457,8 +4099,8 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="35"/>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="36"/>
       <c r="C180" s="32">
         <v>176</v>
       </c>
@@ -3468,8 +4110,8 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="36"/>
       <c r="C181" s="32">
         <v>177</v>
       </c>
@@ -3479,8 +4121,8 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="35"/>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="36"/>
       <c r="C182" s="32">
         <v>178</v>
       </c>
@@ -3490,8 +4132,8 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="35"/>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="36"/>
       <c r="C183" s="32">
         <v>179</v>
       </c>
@@ -3501,8 +4143,8 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="35"/>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="36"/>
       <c r="C184" s="32">
         <v>180</v>
       </c>
@@ -3512,8 +4154,8 @@
       <c r="G184" s="30"/>
       <c r="H184" s="27"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="35"/>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="36"/>
       <c r="C185" s="32">
         <v>181</v>
       </c>
@@ -3523,8 +4165,8 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="35"/>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" s="36"/>
       <c r="C186" s="32">
         <v>182</v>
       </c>
@@ -3534,8 +4176,8 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="35"/>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="36"/>
       <c r="C187" s="32">
         <v>183</v>
       </c>
@@ -3545,8 +4187,8 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="36"/>
       <c r="C188" s="32">
         <v>184</v>
       </c>
@@ -3556,8 +4198,8 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="35"/>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="36"/>
       <c r="C189" s="32">
         <v>185</v>
       </c>
@@ -3567,8 +4209,8 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="35"/>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="36"/>
       <c r="C190" s="32">
         <v>186</v>
       </c>
@@ -3578,8 +4220,8 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="35"/>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="36"/>
       <c r="C191" s="32">
         <v>187</v>
       </c>
@@ -3589,8 +4231,8 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="35"/>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="36"/>
       <c r="C192" s="32">
         <v>188</v>
       </c>
@@ -3600,8 +4242,8 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="35"/>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="36"/>
       <c r="C193" s="32">
         <v>189</v>
       </c>
@@ -3611,8 +4253,8 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="35"/>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="36"/>
       <c r="C194" s="32">
         <v>190</v>
       </c>
@@ -3622,8 +4264,8 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="35"/>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="36"/>
       <c r="C195" s="32">
         <v>191</v>
       </c>
@@ -3633,8 +4275,8 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="35"/>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="36"/>
       <c r="C196" s="32">
         <v>192</v>
       </c>
@@ -3644,8 +4286,8 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="36"/>
       <c r="C197" s="32">
         <v>193</v>
       </c>
@@ -3655,8 +4297,8 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="35"/>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="36"/>
       <c r="C198" s="32">
         <v>194</v>
       </c>
@@ -3666,8 +4308,8 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="35"/>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="36"/>
       <c r="C199" s="32">
         <v>195</v>
       </c>
@@ -3677,8 +4319,8 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="35"/>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="36"/>
       <c r="C200" s="32">
         <v>196</v>
       </c>
@@ -3688,8 +4330,8 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="35"/>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="36"/>
       <c r="C201" s="32">
         <v>197</v>
       </c>
@@ -3699,8 +4341,8 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B202" s="35"/>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="36"/>
       <c r="C202" s="32">
         <v>198</v>
       </c>
@@ -3710,8 +4352,8 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="35"/>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="36"/>
       <c r="C203" s="32">
         <v>199</v>
       </c>
@@ -3721,9 +4363,9 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
     </row>
-    <row r="204" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="36"/>
-      <c r="C204" s="37">
+    <row r="204" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="37"/>
+      <c r="C204" s="34">
         <v>200</v>
       </c>
       <c r="D204" s="20"/>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D30B7A1-4FB3-6748-B22A-F5BAD0F17F69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD8C90-8A83-3446-B2EE-A1063D906D61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
@@ -526,82 +526,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,61 +939,61 @@
   <sheetData>
     <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37">
-        <f ca="1">INT(RAND()*419)</f>
-        <v>252</v>
-      </c>
-      <c r="G4" s="42"/>
+      <c r="A4" s="26">
+        <v>0</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
+        <f ca="1">INT(RANDBETWEEN(347,575))</f>
+        <v>366</v>
+      </c>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">F4</f>
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="38">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), 435.03, 37.85))</f>
-        <v>382</v>
+      <c r="E5" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>377</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>-130</v>
-      </c>
-      <c r="G5" s="43"/>
+        <v>-11</v>
+      </c>
+      <c r="G5" s="35"/>
       <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1005,26 +1005,26 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">F5</f>
-        <v>-130</v>
+        <v>-11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="38">
-        <f t="shared" ref="E6:E20" ca="1" si="1">INT(_xlfn.NORM.INV(RAND(), 435.03, 37.85))</f>
-        <v>376</v>
+      <c r="E6" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>403</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F54" ca="1" si="2">B6-E6+D6</f>
-        <v>-506</v>
-      </c>
-      <c r="G6" s="43">
+        <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
+        <v>-414</v>
+      </c>
+      <c r="G6" s="35">
         <f ca="1">IF(F6 &lt; J29, (J28-F6), 0 )</f>
-        <v>1506</v>
+        <v>1414</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1037,30 +1037,30 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-506</v>
+        <v>-414</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>1506</v>
-      </c>
-      <c r="E7" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>468</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>471</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>532</v>
-      </c>
-      <c r="G7" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-885</v>
+      </c>
+      <c r="G7" s="35"/>
       <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1072,29 +1072,29 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>532</v>
+        <v>-885</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>454</v>
+        <v>1414</v>
+      </c>
+      <c r="E8" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>398</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="G8" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="G8" s="35">
         <f ca="1">IF(F8 &lt; J29, (J28-F8), 0 )</f>
-        <v>922</v>
+        <v>869</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1107,12 +1107,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="27">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>922</v>
-      </c>
-      <c r="E9" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>869</v>
+      </c>
+      <c r="E9" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>399</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>575</v>
-      </c>
-      <c r="G9" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>601</v>
+      </c>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>401</v>
+      <c r="E10" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>370</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="G10" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="G10" s="35">
         <f ca="1">IF(F10 &lt; J29, (J28-F10), 0 )</f>
-        <v>826</v>
+        <v>769</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1165,12 +1165,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1180,15 +1180,15 @@
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>421</v>
+      <c r="E11" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>423</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-247</v>
-      </c>
-      <c r="G11" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-192</v>
+      </c>
+      <c r="G11" s="35"/>
       <c r="I11" s="9">
         <v>1</v>
       </c>
@@ -1197,29 +1197,29 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-247</v>
+        <v>-192</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f ca="1">IF(C11 = 0.4, G10, 0)</f>
-        <v>826</v>
-      </c>
-      <c r="E12" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>769</v>
+      </c>
+      <c r="E12" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>387</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="G12" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G12" s="35">
         <f ca="1">IF(F12 &lt; J29, (J28-F12), 0 )</f>
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1229,12 +1229,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1242,114 +1242,114 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>843</v>
-      </c>
-      <c r="E13" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>810</v>
+      </c>
+      <c r="E13" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>405</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>531</v>
-      </c>
-      <c r="G13" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>595</v>
+      </c>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>413</v>
+      <c r="E14" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>412</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="G14" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="G14" s="35">
         <f ca="1">IF(F14 &lt; J29, (J28-F14), 0 )</f>
-        <v>882</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="27">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>447</v>
+        <v>817</v>
+      </c>
+      <c r="E15" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>409</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-329</v>
-      </c>
-      <c r="G15" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>591</v>
+      </c>
+      <c r="G15" s="35"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="27">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-329</v>
+        <v>591</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>882</v>
-      </c>
-      <c r="E16" s="38">
-        <f t="shared" ca="1" si="1"/>
-        <v>401</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>459</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="G16" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="G16" s="35">
         <f ca="1">IF(F16 &lt; J29, (J28-F16), 0 )</f>
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="27">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1357,256 +1357,256 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>848</v>
-      </c>
-      <c r="E17" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>471</v>
+        <v>868</v>
+      </c>
+      <c r="E17" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>421</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>529</v>
-      </c>
-      <c r="G17" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>579</v>
+      </c>
+      <c r="G17" s="35"/>
       <c r="I17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="27">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>397</v>
+      <c r="E18" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>428</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="G18" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="G18" s="35">
         <f ca="1">IF(F18 &lt; J29, (J28-F18), 0 )</f>
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="21">
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="27">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>849</v>
+      </c>
+      <c r="E19" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>427</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-235</v>
-      </c>
-      <c r="G19" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>573</v>
+      </c>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="27">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-235</v>
+        <v>573</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
-        <v>868</v>
-      </c>
-      <c r="E20" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
+        <v>398</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="G20" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="G20" s="35">
         <f ca="1">IF(F20 &lt; J29, (J28-F20), 0 )</f>
-        <v>732</v>
+        <v>825</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="21">
         <v>7</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="27">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>732</v>
-      </c>
-      <c r="E21" s="39">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), 575.26, 50.05))</f>
-        <v>638</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>576</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>362</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="I21" s="25" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>-401</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="I21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="21">
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="A22" s="27">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>-401</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="39">
-        <f t="shared" ref="E22:E32" ca="1" si="3">INT(_xlfn.NORM.INV(RAND(), 575.26, 50.05))</f>
-        <v>637</v>
+        <v>825</v>
+      </c>
+      <c r="E22" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>576</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-275</v>
-      </c>
-      <c r="G22" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-152</v>
+      </c>
+      <c r="G22" s="35">
         <f ca="1">IF(F22 &lt; J29, (J28-F22), 0 )</f>
-        <v>1275</v>
+        <v>1152</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="27">
         <v>19</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-275</v>
+        <v>-152</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>1275</v>
-      </c>
-      <c r="E23" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>602</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>597</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>398</v>
-      </c>
-      <c r="G23" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-749</v>
+      </c>
+      <c r="G23" s="35"/>
       <c r="I23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="27">
         <v>20</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>398</v>
+        <v>-749</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>576</v>
+        <v>1152</v>
+      </c>
+      <c r="E24" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>620</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-178</v>
-      </c>
-      <c r="G24" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-217</v>
+      </c>
+      <c r="G24" s="35">
         <f ca="1">IF(F24 &lt; J29, (J28-F24), 0 )</f>
-        <v>1178</v>
+        <v>1217</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1614,12 +1614,12 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="27">
         <v>21</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-178</v>
+        <v>-217</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1629,121 +1629,121 @@
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>567</v>
+      <c r="E25" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>592</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-745</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="I25" s="25" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>-809</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="I25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="A26" s="27">
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-745</v>
+        <v>-809</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f ca="1">IF(C25 = 0.4, G24, 0)</f>
-        <v>1178</v>
-      </c>
-      <c r="E26" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>440</v>
+        <v>1217</v>
+      </c>
+      <c r="E26" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>646</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="G26" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-238</v>
+      </c>
+      <c r="G26" s="35">
         <f ca="1">IF(F26 &lt; J29, (J28-F26), 0 )</f>
-        <v>1007</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="27">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-238</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1007</v>
-      </c>
-      <c r="E27" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>543</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>622</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>457</v>
-      </c>
-      <c r="G27" s="43"/>
-      <c r="I27" s="28" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>-860</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="I27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="29"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="27">
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>457</v>
+        <v>-860</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
-        <f t="shared" ca="1" si="3"/>
-        <v>529</v>
+        <v>1238</v>
+      </c>
+      <c r="E28" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>592</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-72</v>
-      </c>
-      <c r="G28" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-214</v>
+      </c>
+      <c r="G28" s="35">
         <f ca="1">IF(F28 &lt; J29, (J28-F28), 0 )</f>
-        <v>1072</v>
+        <v>1214</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="22">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="27">
         <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-72</v>
+        <v>-214</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1753,159 +1753,159 @@
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="40">
-        <f t="shared" ca="1" si="3"/>
-        <v>544</v>
+      <c r="E29" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>603</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-616</v>
-      </c>
-      <c r="G29" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-817</v>
+      </c>
+      <c r="G29" s="35"/>
       <c r="I29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="31">
-        <v>500</v>
+      <c r="J29" s="23">
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="A30" s="27">
         <v>26</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-616</v>
+        <v>-817</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>1072</v>
-      </c>
-      <c r="E30" s="40">
-        <f t="shared" ca="1" si="3"/>
-        <v>519</v>
+        <v>1214</v>
+      </c>
+      <c r="E30" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>592</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-63</v>
-      </c>
-      <c r="G30" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-195</v>
+      </c>
+      <c r="G30" s="35">
         <f ca="1">IF(F30 &lt; J29, (J28-F30), 0 )</f>
-        <v>1063</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+      <c r="A31" s="27">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-63</v>
+        <v>-195</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="40">
-        <f t="shared" ca="1" si="3"/>
-        <v>634</v>
+        <v>1195</v>
+      </c>
+      <c r="E31" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>531</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-697</v>
-      </c>
-      <c r="G31" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>469</v>
+      </c>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="27">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-697</v>
+        <v>469</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>1063</v>
-      </c>
-      <c r="E32" s="40">
-        <f t="shared" ca="1" si="3"/>
-        <v>613</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
+        <v>547</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-247</v>
-      </c>
-      <c r="G32" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-78</v>
+      </c>
+      <c r="G32" s="35">
         <f ca="1">IF(F32 &lt; J29, (J28-F32), 0 )</f>
-        <v>1247</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="27">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-247</v>
+        <v>-78</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>1247</v>
-      </c>
-      <c r="E33" s="40">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), 347.31, 30.22))</f>
-        <v>408</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>339</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>592</v>
-      </c>
-      <c r="G33" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-417</v>
+      </c>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="27">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>-417</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="40">
-        <f t="shared" ref="E34:E54" ca="1" si="4">INT(_xlfn.NORM.INV(RAND(), 347.31, 30.22))</f>
-        <v>321</v>
+        <v>1078</v>
+      </c>
+      <c r="E34" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>335</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="G34" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="G34" s="35">
         <f ca="1">IF(F34 &lt; J29, (J28-F34), 0 )</f>
-        <v>729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="27">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1913,259 +1913,259 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>729</v>
-      </c>
-      <c r="E35" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>344</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>340</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>656</v>
-      </c>
-      <c r="G35" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="A36" s="27">
         <v>32</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>656</v>
+        <v>-14</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>350</v>
+      <c r="E36" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>285</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>306</v>
-      </c>
-      <c r="G36" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-299</v>
+      </c>
+      <c r="G36" s="35">
         <f ca="1">IF(F36 &lt; J29, (J28-F36), 0 )</f>
-        <v>694</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="35">
+      <c r="A37" s="27">
         <v>33</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>-299</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>322</v>
+        <v>1299</v>
+      </c>
+      <c r="E37" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>369</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G37" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>631</v>
+      </c>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
+      <c r="A38" s="27">
         <v>34</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>631</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>694</v>
-      </c>
-      <c r="E38" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>350</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>354</v>
-      </c>
-      <c r="G38" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="G38" s="35">
         <f ca="1">IF(F38 &lt; J29, (J28-F38), 0 )</f>
-        <v>646</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="35">
+      <c r="A39" s="27">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>370</v>
+        <v>719</v>
+      </c>
+      <c r="E39" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>324</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G39" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="27">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>676</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>646</v>
-      </c>
-      <c r="E40" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>323</v>
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>381</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>307</v>
-      </c>
-      <c r="G40" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G40" s="35">
         <f ca="1">IF(F40 &lt; J29, (J28-F40), 0 )</f>
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="27">
         <v>37</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
-        <v>693</v>
-      </c>
-      <c r="E41" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>396</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>322</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>604</v>
-      </c>
-      <c r="G41" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-27</v>
+      </c>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="35">
+      <c r="A42" s="27">
         <v>38</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>-27</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>332</v>
+        <v>705</v>
+      </c>
+      <c r="E42" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>259</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>272</v>
-      </c>
-      <c r="G42" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="G42" s="35">
         <f ca="1">IF(F42 &lt; J29, (J28-F42), 0 )</f>
-        <v>728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="35">
+      <c r="A43" s="27">
         <v>39</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>358</v>
+      <c r="E43" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>409</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-86</v>
-      </c>
-      <c r="G43" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="35">
+      <c r="A44" s="27">
         <v>40</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-86</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>728</v>
-      </c>
-      <c r="E44" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>366</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>304</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="G44" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-294</v>
+      </c>
+      <c r="G44" s="35">
         <f ca="1">IF(F44 &lt; J29, (J28-F44), 0 )</f>
-        <v>724</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="35">
+      <c r="A45" s="27">
         <v>41</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>-294</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2175,49 +2175,49 @@
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>387</v>
+      <c r="E45" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>296</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-111</v>
-      </c>
-      <c r="G45" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-590</v>
+      </c>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="35">
+      <c r="A46" s="27">
         <v>42</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-111</v>
+        <v>-590</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
-        <v>724</v>
-      </c>
-      <c r="E46" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>350</v>
+        <v>1294</v>
+      </c>
+      <c r="E46" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>311</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>263</v>
-      </c>
-      <c r="G46" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>393</v>
+      </c>
+      <c r="G46" s="35">
         <f ca="1">IF(F46 &lt; J29, (J28-F46), 0 )</f>
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="35">
+      <c r="A47" s="27">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>393</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2225,51 +2225,51 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>737</v>
-      </c>
-      <c r="E47" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>307</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>640</v>
-      </c>
-      <c r="G47" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="35">
+      <c r="A48" s="27">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>640</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>319</v>
+      <c r="E48" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>345</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>321</v>
-      </c>
-      <c r="G48" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-259</v>
+      </c>
+      <c r="G48" s="35">
         <f ca="1">IF(F48 &lt; J29, (J28-F48), 0 )</f>
-        <v>679</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="35">
+      <c r="A49" s="27">
         <v>45</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>-259</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2279,49 +2279,49 @@
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>336</v>
+      <c r="E49" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>319</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="G49" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-578</v>
+      </c>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="35">
+      <c r="A50" s="27">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-15</v>
+        <v>-578</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>679</v>
-      </c>
-      <c r="E50" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>326</v>
+        <v>1259</v>
+      </c>
+      <c r="E50" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>402</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>338</v>
-      </c>
-      <c r="G50" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="G50" s="35">
         <f ca="1">IF(F50 &lt; J29, (J28-F50), 0 )</f>
-        <v>662</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="35">
+      <c r="A51" s="27">
         <v>47</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2331,49 +2331,49 @@
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>317</v>
+      <c r="E51" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>342</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G51" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-63</v>
+      </c>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="35">
+      <c r="A52" s="27">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>-63</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>662</v>
-      </c>
-      <c r="E52" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>327</v>
+        <v>721</v>
+      </c>
+      <c r="E52" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>342</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>356</v>
-      </c>
-      <c r="G52" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="G52" s="35">
         <f ca="1">IF(F52 &lt; J29, (J28-F52), 0 )</f>
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="35">
+      <c r="A53" s="27">
         <v>49</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2383,52 +2383,52 @@
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="40">
-        <f t="shared" ca="1" si="4"/>
-        <v>322</v>
+      <c r="E53" s="32">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>328</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G53" s="43"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="28">
         <v>50</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>-12</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>644</v>
-      </c>
-      <c r="E54" s="41">
-        <f t="shared" ca="1" si="4"/>
-        <v>334</v>
+        <v>0</v>
+      </c>
+      <c r="E54" s="33">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+        <v>354</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>344</v>
-      </c>
-      <c r="G54" s="44">
+        <f t="shared" ca="1" si="1"/>
+        <v>-366</v>
+      </c>
+      <c r="G54" s="36">
         <f ca="1">IF(F54 &lt; J29, (J28-F54), 0 )</f>
-        <v>656</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogobraga/Desktop/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD8C90-8A83-3446-B2EE-A1063D906D61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB9CFB-AA39-F74F-94BA-1C274D26010F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -127,6 +126,12 @@
   </si>
   <si>
     <t>STOCK EM MÃO (SM)</t>
+  </si>
+  <si>
+    <t>PERDA DE VENDAS</t>
+  </si>
+  <si>
+    <t>CASO DE QUEBRA DE INVENTARIO</t>
   </si>
 </sst>
 </file>
@@ -213,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -473,11 +478,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +613,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,17 +636,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,8 +971,8 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,7 +1010,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29">
         <f ca="1">INT(RANDBETWEEN(347,575))</f>
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="G4" s="34"/>
     </row>
@@ -981,17 +1020,17 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">F4</f>
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>-11</v>
+        <v>130</v>
       </c>
       <c r="G5" s="35"/>
       <c r="I5" s="6" t="s">
@@ -1010,21 +1049,21 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">F5</f>
-        <v>-11</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>-414</v>
+        <v>-315</v>
       </c>
       <c r="G6" s="35">
-        <f ca="1">IF(F6 &lt; J29, (J28-F6), 0 )</f>
-        <v>1414</v>
+        <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
+        <v>1000</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1042,23 +1081,23 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-414</v>
+        <v>-315</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>471</v>
+        <v>348</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-885</v>
+        <v>337</v>
       </c>
       <c r="G7" s="35"/>
       <c r="I7" s="9" t="s">
@@ -1077,24 +1116,24 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-885</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="E8" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>-128</v>
       </c>
       <c r="G8" s="35">
-        <f ca="1">IF(F8 &lt; J29, (J28-F8), 0 )</f>
-        <v>869</v>
+        <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
+        <v>1000</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1112,7 +1151,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>-128</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1120,15 +1159,15 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>869</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>601</v>
+        <v>482</v>
       </c>
       <c r="G9" s="35"/>
     </row>
@@ -1138,7 +1177,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>601</v>
+        <v>482</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1147,15 +1186,15 @@
       </c>
       <c r="E10" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="G10" s="35">
-        <f ca="1">IF(F10 &lt; J29, (J28-F10), 0 )</f>
-        <v>769</v>
+        <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
+        <v>963</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1170,7 +1209,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1182,11 +1221,11 @@
       </c>
       <c r="E11" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-192</v>
+        <v>-348</v>
       </c>
       <c r="G11" s="35"/>
       <c r="I11" s="9">
@@ -1202,24 +1241,24 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-192</v>
+        <v>-348</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f ca="1">IF(C11 = 0.4, G10, 0)</f>
-        <v>769</v>
+        <v>963</v>
       </c>
       <c r="E12" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="G12" s="35">
-        <f ca="1">IF(F12 &lt; J29, (J28-F12), 0 )</f>
-        <v>810</v>
+        <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
+        <v>846</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1234,7 +1273,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1242,15 +1281,15 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="E13" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G13" s="35"/>
     </row>
@@ -1260,7 +1299,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1269,15 +1308,15 @@
       </c>
       <c r="E14" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G14" s="35">
-        <f ca="1">IF(F14 &lt; J29, (J28-F14), 0 )</f>
-        <v>817</v>
+        <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1325,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1294,15 +1333,15 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="E15" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="G15" s="35"/>
       <c r="M15" s="15"/>
@@ -1313,7 +1352,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1322,15 +1361,15 @@
       </c>
       <c r="E16" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G16" s="35">
-        <f ca="1">IF(F16 &lt; J29, (J28-F16), 0 )</f>
-        <v>868</v>
+        <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
+        <v>928</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1338,10 +1377,10 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -1349,7 +1388,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1357,15 +1396,15 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>868</v>
+        <v>928</v>
       </c>
       <c r="E17" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="G17" s="35"/>
       <c r="I17" s="17" t="s">
@@ -1374,10 +1413,10 @@
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="41"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -1385,7 +1424,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1394,15 +1433,15 @@
       </c>
       <c r="E18" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="G18" s="35">
-        <f ca="1">IF(F18 &lt; J29, (J28-F18), 0 )</f>
-        <v>849</v>
+        <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
+        <v>779</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -1411,10 +1450,10 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -1422,7 +1461,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1430,15 +1469,15 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="E19" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="G19" s="35"/>
     </row>
@@ -1448,7 +1487,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1457,15 +1496,15 @@
       </c>
       <c r="E20" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G20" s="35">
-        <f ca="1">IF(F20 &lt; J29, (J28-F20), 0 )</f>
-        <v>825</v>
+        <f ca="1">IF(F20 &lt; J29, (IF(F20&lt;0, J28, J28-F20)), 0 )</f>
+        <v>812</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -1485,23 +1524,23 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="E21" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-401</v>
+        <v>408</v>
       </c>
       <c r="G21" s="35"/>
       <c r="I21" s="20" t="s">
@@ -1511,10 +1550,10 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="38"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -1522,29 +1561,29 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-401</v>
+        <v>408</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="E22" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-152</v>
+        <v>-128</v>
       </c>
       <c r="G22" s="35">
-        <f ca="1">IF(F22 &lt; J29, (J28-F22), 0 )</f>
-        <v>1152</v>
+        <f ca="1">IF(F22 &lt; J29, (IF(F22&lt;0, J28, J28-F22)), 0 )</f>
+        <v>1000</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -1552,7 +1591,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-152</v>
+        <v>-128</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1564,11 +1603,11 @@
       </c>
       <c r="E23" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-749</v>
+        <v>-699</v>
       </c>
       <c r="G23" s="35"/>
       <c r="I23" s="17" t="s">
@@ -1577,10 +1616,10 @@
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1589,24 +1628,24 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-749</v>
+        <v>-699</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1152</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-217</v>
+        <v>-257</v>
       </c>
       <c r="G24" s="35">
-        <f ca="1">IF(F24 &lt; J29, (J28-F24), 0 )</f>
-        <v>1217</v>
+        <f ca="1">IF(F24 &lt; J29, (IF(F24&lt;0, J28, J28-F24)), 0 )</f>
+        <v>1000</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1619,23 +1658,23 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-217</v>
+        <v>-257</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-809</v>
+        <v>152</v>
       </c>
       <c r="G25" s="35"/>
       <c r="I25" s="20" t="s">
@@ -1644,10 +1683,10 @@
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -1655,24 +1694,24 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-809</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f ca="1">IF(C25 = 0.4, G24, 0)</f>
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="E26" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>646</v>
+        <v>571</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-238</v>
+        <v>-419</v>
       </c>
       <c r="G26" s="35">
-        <f ca="1">IF(F26 &lt; J29, (J28-F26), 0 )</f>
-        <v>1238</v>
+        <f ca="1">IF(F26 &lt; J29, (IF(F26&lt;0, J28, J28-F26)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -1681,7 +1720,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-238</v>
+        <v>-419</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1693,17 +1732,17 @@
       </c>
       <c r="E27" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>622</v>
+        <v>527</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-860</v>
+        <v>-946</v>
       </c>
       <c r="G27" s="35"/>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
@@ -1711,24 +1750,24 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-860</v>
+        <v>-946</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>1238</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-214</v>
+        <v>-502</v>
       </c>
       <c r="G28" s="35">
-        <f ca="1">IF(F28 &lt; J29, (J28-F28), 0 )</f>
-        <v>1214</v>
+        <f ca="1">IF(F28 &lt; J29, (IF(F28&lt;0, J28, J28-F28)), 0 )</f>
+        <v>1000</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>28</v>
@@ -1743,7 +1782,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-214</v>
+        <v>-502</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1755,11 +1794,11 @@
       </c>
       <c r="E29" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-817</v>
+        <v>-1042</v>
       </c>
       <c r="G29" s="35"/>
       <c r="I29" s="11" t="s">
@@ -1769,39 +1808,39 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>26</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-817</v>
+        <v>-1042</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-195</v>
+        <v>-582</v>
       </c>
       <c r="G30" s="35">
-        <f ca="1">IF(F30 &lt; J29, (J28-F30), 0 )</f>
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <f ca="1">IF(F30 &lt; J29, (IF(F30&lt;0, J28, J28-F30)), 0 )</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-195</v>
+        <v>-582</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1809,17 +1848,23 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1195</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>-204</v>
       </c>
       <c r="G31" s="35"/>
+      <c r="I31" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
@@ -1827,7 +1872,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>-204</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1836,15 +1881,15 @@
       </c>
       <c r="E32" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-78</v>
+        <v>-744</v>
       </c>
       <c r="G32" s="35">
-        <f ca="1">IF(F32 &lt; J29, (J28-F32), 0 )</f>
-        <v>1078</v>
+        <f ca="1">IF(F32 &lt; J29, (IF(F32&lt;0, J28, J28-F32)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1853,23 +1898,23 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-78</v>
+        <v>-744</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-417</v>
+        <v>-115</v>
       </c>
       <c r="G33" s="35"/>
     </row>
@@ -1879,24 +1924,24 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-417</v>
+        <v>-115</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="E34" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>-471</v>
       </c>
       <c r="G34" s="35">
-        <f ca="1">IF(F34 &lt; J29, (J28-F34), 0 )</f>
-        <v>0</v>
+        <f ca="1">IF(F34 &lt; J29, (IF(F34&lt;0, J28, J28-F34)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1905,7 +1950,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>326</v>
+        <v>-471</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1913,15 +1958,15 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-14</v>
+        <v>210</v>
       </c>
       <c r="G35" s="35"/>
     </row>
@@ -1931,7 +1976,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
@@ -1940,15 +1985,15 @@
       </c>
       <c r="E36" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-299</v>
+        <v>-120</v>
       </c>
       <c r="G36" s="35">
-        <f ca="1">IF(F36 &lt; J29, (J28-F36), 0 )</f>
-        <v>1299</v>
+        <f ca="1">IF(F36 &lt; J29, (IF(F36&lt;0, J28, J28-F36)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -1957,23 +2002,23 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-299</v>
+        <v>-120</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>1299</v>
+        <v>0</v>
       </c>
       <c r="E37" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>631</v>
+        <v>-476</v>
       </c>
       <c r="G37" s="35"/>
     </row>
@@ -1983,24 +2028,24 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>631</v>
+        <v>-476</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="G38" s="35">
-        <f ca="1">IF(F38 &lt; J29, (J28-F38), 0 )</f>
-        <v>719</v>
+        <f ca="1">IF(F38 &lt; J29, (IF(F38&lt;0, J28, J28-F38)), 0 )</f>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2009,7 +2054,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2017,15 +2062,15 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="E39" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G39" s="35"/>
     </row>
@@ -2035,7 +2080,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
@@ -2044,15 +2089,15 @@
       </c>
       <c r="E40" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="G40" s="35">
-        <f ca="1">IF(F40 &lt; J29, (J28-F40), 0 )</f>
-        <v>705</v>
+        <f ca="1">IF(F40 &lt; J29, (IF(F40&lt;0, J28, J28-F40)), 0 )</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2061,7 +2106,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2073,11 +2118,11 @@
       </c>
       <c r="E41" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="G41" s="35"/>
     </row>
@@ -2087,24 +2132,24 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="E42" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>419</v>
+        <v>-389</v>
       </c>
       <c r="G42" s="35">
-        <f ca="1">IF(F42 &lt; J29, (J28-F42), 0 )</f>
-        <v>0</v>
+        <f ca="1">IF(F42 &lt; J29, (IF(F42&lt;0, J28, J28-F42)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2113,11 +2158,11 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>-389</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
@@ -2125,11 +2170,11 @@
       </c>
       <c r="E43" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>-745</v>
       </c>
       <c r="G43" s="35"/>
     </row>
@@ -2139,24 +2184,24 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-745</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-294</v>
+        <v>-79</v>
       </c>
       <c r="G44" s="35">
-        <f ca="1">IF(F44 &lt; J29, (J28-F44), 0 )</f>
-        <v>1294</v>
+        <f ca="1">IF(F44 &lt; J29, (IF(F44&lt;0, J28, J28-F44)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2165,7 +2210,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-294</v>
+        <v>-79</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2177,11 +2222,11 @@
       </c>
       <c r="E45" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-590</v>
+        <v>-432</v>
       </c>
       <c r="G45" s="35"/>
     </row>
@@ -2191,24 +2236,24 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-590</v>
+        <v>-432</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
-        <v>1294</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="G46" s="35">
-        <f ca="1">IF(F46 &lt; J29, (J28-F46), 0 )</f>
-        <v>0</v>
+        <f ca="1">IF(F46 &lt; J29, (IF(F46&lt;0, J28, J28-F46)), 0 )</f>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2217,11 +2262,11 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
@@ -2229,11 +2274,11 @@
       </c>
       <c r="E47" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>-141</v>
       </c>
       <c r="G47" s="35"/>
     </row>
@@ -2243,24 +2288,24 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>-141</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="E48" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-259</v>
+        <v>261</v>
       </c>
       <c r="G48" s="35">
-        <f ca="1">IF(F48 &lt; J29, (J28-F48), 0 )</f>
-        <v>1259</v>
+        <f ca="1">IF(F48 &lt; J29, (IF(F48&lt;0, J28, J28-F48)), 0 )</f>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2269,23 +2314,23 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-259</v>
+        <v>261</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="E49" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-578</v>
+        <v>659</v>
       </c>
       <c r="G49" s="35"/>
     </row>
@@ -2295,24 +2340,24 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-578</v>
+        <v>659</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="E50" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G50" s="35">
-        <f ca="1">IF(F50 &lt; J29, (J28-F50), 0 )</f>
-        <v>721</v>
+        <f ca="1">IF(F50 &lt; J29, (IF(F50&lt;0, J28, J28-F50)), 0 )</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2321,7 +2366,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2333,11 +2378,11 @@
       </c>
       <c r="E51" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-63</v>
+        <v>-47</v>
       </c>
       <c r="G51" s="35"/>
     </row>
@@ -2347,24 +2392,24 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-63</v>
+        <v>-47</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="E52" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>-400</v>
       </c>
       <c r="G52" s="35">
-        <f ca="1">IF(F52 &lt; J29, (J28-F52), 0 )</f>
-        <v>0</v>
+        <f ca="1">IF(F52 &lt; J29, (IF(F52&lt;0, J28, J28-F52)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2373,7 +2418,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>-400</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2385,11 +2430,11 @@
       </c>
       <c r="E53" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-725</v>
       </c>
       <c r="G53" s="35"/>
     </row>
@@ -2399,36 +2444,36 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-725</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="33">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-366</v>
+        <v>-103</v>
       </c>
       <c r="G54" s="36">
-        <f ca="1">IF(F54 &lt; J29, (J28-F54), 0 )</f>
-        <v>1366</v>
+        <f ca="1">IF(F54 &lt; J29, (IF(F54&lt;0, J28, J28-F54)), 0 )</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogobraga/Desktop/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB9CFB-AA39-F74F-94BA-1C274D26010F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF212C5-583C-5D45-A224-9494BCD33E28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -132,6 +133,9 @@
   </si>
   <si>
     <t>CASO DE QUEBRA DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>Nº TENTATIVA</t>
   </si>
 </sst>
 </file>
@@ -218,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -506,11 +510,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,34 +655,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
-  <dimension ref="A2:M54"/>
+  <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1068,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29">
         <f ca="1">INT(RANDBETWEEN(347,575))</f>
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="G4" s="34"/>
     </row>
@@ -1020,17 +1078,17 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">F4</f>
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="G5" s="35"/>
       <c r="I5" s="6" t="s">
@@ -1049,17 +1107,17 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">F5</f>
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>-315</v>
+        <v>-446</v>
       </c>
       <c r="G6" s="35">
         <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
@@ -1081,23 +1139,23 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-315</v>
+        <v>-446</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>-852</v>
       </c>
       <c r="G7" s="35"/>
       <c r="I7" s="9" t="s">
@@ -1116,20 +1174,20 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>-852</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-128</v>
+        <v>-336</v>
       </c>
       <c r="G8" s="35">
         <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
@@ -1151,7 +1209,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-128</v>
+        <v>-336</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1163,11 +1221,11 @@
       </c>
       <c r="E9" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>482</v>
+        <v>224</v>
       </c>
       <c r="G9" s="35"/>
     </row>
@@ -1177,7 +1235,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>482</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1186,15 +1244,15 @@
       </c>
       <c r="E10" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>-229</v>
       </c>
       <c r="G10" s="35">
         <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1209,23 +1267,23 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>-229</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-348</v>
+        <v>321</v>
       </c>
       <c r="G11" s="35"/>
       <c r="I11" s="9">
@@ -1241,24 +1299,24 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-348</v>
+        <v>321</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f ca="1">IF(C11 = 0.4, G10, 0)</f>
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="E12" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>-208</v>
       </c>
       <c r="G12" s="35">
         <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>846</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1273,23 +1331,23 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>-208</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="E13" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>594</v>
+        <v>-644</v>
       </c>
       <c r="G13" s="35"/>
     </row>
@@ -1299,24 +1357,24 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>594</v>
+        <v>-644</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>382</v>
+        <v>537</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>-181</v>
       </c>
       <c r="G14" s="35">
         <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>788</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1383,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>-181</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1333,15 +1391,15 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>788</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="G15" s="35"/>
       <c r="M15" s="15"/>
@@ -1352,7 +1410,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1361,15 +1419,15 @@
       </c>
       <c r="E16" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>-87</v>
       </c>
       <c r="G16" s="35">
         <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1377,10 +1435,10 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -1388,7 +1446,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>-87</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1396,15 +1454,15 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>646</v>
+        <v>444</v>
       </c>
       <c r="G17" s="35"/>
       <c r="I17" s="17" t="s">
@@ -1413,10 +1471,10 @@
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -1424,7 +1482,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>646</v>
+        <v>444</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1433,15 +1491,15 @@
       </c>
       <c r="E18" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>-11</v>
       </c>
       <c r="G18" s="35">
         <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -1450,10 +1508,10 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -1461,7 +1519,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>-11</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1469,15 +1527,15 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>779</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="G19" s="35"/>
     </row>
@@ -1487,7 +1545,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1496,15 +1554,15 @@
       </c>
       <c r="E20" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>370</v>
+        <v>482</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="G20" s="35">
         <f ca="1">IF(F20 &lt; J29, (IF(F20&lt;0, J28, J28-F20)), 0 )</f>
-        <v>812</v>
+        <v>882</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -1524,23 +1582,23 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="E21" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>408</v>
+        <v>-514</v>
       </c>
       <c r="G21" s="35"/>
       <c r="I21" s="20" t="s">
@@ -1550,10 +1608,10 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -1561,20 +1619,20 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>-514</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="E22" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-128</v>
+        <v>-232</v>
       </c>
       <c r="G22" s="35">
         <f ca="1">IF(F22 &lt; J29, (IF(F22&lt;0, J28, J28-F22)), 0 )</f>
@@ -1582,8 +1640,8 @@
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -1591,23 +1649,23 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-128</v>
+        <v>-232</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-699</v>
+        <v>183</v>
       </c>
       <c r="G23" s="35"/>
       <c r="I23" s="17" t="s">
@@ -1616,10 +1674,10 @@
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="42"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1628,20 +1686,20 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-699</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-257</v>
+        <v>-361</v>
       </c>
       <c r="G24" s="35">
         <f ca="1">IF(F24 &lt; J29, (IF(F24&lt;0, J28, J28-F24)), 0 )</f>
@@ -1658,7 +1716,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-257</v>
+        <v>-361</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1670,11 +1728,11 @@
       </c>
       <c r="E25" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="G25" s="35"/>
       <c r="I25" s="20" t="s">
@@ -1683,10 +1741,10 @@
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="42"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -1694,7 +1752,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1703,11 +1761,11 @@
       </c>
       <c r="E26" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-419</v>
+        <v>-563</v>
       </c>
       <c r="G26" s="35">
         <f ca="1">IF(F26 &lt; J29, (IF(F26&lt;0, J28, J28-F26)), 0 )</f>
@@ -1720,29 +1778,29 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-419</v>
+        <v>-563</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-946</v>
+        <v>-121</v>
       </c>
       <c r="G27" s="35"/>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="44"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
@@ -1750,20 +1808,20 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-946</v>
+        <v>-121</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E28" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-502</v>
+        <v>-617</v>
       </c>
       <c r="G28" s="35">
         <f ca="1">IF(F28 &lt; J29, (IF(F28&lt;0, J28, J28-F28)), 0 )</f>
@@ -1782,23 +1840,23 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-502</v>
+        <v>-617</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-1042</v>
+        <v>-213</v>
       </c>
       <c r="G29" s="35"/>
       <c r="I29" s="11" t="s">
@@ -1814,20 +1872,20 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1042</v>
+        <v>-213</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-582</v>
+        <v>-790</v>
       </c>
       <c r="G30" s="35">
         <f ca="1">IF(F30 &lt; J29, (IF(F30&lt;0, J28, J28-F30)), 0 )</f>
@@ -1840,29 +1898,29 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-582</v>
+        <v>-790</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>622</v>
+        <v>479</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-204</v>
+        <v>-1269</v>
       </c>
       <c r="G31" s="35"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1872,20 +1930,20 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-204</v>
+        <v>-1269</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-744</v>
+        <v>-894</v>
       </c>
       <c r="G32" s="35">
         <f ca="1">IF(F32 &lt; J29, (IF(F32&lt;0, J28, J28-F32)), 0 )</f>
@@ -1898,7 +1956,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-744</v>
+        <v>-894</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1910,11 +1968,11 @@
       </c>
       <c r="E33" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-115</v>
+        <v>-188</v>
       </c>
       <c r="G33" s="35"/>
     </row>
@@ -1924,7 +1982,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-115</v>
+        <v>-188</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
@@ -1937,7 +1995,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-471</v>
+        <v>-544</v>
       </c>
       <c r="G34" s="35">
         <f ca="1">IF(F34 &lt; J29, (IF(F34&lt;0, J28, J28-F34)), 0 )</f>
@@ -1950,23 +2008,23 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-471</v>
+        <v>-544</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>-875</v>
       </c>
       <c r="G35" s="35"/>
     </row>
@@ -1976,20 +2034,20 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>-875</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E36" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-120</v>
+        <v>-219</v>
       </c>
       <c r="G36" s="35">
         <f ca="1">IF(F36 &lt; J29, (IF(F36&lt;0, J28, J28-F36)), 0 )</f>
@@ -2002,7 +2060,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-120</v>
+        <v>-219</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2014,11 +2072,11 @@
       </c>
       <c r="E37" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-476</v>
+        <v>-552</v>
       </c>
       <c r="G37" s="35"/>
     </row>
@@ -2028,7 +2086,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-476</v>
+        <v>-552</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -2037,15 +2095,15 @@
       </c>
       <c r="E38" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="G38" s="35">
         <f ca="1">IF(F38 &lt; J29, (IF(F38&lt;0, J28, J28-F38)), 0 )</f>
-        <v>789</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2054,23 +2112,23 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="E39" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>664</v>
+        <v>-240</v>
       </c>
       <c r="G39" s="35"/>
     </row>
@@ -2080,20 +2138,20 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>664</v>
+        <v>-240</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="E40" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="G40" s="35">
         <f ca="1">IF(F40 &lt; J29, (IF(F40&lt;0, J28, J28-F40)), 0 )</f>
@@ -2106,7 +2164,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2118,11 +2176,11 @@
       </c>
       <c r="E41" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="G41" s="35"/>
     </row>
@@ -2132,7 +2190,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
@@ -2141,11 +2199,11 @@
       </c>
       <c r="E42" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-389</v>
+        <v>-319</v>
       </c>
       <c r="G42" s="35">
         <f ca="1">IF(F42 &lt; J29, (IF(F42&lt;0, J28, J28-F42)), 0 )</f>
@@ -2158,23 +2216,23 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-389</v>
+        <v>-319</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-745</v>
+        <v>264</v>
       </c>
       <c r="G43" s="35"/>
     </row>
@@ -2184,20 +2242,20 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-745</v>
+        <v>264</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E44" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-79</v>
+        <v>-82</v>
       </c>
       <c r="G44" s="35">
         <f ca="1">IF(F44 &lt; J29, (IF(F44&lt;0, J28, J28-F44)), 0 )</f>
@@ -2210,23 +2268,23 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-79</v>
+        <v>-82</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-432</v>
+        <v>567</v>
       </c>
       <c r="G45" s="35"/>
     </row>
@@ -2236,24 +2294,24 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-432</v>
+        <v>567</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G46" s="35">
         <f ca="1">IF(F46 &lt; J29, (IF(F46&lt;0, J28, J28-F46)), 0 )</f>
-        <v>791</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2262,7 +2320,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2274,11 +2332,11 @@
       </c>
       <c r="E47" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-141</v>
+        <v>-195</v>
       </c>
       <c r="G47" s="35"/>
     </row>
@@ -2288,24 +2346,24 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-141</v>
+        <v>-195</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E48" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="G48" s="35">
         <f ca="1">IF(F48 &lt; J29, (IF(F48&lt;0, J28, J28-F48)), 0 )</f>
-        <v>739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2314,23 +2372,23 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="E49" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>659</v>
+        <v>-22</v>
       </c>
       <c r="G49" s="35"/>
     </row>
@@ -2340,7 +2398,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>-22</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
@@ -2349,15 +2407,15 @@
       </c>
       <c r="E50" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>-352</v>
       </c>
       <c r="G50" s="35">
         <f ca="1">IF(F50 &lt; J29, (IF(F50&lt;0, J28, J28-F50)), 0 )</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2366,23 +2424,23 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>-352</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E51" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-47</v>
+        <v>369</v>
       </c>
       <c r="G51" s="35"/>
     </row>
@@ -2392,7 +2450,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-47</v>
+        <v>369</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -2401,11 +2459,11 @@
       </c>
       <c r="E52" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-400</v>
+        <v>-9</v>
       </c>
       <c r="G52" s="35">
         <f ca="1">IF(F52 &lt; J29, (IF(F52&lt;0, J28, J28-F52)), 0 )</f>
@@ -2418,7 +2476,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-400</v>
+        <v>-9</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2430,11 +2488,11 @@
       </c>
       <c r="E53" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-725</v>
+        <v>-342</v>
       </c>
       <c r="G53" s="35"/>
     </row>
@@ -2444,7 +2502,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-725</v>
+        <v>-342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -2453,15 +2511,152 @@
       </c>
       <c r="E54" s="33">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-103</v>
+        <v>307</v>
       </c>
       <c r="G54" s="36">
         <f ca="1">IF(F54 &lt; J29, (IF(F54&lt;0, J28, J28-F54)), 0 )</f>
-        <v>1000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogobraga/Desktop/InventoryManagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF212C5-583C-5D45-A224-9494BCD33E28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A28814-D3DB-CC4D-A3CA-3A8DB4CE991D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>Nº TENTATIVA</t>
+  </si>
+  <si>
+    <t>stock médio</t>
+  </si>
+  <si>
+    <t>Média Anual</t>
+  </si>
+  <si>
+    <t>Quebras</t>
+  </si>
+  <si>
+    <t>Risco ótimo de quebra</t>
+  </si>
+  <si>
+    <t>P[DDPP&gt;S]</t>
+  </si>
+  <si>
+    <t>MÉDIA DDPP</t>
+  </si>
+  <si>
+    <t>DESVIO DDPP</t>
+  </si>
+  <si>
+    <t>Desvio Anual</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>E[DDPP&gt;S]</t>
+  </si>
+  <si>
+    <t>Custos totais</t>
   </si>
 </sst>
 </file>
@@ -222,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -549,11 +585,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +721,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,20 +760,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
-  <dimension ref="A2:M84"/>
+  <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,10 +1116,12 @@
     <col min="9" max="9" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>0</v>
       </c>
@@ -1068,27 +1154,27 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29">
         <f ca="1">INT(RANDBETWEEN(347,575))</f>
-        <v>411</v>
+        <v>568</v>
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <f ca="1">F4</f>
-        <v>411</v>
+        <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
+        <v>568</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="G5" s="35"/>
       <c r="I5" s="6" t="s">
@@ -1100,28 +1186,35 @@
       <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="M5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="58">
+        <f>AVERAGE(J6,J7,J8)</f>
+        <v>452.5333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B54" ca="1" si="0">F5</f>
-        <v>14</v>
+        <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
+        <v>197</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>-446</v>
+        <v>-196</v>
       </c>
       <c r="G6" s="35">
         <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
-        <v>1000</v>
+        <v>1664</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1132,30 +1225,37 @@
       <c r="K6" s="10">
         <v>37.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="M6" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="21">
+        <f>N5*0.087</f>
+        <v>39.370399999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-446</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="E7" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-852</v>
+        <v>1226</v>
       </c>
       <c r="G7" s="35"/>
       <c r="I7" s="9" t="s">
@@ -1168,30 +1268,30 @@
         <v>50.05</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-852</v>
+        <v>1226</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-336</v>
+        <v>875</v>
       </c>
       <c r="G8" s="35">
         <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
-        <v>1000</v>
+        <v>789</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1203,56 +1303,56 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-336</v>
+        <v>875</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>461</v>
       </c>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>461</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="E10" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-229</v>
+        <v>826</v>
       </c>
       <c r="G10" s="35">
         <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>1000</v>
+        <v>838</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1261,13 +1361,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-229</v>
+        <v>826</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1275,15 +1375,15 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>1000</v>
+        <v>838</v>
       </c>
       <c r="E11" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <v>1287</v>
       </c>
       <c r="G11" s="35"/>
       <c r="I11" s="9">
@@ -1293,13 +1393,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>1287</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1308,15 +1408,15 @@
       </c>
       <c r="E12" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>529</v>
+        <v>405</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-208</v>
+        <v>882</v>
       </c>
       <c r="G12" s="35">
         <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>1000</v>
+        <v>782</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1325,13 +1425,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-208</v>
+        <v>882</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1343,47 +1443,47 @@
       </c>
       <c r="E13" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-644</v>
+        <v>501</v>
       </c>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-644</v>
+        <v>501</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
-        <v>1000</v>
+        <v>782</v>
       </c>
       <c r="E14" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>537</v>
+        <v>421</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-181</v>
+        <v>862</v>
       </c>
       <c r="G14" s="35">
         <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-181</v>
+        <v>862</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1391,26 +1491,26 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>1000</v>
+        <v>802</v>
       </c>
       <c r="E15" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>383</v>
+        <v>1192</v>
       </c>
       <c r="G15" s="35"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>1192</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1419,15 +1519,15 @@
       </c>
       <c r="E16" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-87</v>
+        <v>733</v>
       </c>
       <c r="G16" s="35">
         <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>1000</v>
+        <v>931</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1435,10 +1535,10 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -1446,23 +1546,23 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-87</v>
+        <v>733</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="G17" s="35"/>
       <c r="I17" s="17" t="s">
@@ -1471,10 +1571,10 @@
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -1482,24 +1582,24 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E18" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>764</v>
       </c>
       <c r="G18" s="35">
         <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -1508,10 +1608,10 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -1519,23 +1619,23 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>764</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>305</v>
       </c>
       <c r="G19" s="35"/>
     </row>
@@ -1545,24 +1645,24 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>305</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>758</v>
       </c>
       <c r="G20" s="35">
         <f ca="1">IF(F20 &lt; J29, (IF(F20&lt;0, J28, J28-F20)), 0 )</f>
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -1582,23 +1682,23 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>758</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E21" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>632</v>
+        <v>527</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-514</v>
+        <v>1137</v>
       </c>
       <c r="G21" s="35"/>
       <c r="I21" s="20" t="s">
@@ -1608,10 +1708,10 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -1619,29 +1719,29 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-514</v>
+        <v>1137</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="E22" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-232</v>
+        <v>548</v>
       </c>
       <c r="G22" s="35">
         <f ca="1">IF(F22 &lt; J29, (IF(F22&lt;0, J28, J28-F22)), 0 )</f>
-        <v>1000</v>
+        <v>1116</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -1649,23 +1749,23 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-232</v>
+        <v>548</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="G23" s="35"/>
       <c r="I23" s="17" t="s">
@@ -1674,10 +1774,10 @@
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1686,24 +1786,24 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="E24" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-361</v>
+        <v>644</v>
       </c>
       <c r="G24" s="35">
         <f ca="1">IF(F24 &lt; J29, (IF(F24&lt;0, J28, J28-F24)), 0 )</f>
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1716,7 +1816,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-361</v>
+        <v>644</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1724,15 +1824,15 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="E25" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>562</v>
+        <v>443</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>1221</v>
       </c>
       <c r="G25" s="35"/>
       <c r="I25" s="20" t="s">
@@ -1741,10 +1841,10 @@
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -1752,7 +1852,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>1221</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1761,15 +1861,15 @@
       </c>
       <c r="E26" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-563</v>
+        <v>655</v>
       </c>
       <c r="G26" s="35">
         <f ca="1">IF(F26 &lt; J29, (IF(F26&lt;0, J28, J28-F26)), 0 )</f>
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -1778,7 +1878,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-563</v>
+        <v>655</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1786,21 +1886,21 @@
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E27" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-121</v>
+        <v>1136</v>
       </c>
       <c r="G27" s="35"/>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="42"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
@@ -1808,7 +1908,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-121</v>
+        <v>1136</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1817,21 +1917,22 @@
       </c>
       <c r="E28" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>496</v>
+        <v>585</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-617</v>
+        <v>551</v>
       </c>
       <c r="G28" s="35">
         <f ca="1">IF(F28 &lt; J29, (IF(F28&lt;0, J28, J28-F28)), 0 )</f>
-        <v>1000</v>
+        <v>1113</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="22">
-        <v>1000</v>
+        <f>INT(J41+N39*J42)</f>
+        <v>1664</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1941,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-617</v>
+        <v>551</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1848,22 +1949,23 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1000</v>
+        <v>1113</v>
       </c>
       <c r="E29" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>596</v>
+        <v>454</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-213</v>
+        <v>1210</v>
       </c>
       <c r="G29" s="35"/>
       <c r="I29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J29" s="23">
-        <v>300</v>
+        <f>IF(INT(J28-207.456) &lt; 0, 0, INT(J28-207.456) )</f>
+        <v>1456</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1872,7 +1974,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-213</v>
+        <v>1210</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1885,11 +1987,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-790</v>
+        <v>633</v>
       </c>
       <c r="G30" s="35">
         <f ca="1">IF(F30 &lt; J29, (IF(F30&lt;0, J28, J28-F30)), 0 )</f>
-        <v>1000</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1898,23 +2000,23 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-790</v>
+        <v>633</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-1269</v>
+        <v>1157</v>
       </c>
       <c r="G31" s="35"/>
       <c r="I31" s="37" t="s">
@@ -1924,91 +2026,98 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1269</v>
+        <v>1157</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-894</v>
+        <v>578</v>
       </c>
       <c r="G32" s="35">
         <f ca="1">IF(F32 &lt; J29, (IF(F32&lt;0, J28, J28-F32)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-894</v>
+        <v>578</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-188</v>
+        <v>211</v>
       </c>
       <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="I33" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="21">
+        <f>INT(J28-J29+(N5*2/2))</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-188</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="E34" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-544</v>
+        <v>968</v>
       </c>
       <c r="G34" s="35">
         <f ca="1">IF(F34 &lt; J29, (IF(F34&lt;0, J28, J28-F34)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-544</v>
+        <v>968</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2020,99 +2129,113 @@
       </c>
       <c r="E35" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-875</v>
+        <v>627</v>
       </c>
       <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="I35" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="21">
+        <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>32</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-875</v>
+        <v>627</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>1000</v>
+        <v>696</v>
       </c>
       <c r="E36" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-219</v>
+        <v>987</v>
       </c>
       <c r="G36" s="35">
         <f ca="1">IF(F36 &lt; J29, (IF(F36&lt;0, J28, J28-F36)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>33</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-219</v>
+        <v>987</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="E37" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-552</v>
+        <v>1343</v>
       </c>
       <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="I37" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="21">
+        <f>(J18*(J25/50)/J21)</f>
+        <v>2.0435294117647062E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>34</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-552</v>
+        <v>1343</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E38" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>998</v>
       </c>
       <c r="G38" s="35">
         <f ca="1">IF(F38 &lt; J29, (IF(F38&lt;0, J28, J28-F38)), 0 )</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>998</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2124,26 +2247,46 @@
       </c>
       <c r="E39" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-240</v>
+        <v>659</v>
       </c>
       <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="I39" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="21">
+        <f>1/(50/2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="K39" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="21">
+        <v>58</v>
+      </c>
+      <c r="M39" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="54">
+        <f>(3*L39)/100</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-240</v>
+        <v>659</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>890</v>
+        <v>666</v>
       </c>
       <c r="E40" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
@@ -2151,46 +2294,53 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>977</v>
       </c>
       <c r="G40" s="35">
         <f ca="1">IF(F40 &lt; J29, (IF(F40&lt;0, J28, J28-F40)), 0 )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>37</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>977</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E41" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-24</v>
+        <v>1382</v>
       </c>
       <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="I41" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="21">
+        <f>N5*(2+(0.6*1 + 0.4*2))</f>
+        <v>1538.6133333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>38</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24</v>
+        <v>1382</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
@@ -2199,76 +2349,89 @@
       </c>
       <c r="E42" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-319</v>
+        <v>971</v>
       </c>
       <c r="G42" s="35">
         <f ca="1">IF(F42 &lt; J29, (IF(F42&lt;0, J28, J28-F42)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="56">
+        <f>SQRT((N6^2)*(2+ (1*0.6 + 2*0.4)))</f>
+        <v>72.595430620280766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>39</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-319</v>
+        <v>971</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E43" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>617</v>
       </c>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>40</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>617</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="E44" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-82</v>
+        <v>946</v>
       </c>
       <c r="G44" s="35">
         <f ca="1">IF(F44 &lt; J29, (IF(F44&lt;0, J28, J28-F44)), 0 )</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="55">
+        <v>1.4501999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>41</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-82</v>
+        <v>946</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2276,25 +2439,25 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>1000</v>
+        <v>718</v>
       </c>
       <c r="E45" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>567</v>
+        <v>1332</v>
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>42</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>1332</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -2303,67 +2466,74 @@
       </c>
       <c r="E46" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>940</v>
       </c>
       <c r="G46" s="35">
         <f ca="1">IF(F46 &lt; J29, (IF(F46&lt;0, J28, J28-F46)), 0 )</f>
-        <v>815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>940</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="E47" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-195</v>
+        <v>1343</v>
       </c>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-195</v>
+        <v>1343</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="E48" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>1038</v>
       </c>
       <c r="G48" s="35">
         <f ca="1">IF(F48 &lt; J29, (IF(F48&lt;0, J28, J28-F48)), 0 )</f>
-        <v>0</v>
+        <v>626</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="21">
+        <f>(J18*J33)+(J21*J44/2)+(J23/2)</f>
+        <v>11914.446534000001</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2372,7 +2542,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>1038</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2384,11 +2554,11 @@
       </c>
       <c r="E49" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-22</v>
+        <v>756</v>
       </c>
       <c r="G49" s="35"/>
     </row>
@@ -2398,24 +2568,24 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-22</v>
+        <v>756</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E50" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-352</v>
+        <v>994</v>
       </c>
       <c r="G50" s="35">
         <f ca="1">IF(F50 &lt; J29, (IF(F50&lt;0, J28, J28-F50)), 0 )</f>
-        <v>1000</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2424,23 +2594,23 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-352</v>
+        <v>994</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E51" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>652</v>
       </c>
       <c r="G51" s="35"/>
     </row>
@@ -2450,24 +2620,24 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>652</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="E52" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>1035</v>
       </c>
       <c r="G52" s="35">
         <f ca="1">IF(F52 &lt; J29, (IF(F52&lt;0, J28, J28-F52)), 0 )</f>
-        <v>1000</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2476,7 +2646,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>1035</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2488,11 +2658,11 @@
       </c>
       <c r="E53" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-342</v>
+        <v>621</v>
       </c>
       <c r="G53" s="35"/>
     </row>
@@ -2500,162 +2670,162 @@
       <c r="A54" s="28">
         <v>50</v>
       </c>
-      <c r="B54" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-342</v>
+      <c r="B54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>621</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>1000</v>
+        <v>629</v>
       </c>
       <c r="E54" s="33">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>307</v>
+        <v>883</v>
       </c>
       <c r="G54" s="36">
         <f ca="1">IF(F54 &lt; J29, (IF(F54&lt;0, J28, J28-F54)), 0 )</f>
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="48">
+      <c r="A60" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="49">
+      <c r="A61" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="49">
+      <c r="A62" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="49">
+      <c r="A63" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="49">
+      <c r="A64" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="49">
+      <c r="A65" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="49">
+      <c r="A66" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="49">
+      <c r="A67" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="49">
+      <c r="A68" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="49">
+      <c r="A69" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="41">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="49">
+      <c r="A71" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="49">
+      <c r="A72" s="41">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="49">
+      <c r="A73" s="41">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="49">
+      <c r="A74" s="41">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="49">
+      <c r="A75" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="49">
+      <c r="A76" s="41">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="49">
+      <c r="A77" s="41">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="49">
+      <c r="A78" s="41">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="49">
+      <c r="A79" s="41">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="49">
+      <c r="A81" s="41">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="49">
+      <c r="A82" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49">
+      <c r="A83" s="41">
         <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50">
+      <c r="A84" s="42">
         <v>25</v>
       </c>
     </row>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A28814-D3DB-CC4D-A3CA-3A8DB4CE991D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901E529-53F2-9A46-BEF0-D89CE21E0274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -114,9 +114,6 @@
     <t>* ciclo de encomenda</t>
   </si>
   <si>
-    <t>PARÂMETROS VARIÁVEIS</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -153,32 +150,65 @@
     <t>P[DDPP&gt;S]</t>
   </si>
   <si>
-    <t>MÉDIA DDPP</t>
-  </si>
-  <si>
-    <t>DESVIO DDPP</t>
-  </si>
-  <si>
     <t>Desvio Anual</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>E[DDPP&gt;S]</t>
   </si>
   <si>
     <t>Custos totais</t>
+  </si>
+  <si>
+    <t>PARÂMETROS VARIÁVEIS [1,16]</t>
+  </si>
+  <si>
+    <t>PARÂMETROS VARIÁVEIS [17,28]</t>
+  </si>
+  <si>
+    <t>PARÂMETROS VARIÁVEIS [29,50]</t>
+  </si>
+  <si>
+    <t>Média DDPP[1,16]</t>
+  </si>
+  <si>
+    <t>Desvio DDPP[1,16]</t>
+  </si>
+  <si>
+    <t>Média DDPP[17,28]</t>
+  </si>
+  <si>
+    <t>Desvio DDPP[17,28]</t>
+  </si>
+  <si>
+    <t>Média DDPP[29,50]</t>
+  </si>
+  <si>
+    <t>Desvio DDPP[29,50]</t>
+  </si>
+  <si>
+    <t>P[DDPP&gt;S] [1,16]</t>
+  </si>
+  <si>
+    <t>P[DDPP&gt;S] [17,28]</t>
+  </si>
+  <si>
+    <t>P[DDPP&gt;S] [29,50]</t>
+  </si>
+  <si>
+    <t>Z[1,16]</t>
+  </si>
+  <si>
+    <t>Z[17,28]</t>
+  </si>
+  <si>
+    <t>Z[29,50]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +249,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +311,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -609,11 +681,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,9 +843,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,6 +887,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,29 +930,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
-  <dimension ref="A2:N84"/>
+  <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1116,8 +1312,12 @@
     <col min="9" max="9" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1138,25 +1338,25 @@
         <v>4</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <f ca="1">INT(RANDBETWEEN(347,575))</f>
-        <v>568</v>
-      </c>
-      <c r="G4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <f ca="1">INT(RANDBETWEEN(J29,J28))</f>
+        <v>1342</v>
+      </c>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -1164,19 +1364,19 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>197</v>
-      </c>
-      <c r="G5" s="35"/>
+        <v>943</v>
+      </c>
+      <c r="G5" s="34"/>
       <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1186,35 +1386,35 @@
       <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="58">
-        <f>AVERAGE(J6,J7,J8)</f>
-        <v>452.5333333333333</v>
+      <c r="M5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="47">
+        <f>(J6*16 + J7 *12+ J8*22)/50</f>
+        <v>430.08839999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="57">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>197</v>
+        <v>943</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>393</v>
+        <v>483</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>-196</v>
-      </c>
-      <c r="G6" s="35">
+        <v>460</v>
+      </c>
+      <c r="G6" s="34">
         <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
-        <v>1664</v>
+        <v>1031</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1225,12 +1425,12 @@
       <c r="K6" s="10">
         <v>37.85</v>
       </c>
-      <c r="M6" s="52" t="s">
-        <v>42</v>
+      <c r="M6" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="N6" s="21">
         <f>N5*0.087</f>
-        <v>39.370399999999997</v>
+        <v>37.417690799999995</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -1239,25 +1439,25 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>1664</v>
-      </c>
-      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1226</v>
-      </c>
-      <c r="G7" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1269,29 +1469,29 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1226</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
+        <v>1031</v>
+      </c>
+      <c r="E8" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>875</v>
-      </c>
-      <c r="G8" s="35">
+        <v>731</v>
+      </c>
+      <c r="G8" s="34">
         <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
-        <v>789</v>
+        <v>760</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1309,7 +1509,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>875</v>
+        <v>731</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1319,40 +1519,40 @@
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>461</v>
-      </c>
-      <c r="G9" s="35"/>
+        <v>280</v>
+      </c>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="57">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>789</v>
-      </c>
-      <c r="E10" s="30">
+        <v>760</v>
+      </c>
+      <c r="E10" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>826</v>
-      </c>
-      <c r="G10" s="35">
+        <v>588</v>
+      </c>
+      <c r="G10" s="34">
         <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>838</v>
+        <v>903</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1367,7 +1567,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>826</v>
+        <v>588</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1375,17 +1575,17 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>838</v>
-      </c>
-      <c r="E11" s="30">
+        <v>903</v>
+      </c>
+      <c r="E11" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1287</v>
-      </c>
-      <c r="G11" s="35"/>
+        <v>1160</v>
+      </c>
+      <c r="G11" s="34"/>
       <c r="I11" s="9">
         <v>1</v>
       </c>
@@ -1394,29 +1594,29 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="57">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1287</v>
+        <v>1160</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f ca="1">IF(C11 = 0.4, G10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>882</v>
-      </c>
-      <c r="G12" s="35">
+        <v>752</v>
+      </c>
+      <c r="G12" s="34">
         <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>782</v>
+        <v>739</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1431,50 +1631,50 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>882</v>
+        <v>752</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
+        <v>739</v>
+      </c>
+      <c r="E13" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>501</v>
-      </c>
-      <c r="G13" s="35"/>
+        <v>1018</v>
+      </c>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="57">
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>501</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
-        <v>782</v>
-      </c>
-      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>862</v>
-      </c>
-      <c r="G14" s="35">
+        <v>612</v>
+      </c>
+      <c r="G14" s="34">
         <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>802</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -1483,51 +1683,51 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>862</v>
+        <v>612</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>802</v>
-      </c>
-      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1192</v>
-      </c>
-      <c r="G15" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="G15" s="34"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="57">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1192</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
+        <v>879</v>
+      </c>
+      <c r="E16" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>733</v>
-      </c>
-      <c r="G16" s="35">
+        <v>590</v>
+      </c>
+      <c r="G16" s="34">
         <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1535,18 +1735,18 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="50"/>
-    </row>
-    <row r="17" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>733</v>
+        <v>590</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1556,50 +1756,50 @@
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="G17" s="35"/>
+        <v>164</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="I17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>931</v>
-      </c>
-      <c r="E18" s="30">
+        <v>901</v>
+      </c>
+      <c r="E18" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>764</v>
-      </c>
-      <c r="G18" s="35">
+        <v>604</v>
+      </c>
+      <c r="G18" s="34">
         <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -1608,61 +1808,61 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>764</v>
+        <v>604</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
+        <v>887</v>
+      </c>
+      <c r="E19" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+        <v>1120</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>305</v>
+        <v>1120</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
-        <v>900</v>
-      </c>
-      <c r="E20" s="30">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>758</v>
-      </c>
-      <c r="G20" s="35">
-        <f ca="1">IF(F20 &lt; J29, (IF(F20&lt;0, J28, J28-F20)), 0 )</f>
-        <v>906</v>
+        <v>635</v>
+      </c>
+      <c r="G20" s="34">
+        <f ca="1">IF(F20 &lt; M29, (IF(F20&lt;0, M28, M28-F20)), 0 )</f>
+        <v>1332</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -1676,31 +1876,31 @@
       <c r="L20" s="18"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>758</v>
+        <v>635</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>906</v>
-      </c>
-      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>527</v>
+        <v>616</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1137</v>
-      </c>
-      <c r="G21" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="G21" s="34"/>
       <c r="I21" s="20" t="s">
         <v>21</v>
       </c>
@@ -1708,48 +1908,48 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1137</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
+        <v>1332</v>
+      </c>
+      <c r="E22" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>548</v>
-      </c>
-      <c r="G22" s="35">
-        <f ca="1">IF(F22 &lt; J29, (IF(F22&lt;0, J28, J28-F22)), 0 )</f>
-        <v>1116</v>
+        <v>821</v>
+      </c>
+      <c r="G22" s="34">
+        <f ca="1">IF(F22 &lt; M29, (IF(F22&lt;0, M28, M28-F22)), 0 )</f>
+        <v>1146</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>19</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>548</v>
+        <v>821</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1759,189 +1959,215 @@
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="G23" s="35"/>
+        <v>251</v>
+      </c>
+      <c r="G23" s="34"/>
       <c r="I23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="45"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+    <row r="24" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
         <v>20</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1116</v>
-      </c>
-      <c r="E24" s="31">
+        <v>1146</v>
+      </c>
+      <c r="E24" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>644</v>
-      </c>
-      <c r="G24" s="35">
-        <f ca="1">IF(F24 &lt; J29, (IF(F24&lt;0, J28, J28-F24)), 0 )</f>
-        <v>1020</v>
+        <v>817</v>
+      </c>
+      <c r="G24" s="34">
+        <f ca="1">IF(F24 &lt; M29, (IF(F24&lt;0, M28, M28-F24)), 0 )</f>
+        <v>1150</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>21</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>644</v>
+        <v>817</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1020</v>
-      </c>
-      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1221</v>
-      </c>
-      <c r="G25" s="35"/>
+        <v>310</v>
+      </c>
+      <c r="G25" s="34"/>
       <c r="I25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="45"/>
-    </row>
-    <row r="26" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1221</v>
+        <v>310</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f ca="1">IF(C25 = 0.4, G24, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
+        <v>1150</v>
+      </c>
+      <c r="E26" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>655</v>
-      </c>
-      <c r="G26" s="35">
-        <f ca="1">IF(F26 &lt; J29, (IF(F26&lt;0, J28, J28-F26)), 0 )</f>
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+      <c r="G26" s="34">
+        <f ca="1">IF(F26 &lt; M29, (IF(F26&lt;0, M28, M28-F26)), 0 )</f>
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>655</v>
+        <v>786</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1009</v>
-      </c>
-      <c r="E27" s="31">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
         <v>528</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1136</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="I27" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+        <v>258</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="I27" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="L27" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="68"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="62"/>
+    </row>
+    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="57">
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1136</v>
+        <v>258</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="31">
+        <v>1181</v>
+      </c>
+      <c r="E28" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>551</v>
-      </c>
-      <c r="G28" s="35">
-        <f ca="1">IF(F28 &lt; J29, (IF(F28&lt;0, J28, J28-F28)), 0 )</f>
-        <v>1113</v>
+        <v>832</v>
+      </c>
+      <c r="G28" s="34">
+        <f ca="1">IF(F28 &lt; M29, (IF(F28&lt;0, M28, M28-F28)), 0 )</f>
+        <v>1135</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28" s="22">
-        <f>INT(J41+N39*J42)</f>
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <f>INT(M33 + M34*M37)</f>
+        <v>1491</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="64">
+        <f>INT(O33 + O34*O37)</f>
+        <v>1967</v>
+      </c>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="64">
+        <f>INT(Q33 + Q34*Q37)</f>
+        <v>1193</v>
+      </c>
+      <c r="Q28" s="62"/>
+    </row>
+    <row r="29" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>832</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1949,116 +2175,132 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1113</v>
-      </c>
-      <c r="E29" s="31">
+        <v>1135</v>
+      </c>
+      <c r="E29" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>454</v>
+        <v>567</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1210</v>
-      </c>
-      <c r="G29" s="35"/>
+        <v>1400</v>
+      </c>
+      <c r="G29" s="34"/>
       <c r="I29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="23">
         <f>IF(INT(J28-207.456) &lt; 0, 0, INT(J28-207.456) )</f>
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+        <v>1283</v>
+      </c>
+      <c r="L29" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="66">
+        <f>IF(INT(M28-207.456) &lt; 0, 0, INT(M28-207.456) )</f>
+        <v>1759</v>
+      </c>
+      <c r="N29" s="62"/>
+      <c r="O29" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="66">
+        <f>IF(INT(P28-207.456) &lt; 0, 0, INT(P28-207.456) )</f>
+        <v>985</v>
+      </c>
+      <c r="Q29" s="62"/>
+    </row>
+    <row r="30" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
         <v>26</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>633</v>
-      </c>
-      <c r="G30" s="35">
-        <f ca="1">IF(F30 &lt; J29, (IF(F30&lt;0, J28, J28-F30)), 0 )</f>
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="G30" s="34">
+        <f ca="1">IF(F30 &lt; M29, (IF(F30&lt;0, M28, M28-F30)), 0 )</f>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>633</v>
+        <v>765</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1031</v>
-      </c>
-      <c r="E31" s="31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1157</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="I31" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="I31" s="36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="J31" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1157</v>
+        <v>216</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="31">
+        <v>1202</v>
+      </c>
+      <c r="E32" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>578</v>
-      </c>
-      <c r="G32" s="35">
-        <f ca="1">IF(F32 &lt; J29, (IF(F32&lt;0, J28, J28-F32)), 0 )</f>
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="G32" s="34">
+        <f ca="1">IF(F32 &lt; P29, (IF(F32&lt;0, P28, P28-F32)), 0 )</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>849</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2068,56 +2310,98 @@
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="I33" s="52" t="s">
-        <v>35</v>
+        <v>518</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="I33" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="J33" s="21">
-        <f>INT(J28-J29+(N5*2/2))</f>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+        <f ca="1">INT(AVERAGE(B5:B54))</f>
+        <v>542</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="21">
+        <f>INT(J6*(J25+((I11*J11) + (I12*J12))))</f>
+        <v>1479</v>
+      </c>
+      <c r="N33" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="71">
+        <f>INT(J7*(J25+((I11*J11) + (I12*J12))))</f>
+        <v>1955</v>
+      </c>
+      <c r="P33" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="71">
+        <f>INT(J8*(J25+((I11*J11) + (I12*J12))))</f>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>518</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>1086</v>
-      </c>
-      <c r="E34" s="32">
+        <v>344</v>
+      </c>
+      <c r="E34" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>968</v>
-      </c>
-      <c r="G34" s="35">
-        <f ca="1">IF(F34 &lt; J29, (IF(F34&lt;0, J28, J28-F34)), 0 )</f>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="G34" s="34">
+        <f ca="1">IF(F34 &lt; P29, (IF(F34&lt;0, P28, P28-F34)), 0 )</f>
+        <v>751</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="21">
+        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K6))</f>
+        <v>11</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="71">
+        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K7))</f>
+        <v>13</v>
+      </c>
+      <c r="P34" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="71">
+        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K8))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>442</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2127,253 +2411,292 @@
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>627</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="I35" s="52" t="s">
-        <v>37</v>
+        <v>115</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="I35" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="J35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
         <v>32</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>696</v>
-      </c>
-      <c r="E36" s="32">
+        <v>751</v>
+      </c>
+      <c r="E36" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>987</v>
-      </c>
-      <c r="G36" s="35">
-        <f ca="1">IF(F36 &lt; J29, (IF(F36&lt;0, J28, J28-F36)), 0 )</f>
-        <v>677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="G36" s="34">
+        <f ca="1">IF(F36 &lt; P29, (IF(F36&lt;0, P28, P28-F36)), 0 )</f>
+        <v>593</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="73">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="73">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="73">
+        <f>1/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>33</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>987</v>
+        <v>600</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>677</v>
-      </c>
-      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1343</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="I37" s="52" t="s">
-        <v>38</v>
+        <v>310</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="I37" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="J37" s="21">
         <f>(J18*(J25/50)/J21)</f>
         <v>2.0435294117647062E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="L37" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="73">
+        <f>ABS(NORMSINV(M36))</f>
+        <v>1.1503493803760083</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="73">
+        <f>ABS(NORMSINV(O36))</f>
+        <v>0.96742156610170071</v>
+      </c>
+      <c r="P37" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" s="74">
+        <f>ABS(NORMSINV(Q36))</f>
+        <v>1.3351777361189361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
         <v>34</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1343</v>
+        <v>310</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="32">
+        <v>593</v>
+      </c>
+      <c r="E38" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>998</v>
-      </c>
-      <c r="G38" s="35">
-        <f ca="1">IF(F38 &lt; J29, (IF(F38&lt;0, J28, J28-F38)), 0 )</f>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="G38" s="34">
+        <f ca="1">IF(F38 &lt; P29, (IF(F38&lt;0, P28, P28-F38)), 0 )</f>
+        <v>634</v>
+      </c>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+    </row>
+    <row r="39" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>998</v>
+        <v>559</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="32">
+        <v>634</v>
+      </c>
+      <c r="E39" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>659</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="I39" s="52" t="s">
-        <v>39</v>
+        <v>852</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="I39" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="J39" s="21">
-        <f>1/(50/2)</f>
+        <f ca="1">1/(COUNTIF(G5:G54,"&gt;0"))</f>
         <v>0.04</v>
       </c>
-      <c r="K39" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="21">
-        <v>58</v>
-      </c>
-      <c r="M39" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="54">
-        <f>(3*L39)/100</f>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+      <c r="K39" s="60"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="61"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="57">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>852</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>666</v>
-      </c>
-      <c r="E40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>977</v>
-      </c>
-      <c r="G40" s="35">
-        <f ca="1">IF(F40 &lt; J29, (IF(F40&lt;0, J28, J28-F40)), 0 )</f>
-        <v>687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="G40" s="34">
+        <f ca="1">IF(F40 &lt; P29, (IF(F40&lt;0, P28, P28-F40)), 0 )</f>
+        <v>700</v>
+      </c>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+    </row>
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>37</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>977</v>
+        <v>493</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
-        <v>687</v>
-      </c>
-      <c r="E41" s="32">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1382</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="I41" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="21">
-        <f>N5*(2+(0.6*1 + 0.4*2))</f>
-        <v>1538.6133333333332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
+        <v>114</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="57">
         <v>38</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1382</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="32">
+        <v>700</v>
+      </c>
+      <c r="E42" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>971</v>
-      </c>
-      <c r="G42" s="35">
-        <f ca="1">IF(F42 &lt; J29, (IF(F42&lt;0, J28, J28-F42)), 0 )</f>
-        <v>693</v>
-      </c>
-      <c r="I42" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="56">
-        <f>SQRT((N6^2)*(2+ (1*0.6 + 2*0.4)))</f>
-        <v>72.595430620280766</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="G42" s="34">
+        <f ca="1">IF(F42 &lt; P29, (IF(F42&lt;0, P28, P28-F42)), 0 )</f>
+        <v>700</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+    </row>
+    <row r="43" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>39</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>493</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2383,55 +2706,56 @@
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>617</v>
-      </c>
-      <c r="G43" s="35"/>
-    </row>
-    <row r="44" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+        <v>127</v>
+      </c>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
         <v>40</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>693</v>
-      </c>
-      <c r="E44" s="32">
+        <v>700</v>
+      </c>
+      <c r="E44" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>946</v>
-      </c>
-      <c r="G44" s="35">
-        <f ca="1">IF(F44 &lt; J29, (IF(F44&lt;0, J28, J28-F44)), 0 )</f>
-        <v>718</v>
-      </c>
-      <c r="I44" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="55">
-        <v>1.4501999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="G44" s="34">
+        <f ca="1">IF(F44 &lt; P29, (IF(F44&lt;0, P28, P28-F44)), 0 )</f>
+        <v>667</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="45">
+        <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>41</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>946</v>
+        <v>526</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2439,101 +2763,101 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>718</v>
-      </c>
-      <c r="E45" s="32">
+        <v>667</v>
+      </c>
+      <c r="E45" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1332</v>
-      </c>
-      <c r="G45" s="35"/>
-    </row>
-    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="27">
+        <v>871</v>
+      </c>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="57">
         <v>42</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1332</v>
+        <v>871</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>940</v>
-      </c>
-      <c r="G46" s="35">
-        <f ca="1">IF(F46 &lt; J29, (IF(F46&lt;0, J28, J28-F46)), 0 )</f>
-        <v>724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="G46" s="34">
+        <f ca="1">IF(F46 &lt; P29, (IF(F46&lt;0, P28, P28-F46)), 0 )</f>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>940</v>
+        <v>526</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>724</v>
-      </c>
-      <c r="E47" s="32">
+        <v>0</v>
+      </c>
+      <c r="E47" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1343</v>
-      </c>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+        <v>125</v>
+      </c>
+      <c r="G47" s="34"/>
+    </row>
+    <row r="48" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1343</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="32">
+        <v>667</v>
+      </c>
+      <c r="E48" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1038</v>
-      </c>
-      <c r="G48" s="35">
-        <f ca="1">IF(F48 &lt; J29, (IF(F48&lt;0, J28, J28-F48)), 0 )</f>
-        <v>626</v>
-      </c>
-      <c r="I48" s="52" t="s">
-        <v>46</v>
+        <v>427</v>
+      </c>
+      <c r="G48" s="34">
+        <f ca="1">IF(F48 &lt; P29, (IF(F48&lt;0, P28, P28-F48)), 0 )</f>
+        <v>766</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="J48" s="21">
-        <f>(J18*J33)+(J21*J44/2)+(J23/2)</f>
-        <v>11914.446534000001</v>
+        <f ca="1">(J18*J33)+(J21*J35)+(J23*COUNTIF(G5:G54,"&gt;0"))</f>
+        <v>31914.54</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2542,7 +2866,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1038</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2552,40 +2876,40 @@
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>756</v>
-      </c>
-      <c r="G49" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
+      <c r="A50" s="57">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>756</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>626</v>
-      </c>
-      <c r="E50" s="32">
+        <v>766</v>
+      </c>
+      <c r="E50" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>994</v>
-      </c>
-      <c r="G50" s="35">
-        <f ca="1">IF(F50 &lt; J29, (IF(F50&lt;0, J28, J28-F50)), 0 )</f>
-        <v>670</v>
+        <v>529</v>
+      </c>
+      <c r="G50" s="34">
+        <f ca="1">IF(F50 &lt; P29, (IF(F50&lt;0, P28, P28-F50)), 0 )</f>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2594,7 +2918,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>994</v>
+        <v>529</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2604,40 +2928,40 @@
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>652</v>
-      </c>
-      <c r="G51" s="35"/>
+        <v>195</v>
+      </c>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
+      <c r="A52" s="57">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>652</v>
+        <v>195</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>670</v>
-      </c>
-      <c r="E52" s="32">
+        <v>664</v>
+      </c>
+      <c r="E52" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1035</v>
-      </c>
-      <c r="G52" s="35">
-        <f ca="1">IF(F52 &lt; J29, (IF(F52&lt;0, J28, J28-F52)), 0 )</f>
-        <v>629</v>
+        <v>489</v>
+      </c>
+      <c r="G52" s="34">
+        <f ca="1">IF(F52 &lt; P29, (IF(F52&lt;0, P28, P28-F52)), 0 )</f>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -2646,7 +2970,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1035</v>
+        <v>489</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2656,181 +2980,182 @@
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>621</v>
-      </c>
-      <c r="G53" s="35"/>
+        <v>103</v>
+      </c>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="58">
         <v>50</v>
       </c>
-      <c r="B54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>621</v>
+      <c r="B54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>103</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>629</v>
-      </c>
-      <c r="E54" s="33">
+        <v>704</v>
+      </c>
+      <c r="E54" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>883</v>
-      </c>
-      <c r="G54" s="36">
-        <f ca="1">IF(F54 &lt; J29, (IF(F54&lt;0, J28, J28-F54)), 0 )</f>
-        <v>781</v>
+        <v>505</v>
+      </c>
+      <c r="G54" s="35">
+        <f ca="1">IF(F54 &lt; P29, (IF(F54&lt;0, P28, P28-F54)), 0 )</f>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="A59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="C59" s="42" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="40">
+      <c r="A60" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="41">
+      <c r="A61" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="41">
+      <c r="A62" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="41">
+      <c r="A63" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="41">
+      <c r="A64" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="41">
+      <c r="A65" s="40">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41">
+      <c r="A66" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41">
+      <c r="A67" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="41">
+      <c r="A68" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41">
+      <c r="A69" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41">
+      <c r="A70" s="40">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41">
+      <c r="A71" s="40">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="41">
+      <c r="A72" s="40">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="41">
+      <c r="A73" s="40">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="41">
+      <c r="A74" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="41">
+      <c r="A75" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41">
+      <c r="A76" s="40">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41">
+      <c r="A77" s="40">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="41">
+      <c r="A78" s="40">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="41">
+      <c r="A79" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="41">
+      <c r="A80" s="40">
         <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="41">
+      <c r="A81" s="40">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="41">
+      <c r="A82" s="40">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="41">
+      <c r="A83" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42">
+      <c r="A84" s="41">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K17:L17"/>
@@ -2839,6 +3164,7 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K23:L23"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901E529-53F2-9A46-BEF0-D89CE21E0274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C3C7A2-3501-9C40-8DB2-05A4DEA39321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
+    <sheet name="Testes" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -132,9 +133,6 @@
     <t>CASO DE QUEBRA DE INVENTARIO</t>
   </si>
   <si>
-    <t>Nº TENTATIVA</t>
-  </si>
-  <si>
     <t>stock médio</t>
   </si>
   <si>
@@ -202,13 +200,76 @@
   </si>
   <si>
     <t>Z[29,50]</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nº TENTATIVA / (S,s)1 (S,s)2 (S,s)3 </t>
+  </si>
+  <si>
+    <t>(1491,1283) ; (1967,1759) ; (1193,985)</t>
+  </si>
+  <si>
+    <t>* tabela de custos</t>
+  </si>
+  <si>
+    <t>* tabela de nível de serviço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S,s)1 (S,s)2 (S,s)3 </t>
+  </si>
+  <si>
+    <t>médias de custos</t>
+  </si>
+  <si>
+    <t>média de nível de serviço</t>
+  </si>
+  <si>
+    <t>* solução analítica</t>
+  </si>
+  <si>
+    <t>Nível de Serviço</t>
+  </si>
+  <si>
+    <t>(1416,1208) ; (1869,1661) ; (1133,925)</t>
+  </si>
+  <si>
+    <t>* S analítico - 10%</t>
+  </si>
+  <si>
+    <t>* S analítico - 5%</t>
+  </si>
+  <si>
+    <t>(1341,1133) ; (1770,1562) ; (1073,865)</t>
+  </si>
+  <si>
+    <t>* Parar de decrementar S; Começar a aumentar s</t>
+  </si>
+  <si>
+    <t>(1416,1268) ; (1869,1744) ; (1133,971)</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico + 5%</t>
+  </si>
+  <si>
+    <t>(1416,1329) ; (1869,1827) ; (1133,1018)</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico + 10%</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico -5%</t>
+  </si>
+  <si>
+    <t>(1416,1148) ; (1869,1578) ; (1133,879)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +334,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (corpo)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +414,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -764,11 +867,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,9 +987,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,9 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,6 +1014,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,62 +1088,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4E4D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1296,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -1320,8 +1518,8 @@
     <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" thickBot="1"/>
+    <row r="3" spans="1:14" ht="27" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A4" s="26">
         <v>0</v>
       </c>
@@ -1354,27 +1552,27 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28">
         <f ca="1">INT(RANDBETWEEN(J29,J28))</f>
-        <v>1342</v>
+        <v>1197</v>
       </c>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20" thickBot="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1342</v>
+        <v>1197</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>943</v>
+        <v>776</v>
       </c>
       <c r="G5" s="34"/>
       <c r="I5" s="6" t="s">
@@ -1386,35 +1584,35 @@
       <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="47">
+      <c r="M5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="45">
         <f>(J6*16 + J7 *12+ J8*22)/50</f>
         <v>430.08839999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
+    <row r="6" spans="1:14" ht="20" thickBot="1">
+      <c r="A6" s="47">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>943</v>
+        <v>776</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="G6" s="34">
         <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
-        <v>1031</v>
+        <v>1065</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1425,21 +1623,21 @@
       <c r="K6" s="10">
         <v>37.85</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>39</v>
+      <c r="M6" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="N6" s="21">
         <f>N5*0.087</f>
         <v>37.417690799999995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="19">
       <c r="A7" s="27">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1451,11 +1649,11 @@
       </c>
       <c r="E7" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>-97</v>
       </c>
       <c r="G7" s="34"/>
       <c r="I7" s="9" t="s">
@@ -1468,30 +1666,30 @@
         <v>50.05</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+    <row r="8" spans="1:14" ht="20" thickBot="1">
+      <c r="A8" s="47">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1031</v>
+        <v>1065</v>
       </c>
       <c r="E8" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="G8" s="34">
         <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1503,13 +1701,13 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="20" thickBot="1">
       <c r="A9" s="27">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1521,38 +1719,38 @@
       </c>
       <c r="E9" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+    <row r="10" spans="1:14" ht="19">
+      <c r="A10" s="47">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E10" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="G10" s="34">
         <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1561,13 +1759,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="19">
       <c r="A11" s="27">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>588</v>
+        <v>525</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1575,15 +1773,15 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="E11" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1160</v>
+        <v>1035</v>
       </c>
       <c r="G11" s="34"/>
       <c r="I11" s="9">
@@ -1593,13 +1791,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+    <row r="12" spans="1:14" ht="20" thickBot="1">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1160</v>
+        <v>1035</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1608,15 +1806,15 @@
       </c>
       <c r="E12" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>752</v>
+        <v>550</v>
       </c>
       <c r="G12" s="34">
         <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>739</v>
+        <v>866</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1625,13 +1823,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="19">
       <c r="A13" s="27">
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>752</v>
+        <v>550</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1639,25 +1837,25 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>739</v>
+        <v>866</v>
       </c>
       <c r="E13" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+    <row r="14" spans="1:14" ht="19">
+      <c r="A14" s="47">
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1666,24 +1864,24 @@
       </c>
       <c r="E14" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="G14" s="34">
         <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20" thickBot="1">
       <c r="A15" s="27">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1695,39 +1893,39 @@
       </c>
       <c r="E15" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="G15" s="34"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
+    <row r="16" spans="1:14" ht="20" thickBot="1">
+      <c r="A16" s="47">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>879</v>
+        <v>850</v>
       </c>
       <c r="E16" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="G16" s="34">
         <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1735,34 +1933,34 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="55"/>
-    </row>
-    <row r="17" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:17" ht="20" thickBot="1">
       <c r="A17" s="27">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E17" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="G17" s="34"/>
       <c r="I17" s="17" t="s">
@@ -1771,35 +1969,35 @@
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:17" ht="20" thickBot="1">
+      <c r="A18" s="47">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>1017</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="E18" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="G18" s="34">
         <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>887</v>
+        <v>770</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -1808,61 +2006,61 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="53"/>
-    </row>
-    <row r="19" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:17" ht="20" thickBot="1">
       <c r="A19" s="27">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E19" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1120</v>
+        <v>257</v>
       </c>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
+    <row r="20" spans="1:17" ht="20" thickBot="1">
+      <c r="A20" s="47">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1120</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="E20" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="G20" s="34">
         <f ca="1">IF(F20 &lt; M29, (IF(F20&lt;0, M28, M28-F20)), 0 )</f>
-        <v>1332</v>
+        <v>1284</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -1876,29 +2074,29 @@
       <c r="L20" s="18"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20" thickBot="1">
       <c r="A21" s="27">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E21" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>1374</v>
       </c>
       <c r="G21" s="34"/>
       <c r="I21" s="20" t="s">
@@ -1908,48 +2106,48 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="50"/>
-    </row>
-    <row r="22" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57">
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:17" ht="20" thickBot="1">
+      <c r="A22" s="47">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>1374</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="E22" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>530</v>
+        <v>634</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>821</v>
+        <v>740</v>
       </c>
       <c r="G22" s="34">
         <f ca="1">IF(F22 &lt; M29, (IF(F22&lt;0, M28, M28-F22)), 0 )</f>
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:17" ht="20" thickBot="1">
       <c r="A23" s="27">
         <v>19</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>821</v>
+        <v>740</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1961,11 +2159,11 @@
       </c>
       <c r="E23" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>570</v>
+        <v>695</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="G23" s="34"/>
       <c r="I23" s="17" t="s">
@@ -1974,65 +2172,65 @@
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="50"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57">
+    <row r="24" spans="1:17" ht="20" thickBot="1">
+      <c r="A24" s="47">
         <v>20</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="E24" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>817</v>
+        <v>606</v>
       </c>
       <c r="G24" s="34">
         <f ca="1">IF(F24 &lt; M29, (IF(F24&lt;0, M28, M28-F24)), 0 )</f>
-        <v>1150</v>
+        <v>1263</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="20" thickBot="1">
       <c r="A25" s="27">
         <v>21</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>817</v>
+        <v>606</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="E25" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <v>1255</v>
       </c>
       <c r="G25" s="34"/>
       <c r="I25" s="20" t="s">
@@ -2041,133 +2239,130 @@
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:17" ht="20" thickBot="1">
+      <c r="A26" s="47">
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>1255</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f ca="1">IF(C25 = 0.4, G24, 0)</f>
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="E26" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>674</v>
+        <v>579</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>786</v>
+        <v>676</v>
       </c>
       <c r="G26" s="34">
         <f ca="1">IF(F26 &lt; M29, (IF(F26&lt;0, M28, M28-F26)), 0 )</f>
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="19">
       <c r="A27" s="27">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>786</v>
+        <v>676</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="E27" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>1302</v>
       </c>
       <c r="G27" s="34"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="68"/>
+      <c r="L27" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="L27" s="67" t="s">
+      <c r="M27" s="64"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="62"/>
-    </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
+      <c r="P27" s="64"/>
+      <c r="Q27" s="52"/>
+    </row>
+    <row r="28" spans="1:17" ht="19">
+      <c r="A28" s="47">
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>1302</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="E28" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>832</v>
+        <v>749</v>
       </c>
       <c r="G28" s="34">
         <f ca="1">IF(F28 &lt; M29, (IF(F28&lt;0, M28, M28-F28)), 0 )</f>
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="22">
-        <f>INT(M33 + M34*M37)</f>
-        <v>1491</v>
-      </c>
-      <c r="L28" s="63" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L28" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="64">
-        <f>INT(O33 + O34*O37)</f>
-        <v>1967</v>
-      </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63" t="s">
+      <c r="M28" s="54">
+        <v>1869</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="64">
-        <f>INT(Q33 + Q34*Q37)</f>
-        <v>1193</v>
-      </c>
-      <c r="Q28" s="62"/>
-    </row>
-    <row r="29" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="54">
+        <v>1133</v>
+      </c>
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="1:17" ht="20" thickBot="1">
       <c r="A29" s="27">
         <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>832</v>
+        <v>749</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2175,48 +2370,48 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="E29" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>567</v>
+        <v>707</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1400</v>
+        <v>1162</v>
       </c>
       <c r="G29" s="34"/>
       <c r="I29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="23">
-        <f>IF(INT(J28-207.456) &lt; 0, 0, INT(J28-207.456) )</f>
-        <v>1283</v>
-      </c>
-      <c r="L29" s="65" t="s">
+        <f>IF(INT(J28-207.456) &lt; 0, 0, INT((J28-207.456)*0.95) )</f>
+        <v>1148</v>
+      </c>
+      <c r="L29" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="66">
-        <f>IF(INT(M28-207.456) &lt; 0, 0, INT(M28-207.456) )</f>
-        <v>1759</v>
-      </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="65" t="s">
+      <c r="M29" s="56">
+        <f>IF(INT(M28-207.456) &lt; 0, 0, INT((M28-207.456)*0.95) )</f>
+        <v>1578</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="66">
-        <f>IF(INT(P28-207.456) &lt; 0, 0, INT(P28-207.456) )</f>
-        <v>985</v>
-      </c>
-      <c r="Q29" s="62"/>
-    </row>
-    <row r="30" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57">
+      <c r="P29" s="56">
+        <f>IF(INT(P28-207.456) &lt; 0, 0, INT((P28-207.456)*0.95) )</f>
+        <v>879</v>
+      </c>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="1:17" ht="20" thickBot="1">
+      <c r="A30" s="47">
         <v>26</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>1162</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -2225,40 +2420,40 @@
       </c>
       <c r="E30" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>765</v>
+        <v>533</v>
       </c>
       <c r="G30" s="34">
         <f ca="1">IF(F30 &lt; M29, (IF(F30&lt;0, M28, M28-F30)), 0 )</f>
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20" thickBot="1">
       <c r="A31" s="27">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>765</v>
+        <v>533</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="E31" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>1267</v>
       </c>
       <c r="G31" s="34"/>
       <c r="I31" s="36" t="s">
@@ -2268,39 +2463,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57">
+    <row r="32" spans="1:17" ht="20" thickBot="1">
+      <c r="A32" s="47">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>1267</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="E32" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>849</v>
+        <v>758</v>
       </c>
       <c r="G32" s="34">
         <f ca="1">IF(F32 &lt; P29, (IF(F32&lt;0, P28, P28-F32)), 0 )</f>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20" thickBot="1">
       <c r="A33" s="27">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>849</v>
+        <v>758</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2312,260 +2507,260 @@
       </c>
       <c r="E33" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>518</v>
+        <v>409</v>
       </c>
       <c r="G33" s="34"/>
-      <c r="I33" s="43" t="s">
-        <v>34</v>
+      <c r="I33" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="J33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>542</v>
-      </c>
-      <c r="L33" s="43" t="s">
-        <v>45</v>
+        <v>590</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="M33" s="21">
         <f>INT(J6*(J25+((I11*J11) + (I12*J12))))</f>
         <v>1479</v>
       </c>
-      <c r="N33" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="O33" s="71">
+      <c r="N33" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="59">
         <f>INT(J7*(J25+((I11*J11) + (I12*J12))))</f>
         <v>1955</v>
       </c>
-      <c r="P33" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="71">
+      <c r="P33" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="59">
         <f>INT(J8*(J25+((I11*J11) + (I12*J12))))</f>
         <v>1180</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57">
+    <row r="34" spans="1:17" ht="20" thickBot="1">
+      <c r="A34" s="47">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>518</v>
+        <v>409</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="E34" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="G34" s="34">
         <f ca="1">IF(F34 &lt; P29, (IF(F34&lt;0, P28, P28-F34)), 0 )</f>
-        <v>751</v>
-      </c>
-      <c r="L34" s="46" t="s">
-        <v>46</v>
+        <v>784</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="M34" s="21">
         <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K6))</f>
         <v>11</v>
       </c>
-      <c r="N34" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" s="71">
+      <c r="N34" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="59">
         <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K7))</f>
         <v>13</v>
       </c>
-      <c r="P34" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="71">
+      <c r="P34" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="59">
         <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K8))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="20" thickBot="1">
       <c r="A35" s="27">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="E35" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>866</v>
       </c>
       <c r="G35" s="34"/>
-      <c r="I35" s="43" t="s">
-        <v>36</v>
+      <c r="I35" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="J35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20" thickBot="1">
+      <c r="A36" s="47">
         <v>32</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>866</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="E36" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
+        <v>494</v>
       </c>
       <c r="G36" s="34">
         <f ca="1">IF(F36 &lt; P29, (IF(F36&lt;0, P28, P28-F36)), 0 )</f>
-        <v>593</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="73">
+        <v>639</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="61">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="N36" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="73">
+      <c r="N36" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="61">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P36" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" s="73">
+      <c r="P36" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="61">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="20" thickBot="1">
       <c r="A37" s="27">
         <v>33</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>494</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="E37" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <v>797</v>
       </c>
       <c r="G37" s="34"/>
-      <c r="I37" s="43" t="s">
-        <v>37</v>
+      <c r="I37" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="J37" s="21">
         <f>(J18*(J25/50)/J21)</f>
         <v>2.0435294117647062E-2</v>
       </c>
-      <c r="L37" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="73">
+      <c r="L37" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="61">
         <f>ABS(NORMSINV(M36))</f>
         <v>1.1503493803760083</v>
       </c>
-      <c r="N37" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="O37" s="73">
+      <c r="N37" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="61">
         <f>ABS(NORMSINV(O36))</f>
         <v>0.96742156610170071</v>
       </c>
-      <c r="P37" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="74">
+      <c r="P37" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="62">
         <f>ABS(NORMSINV(Q36))</f>
         <v>1.3351777361189361</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
+    <row r="38" spans="1:17" ht="20" thickBot="1">
+      <c r="A38" s="47">
         <v>34</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>797</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E38" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="G38" s="34">
         <f ca="1">IF(F38 &lt; P29, (IF(F38&lt;0, P28, P28-F38)), 0 )</f>
-        <v>634</v>
-      </c>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-    </row>
-    <row r="39" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+    </row>
+    <row r="39" spans="1:17" ht="20" thickBot="1">
       <c r="A39" s="27">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2573,36 +2768,36 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="E39" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>852</v>
+        <v>793</v>
       </c>
       <c r="G39" s="34"/>
-      <c r="I39" s="43" t="s">
-        <v>38</v>
+      <c r="I39" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="J39" s="21">
         <f ca="1">1/(COUNTIF(G5:G54,"&gt;0"))</f>
         <v>0.04</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="50"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="61"/>
-    </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="57">
+      <c r="M39" s="50"/>
+      <c r="N39" s="51"/>
+    </row>
+    <row r="40" spans="1:17" ht="19">
+      <c r="A40" s="47">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>793</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
@@ -2615,24 +2810,24 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="G40" s="34">
         <f ca="1">IF(F40 &lt; P29, (IF(F40&lt;0, P28, P28-F40)), 0 )</f>
-        <v>700</v>
-      </c>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-    </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+    </row>
+    <row r="41" spans="1:17" ht="19">
       <c r="A41" s="27">
         <v>37</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2644,59 +2839,58 @@
       </c>
       <c r="E41" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G41" s="34"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-    </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="57">
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+    </row>
+    <row r="42" spans="1:17" ht="19">
+      <c r="A42" s="47">
         <v>38</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E42" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="G42" s="34">
         <f ca="1">IF(F42 &lt; P29, (IF(F42&lt;0, P28, P28-F42)), 0 )</f>
-        <v>700</v>
-      </c>
-      <c r="I42" s="60"/>
+        <v>741</v>
+      </c>
+      <c r="I42" s="50"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-    </row>
-    <row r="43" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+    </row>
+    <row r="43" spans="1:17" ht="20" thickBot="1">
       <c r="A43" s="27">
         <v>39</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2708,54 +2902,55 @@
       </c>
       <c r="E43" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="G43" s="34"/>
-    </row>
-    <row r="44" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57">
+      <c r="L43" s="49"/>
+    </row>
+    <row r="44" spans="1:17" ht="20" thickBot="1">
+      <c r="A44" s="47">
         <v>40</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="E44" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="G44" s="34">
         <f ca="1">IF(F44 &lt; P29, (IF(F44&lt;0, P28, P28-F44)), 0 )</f>
-        <v>667</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="45">
+        <v>722</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="43">
         <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="19">
       <c r="A45" s="27">
         <v>41</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2763,25 +2958,25 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="E45" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="57">
+    <row r="46" spans="1:17" ht="19">
+      <c r="A46" s="47">
         <v>42</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -2790,83 +2985,90 @@
       </c>
       <c r="E46" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="G46" s="34">
         <f ca="1">IF(F46 &lt; P29, (IF(F46&lt;0, P28, P28-F46)), 0 )</f>
-        <v>667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20" thickBot="1">
       <c r="A47" s="27">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="E47" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>790</v>
       </c>
       <c r="G47" s="34"/>
     </row>
-    <row r="48" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
+    <row r="48" spans="1:17" ht="20" thickBot="1">
+      <c r="A48" s="47">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>790</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E48" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G48" s="34">
         <f ca="1">IF(F48 &lt; P29, (IF(F48&lt;0, P28, P28-F48)), 0 )</f>
-        <v>766</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>41</v>
+        <v>700</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="J48" s="21">
         <f ca="1">(J18*J33)+(J21*J35)+(J23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>31914.54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>32782.300000000003</v>
+      </c>
+      <c r="K48" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" s="21">
+        <f ca="1">1-(J35/(COUNTIF(G5:G54,"&gt;0")))</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="20" thickBot="1">
       <c r="A49" s="27">
         <v>45</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2878,47 +3080,60 @@
       </c>
       <c r="E49" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G49" s="34"/>
     </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="57">
+    <row r="50" spans="1:16" ht="19">
+      <c r="A50" s="47">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>766</v>
+        <v>700</v>
       </c>
       <c r="E50" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>529</v>
+        <v>394</v>
       </c>
       <c r="G50" s="34">
         <f ca="1">IF(F50 &lt; P29, (IF(F50&lt;0, P28, P28-F50)), 0 )</f>
-        <v>664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+      <c r="I50" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="68"/>
+      <c r="L50" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="64"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="64"/>
+    </row>
+    <row r="51" spans="1:16" ht="19">
       <c r="A51" s="27">
         <v>47</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>529</v>
+        <v>394</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2930,47 +3145,91 @@
       </c>
       <c r="E51" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="G51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="57">
+      <c r="I51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="22">
+        <f>INT(M56 + M57*M60)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="54">
+        <f>INT(O56 + O57*O60)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="54">
+        <f>INT(Q56 + Q57*Q60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="20" thickBot="1">
+      <c r="A52" s="47">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="E52" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="G52" s="34">
         <f ca="1">IF(F52 &lt; P29, (IF(F52&lt;0, P28, P28-F52)), 0 )</f>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="23">
+        <f>IF(INT(J51-207.456) &lt; 0, 0, INT(J51-207.456) )</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="56">
+        <f>IF(INT(M51-207.456) &lt; 0, 0, INT(M51-207.456) )</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="52"/>
+      <c r="O52" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="56">
+        <f>IF(INT(P51-207.456) &lt; 0, 0, INT(P51-207.456) )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="19">
       <c r="A53" s="27">
         <v>49</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2982,179 +3241,180 @@
       </c>
       <c r="E53" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G53" s="34"/>
     </row>
-    <row r="54" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
+    <row r="54" spans="1:16" ht="20" thickBot="1">
+      <c r="A54" s="48">
         <v>50</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="E54" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>505</v>
+        <v>382</v>
       </c>
       <c r="G54" s="35">
         <f ca="1">IF(F54 &lt; P29, (IF(F54&lt;0, P28, P28-F54)), 0 )</f>
-        <v>688</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41">
-        <v>25</v>
-      </c>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+    </row>
+    <row r="59" spans="1:16" ht="19">
+      <c r="A59" s="73"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="51"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="51"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="51"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="51"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="51"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="51"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="51"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="51"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="51"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="51"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="51"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="51"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="51"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="51"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="51"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="51"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="51"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="51"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="51"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="51"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="51"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="51"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="51"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I27:J27"/>
@@ -3168,4 +3428,1431 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
+  <dimension ref="A1:N59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="14" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="58" customHeight="1" thickBot="1">
+      <c r="I1" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1">
+      <c r="H2" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+    </row>
+    <row r="4" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A4" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="86">
+        <f>I29</f>
+        <v>33454.039199999999</v>
+      </c>
+      <c r="C4" s="86">
+        <f>I59</f>
+        <v>0.99040000000000006</v>
+      </c>
+      <c r="H4" s="79">
+        <v>1</v>
+      </c>
+      <c r="I4" s="38">
+        <v>33078.33</v>
+      </c>
+      <c r="J4" s="38">
+        <v>31930.43</v>
+      </c>
+      <c r="K4" s="38">
+        <v>31460.7</v>
+      </c>
+      <c r="L4" s="38">
+        <v>31515.03</v>
+      </c>
+      <c r="M4" s="38">
+        <v>32573.86</v>
+      </c>
+      <c r="N4" s="38">
+        <v>32139.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A5" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="86">
+        <f>J29</f>
+        <v>32289.110400000005</v>
+      </c>
+      <c r="C5" s="100">
+        <f>J59</f>
+        <v>0.96640000000000026</v>
+      </c>
+      <c r="H5" s="80">
+        <v>2</v>
+      </c>
+      <c r="I5" s="39">
+        <v>32609.34</v>
+      </c>
+      <c r="J5" s="39">
+        <v>32539.120000000003</v>
+      </c>
+      <c r="K5" s="39">
+        <v>31895.690000000002</v>
+      </c>
+      <c r="L5" s="39">
+        <v>33303.4</v>
+      </c>
+      <c r="M5" s="39">
+        <v>32922</v>
+      </c>
+      <c r="N5" s="39">
+        <v>33130.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A6" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="86">
+        <f>K29</f>
+        <v>31354.883200000004</v>
+      </c>
+      <c r="C6" s="101">
+        <f>K59</f>
+        <v>0.86880000000000024</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="99"/>
+      <c r="H6" s="80">
+        <v>3</v>
+      </c>
+      <c r="I6" s="39">
+        <v>34328.230000000003</v>
+      </c>
+      <c r="J6" s="39">
+        <v>33026.22</v>
+      </c>
+      <c r="K6" s="39">
+        <v>30000.880000000001</v>
+      </c>
+      <c r="L6" s="39">
+        <v>31688.730000000003</v>
+      </c>
+      <c r="M6" s="39">
+        <v>32400.16</v>
+      </c>
+      <c r="N6" s="39">
+        <v>32278.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A7" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="86">
+        <f>L29</f>
+        <v>32361.517599999992</v>
+      </c>
+      <c r="C7" s="86">
+        <f>L59</f>
+        <v>0.97440000000000027</v>
+      </c>
+      <c r="H7" s="80">
+        <v>4</v>
+      </c>
+      <c r="I7" s="39">
+        <v>32713.56</v>
+      </c>
+      <c r="J7" s="39">
+        <v>32730.190000000002</v>
+      </c>
+      <c r="K7" s="39">
+        <v>31250.78</v>
+      </c>
+      <c r="L7" s="39">
+        <v>31480.29</v>
+      </c>
+      <c r="M7" s="39">
+        <v>32052.760000000002</v>
+      </c>
+      <c r="N7" s="39">
+        <v>33060.959999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A8" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="102">
+        <f>M29</f>
+        <v>32339.889999999996</v>
+      </c>
+      <c r="C8" s="86">
+        <f>M59</f>
+        <v>0.96960000000000024</v>
+      </c>
+      <c r="H8" s="80">
+        <v>5</v>
+      </c>
+      <c r="I8" s="39">
+        <v>33182.550000000003</v>
+      </c>
+      <c r="J8" s="39">
+        <v>33199.919999999998</v>
+      </c>
+      <c r="K8" s="39">
+        <v>30693.46</v>
+      </c>
+      <c r="L8" s="39">
+        <v>32173.61</v>
+      </c>
+      <c r="M8" s="39">
+        <v>32330.68</v>
+      </c>
+      <c r="N8" s="39">
+        <v>31774.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="50" customHeight="1" thickBot="1">
+      <c r="A9" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="86">
+        <f>N29</f>
+        <v>32223.104400000015</v>
+      </c>
+      <c r="C9" s="86">
+        <f>N59</f>
+        <v>0.96640000000000015</v>
+      </c>
+      <c r="H9" s="80">
+        <v>6</v>
+      </c>
+      <c r="I9" s="39">
+        <v>32591.97</v>
+      </c>
+      <c r="J9" s="39">
+        <v>31564.92</v>
+      </c>
+      <c r="K9" s="39">
+        <v>31947.800000000003</v>
+      </c>
+      <c r="L9" s="39">
+        <v>33095.699999999997</v>
+      </c>
+      <c r="M9" s="39">
+        <v>31914.54</v>
+      </c>
+      <c r="N9" s="39">
+        <v>32122.239999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="H10" s="80">
+        <v>7</v>
+      </c>
+      <c r="I10" s="39">
+        <v>34085.79</v>
+      </c>
+      <c r="J10" s="39">
+        <v>31271.11</v>
+      </c>
+      <c r="K10" s="39">
+        <v>30955.489999999998</v>
+      </c>
+      <c r="L10" s="39">
+        <v>30577.05</v>
+      </c>
+      <c r="M10" s="39">
+        <v>33738.39</v>
+      </c>
+      <c r="N10" s="39">
+        <v>32469.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="H11" s="80">
+        <v>8</v>
+      </c>
+      <c r="I11" s="39">
+        <v>33685.54</v>
+      </c>
+      <c r="J11" s="39">
+        <v>31670.620000000003</v>
+      </c>
+      <c r="K11" s="39">
+        <v>31755.989999999998</v>
+      </c>
+      <c r="L11" s="39">
+        <v>31809.58</v>
+      </c>
+      <c r="M11" s="39">
+        <v>32175.09</v>
+      </c>
+      <c r="N11" s="39">
+        <v>32086.760000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="H12" s="80">
+        <v>9</v>
+      </c>
+      <c r="I12" s="39">
+        <v>35040.400000000001</v>
+      </c>
+      <c r="J12" s="39">
+        <v>32852.520000000004</v>
+      </c>
+      <c r="K12" s="39">
+        <v>30713.79</v>
+      </c>
+      <c r="L12" s="39">
+        <v>31914.54</v>
+      </c>
+      <c r="M12" s="39">
+        <v>33459.730000000003</v>
+      </c>
+      <c r="N12" s="39">
+        <v>31236.370000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="H13" s="80">
+        <v>10</v>
+      </c>
+      <c r="I13" s="39">
+        <v>33304.14</v>
+      </c>
+      <c r="J13" s="39">
+        <v>30888.97</v>
+      </c>
+      <c r="K13" s="39">
+        <v>31826.95</v>
+      </c>
+      <c r="L13" s="39">
+        <v>32765.67</v>
+      </c>
+      <c r="M13" s="39">
+        <v>31896.43</v>
+      </c>
+      <c r="N13" s="39">
+        <v>32452.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="H14" s="80">
+        <v>11</v>
+      </c>
+      <c r="I14" s="39">
+        <v>33113.07</v>
+      </c>
+      <c r="J14" s="39">
+        <v>32209.09</v>
+      </c>
+      <c r="K14" s="39">
+        <v>31060.45</v>
+      </c>
+      <c r="L14" s="39">
+        <v>31653.989999999998</v>
+      </c>
+      <c r="M14" s="39">
+        <v>31808.1</v>
+      </c>
+      <c r="N14" s="39">
+        <v>33338.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="H15" s="80">
+        <v>12</v>
+      </c>
+      <c r="I15" s="39">
+        <v>33164.44</v>
+      </c>
+      <c r="J15" s="39">
+        <v>31844.32</v>
+      </c>
+      <c r="K15" s="39">
+        <v>31528.7</v>
+      </c>
+      <c r="L15" s="39">
+        <v>32087.5</v>
+      </c>
+      <c r="M15" s="39">
+        <v>32104.870000000003</v>
+      </c>
+      <c r="N15" s="39">
+        <v>32035.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="H16" s="80">
+        <v>13</v>
+      </c>
+      <c r="I16" s="39">
+        <v>32922</v>
+      </c>
+      <c r="J16" s="39">
+        <v>31410.07</v>
+      </c>
+      <c r="K16" s="39">
+        <v>32138.870000000003</v>
+      </c>
+      <c r="L16" s="39">
+        <v>33026.22</v>
+      </c>
+      <c r="M16" s="39">
+        <v>32990.74</v>
+      </c>
+      <c r="N16" s="39">
+        <v>31897.17</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14">
+      <c r="H17" s="80">
+        <v>14</v>
+      </c>
+      <c r="I17" s="39">
+        <v>33773.130000000005</v>
+      </c>
+      <c r="J17" s="39">
+        <v>33286.03</v>
+      </c>
+      <c r="K17" s="39">
+        <v>31250.04</v>
+      </c>
+      <c r="L17" s="39">
+        <v>34032.94</v>
+      </c>
+      <c r="M17" s="39">
+        <v>32469.64</v>
+      </c>
+      <c r="N17" s="39">
+        <v>31271.11</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14">
+      <c r="H18" s="80">
+        <v>15</v>
+      </c>
+      <c r="I18" s="39">
+        <v>35544.870000000003</v>
+      </c>
+      <c r="J18" s="39">
+        <v>33234.660000000003</v>
+      </c>
+      <c r="K18" s="39">
+        <v>31999.91</v>
+      </c>
+      <c r="L18" s="39">
+        <v>32122.980000000003</v>
+      </c>
+      <c r="M18" s="39">
+        <v>31792.21</v>
+      </c>
+      <c r="N18" s="39">
+        <v>31496.18</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14">
+      <c r="H19" s="80">
+        <v>16</v>
+      </c>
+      <c r="I19" s="39">
+        <v>33477.839999999997</v>
+      </c>
+      <c r="J19" s="39">
+        <v>31497.66</v>
+      </c>
+      <c r="K19" s="39">
+        <v>30661.68</v>
+      </c>
+      <c r="L19" s="39">
+        <v>32764.93</v>
+      </c>
+      <c r="M19" s="39">
+        <v>32539.86</v>
+      </c>
+      <c r="N19" s="39">
+        <v>31376.07</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14">
+      <c r="H20" s="80">
+        <v>17</v>
+      </c>
+      <c r="I20" s="39">
+        <v>32644.080000000002</v>
+      </c>
+      <c r="J20" s="39">
+        <v>32502.9</v>
+      </c>
+      <c r="K20" s="39">
+        <v>31287.739999999998</v>
+      </c>
+      <c r="L20" s="39">
+        <v>33511.839999999997</v>
+      </c>
+      <c r="M20" s="39">
+        <v>32659.230000000003</v>
+      </c>
+      <c r="N20" s="39">
+        <v>32799.67</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14">
+      <c r="H21" s="80">
+        <v>18</v>
+      </c>
+      <c r="I21" s="39">
+        <v>33025.480000000003</v>
+      </c>
+      <c r="J21" s="39">
+        <v>32087.5</v>
+      </c>
+      <c r="K21" s="39">
+        <v>31010.560000000001</v>
+      </c>
+      <c r="L21" s="39">
+        <v>34190.01</v>
+      </c>
+      <c r="M21" s="39">
+        <v>32661.45</v>
+      </c>
+      <c r="N21" s="39">
+        <v>31947.800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14">
+      <c r="H22" s="80">
+        <v>19</v>
+      </c>
+      <c r="I22" s="39">
+        <v>33252.03</v>
+      </c>
+      <c r="J22" s="39">
+        <v>34068.42</v>
+      </c>
+      <c r="K22" s="39">
+        <v>31478.81</v>
+      </c>
+      <c r="L22" s="39">
+        <v>32190.239999999998</v>
+      </c>
+      <c r="M22" s="39">
+        <v>31514.29</v>
+      </c>
+      <c r="N22" s="39">
+        <v>33268.660000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14">
+      <c r="H23" s="80">
+        <v>20</v>
+      </c>
+      <c r="I23" s="39">
+        <v>32626.71</v>
+      </c>
+      <c r="J23" s="39">
+        <v>32609.34</v>
+      </c>
+      <c r="K23" s="39">
+        <v>32102.65</v>
+      </c>
+      <c r="L23" s="39">
+        <v>32313.31</v>
+      </c>
+      <c r="M23" s="39">
+        <v>32105.61</v>
+      </c>
+      <c r="N23" s="39">
+        <v>32435.64</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14">
+      <c r="H24" s="80">
+        <v>21</v>
+      </c>
+      <c r="I24" s="39">
+        <v>33495.21</v>
+      </c>
+      <c r="J24" s="39">
+        <v>31410.81</v>
+      </c>
+      <c r="K24" s="39">
+        <v>32800.410000000003</v>
+      </c>
+      <c r="L24" s="39">
+        <v>32505.120000000003</v>
+      </c>
+      <c r="M24" s="39">
+        <v>30941.82</v>
+      </c>
+      <c r="N24" s="39">
+        <v>32314.050000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14">
+      <c r="H25" s="80">
+        <v>22</v>
+      </c>
+      <c r="I25" s="39">
+        <v>33964.199999999997</v>
+      </c>
+      <c r="J25" s="39">
+        <v>31635.88</v>
+      </c>
+      <c r="K25" s="39">
+        <v>32417.53</v>
+      </c>
+      <c r="L25" s="39">
+        <v>32331.42</v>
+      </c>
+      <c r="M25" s="39">
+        <v>32418.27</v>
+      </c>
+      <c r="N25" s="39">
+        <v>32748.300000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14">
+      <c r="H26" s="80">
+        <v>23</v>
+      </c>
+      <c r="I26" s="39">
+        <v>32765.67</v>
+      </c>
+      <c r="J26" s="39">
+        <v>32383.53</v>
+      </c>
+      <c r="K26" s="39">
+        <v>30555.24</v>
+      </c>
+      <c r="L26" s="39">
+        <v>31009.82</v>
+      </c>
+      <c r="M26" s="39">
+        <v>32712.82</v>
+      </c>
+      <c r="N26" s="39">
+        <v>31981.800000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14">
+      <c r="H27" s="80">
+        <v>24</v>
+      </c>
+      <c r="I27" s="39">
+        <v>34085.79</v>
+      </c>
+      <c r="J27" s="39">
+        <v>32782.300000000003</v>
+      </c>
+      <c r="K27" s="39">
+        <v>30436.61</v>
+      </c>
+      <c r="L27" s="39">
+        <v>32278.57</v>
+      </c>
+      <c r="M27" s="39">
+        <v>32157.72</v>
+      </c>
+      <c r="N27" s="39">
+        <v>31966.65</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" ht="16" thickBot="1">
+      <c r="H28" s="81">
+        <v>25</v>
+      </c>
+      <c r="I28" s="40">
+        <v>33876.61</v>
+      </c>
+      <c r="J28" s="40">
+        <v>32591.230000000003</v>
+      </c>
+      <c r="K28" s="40">
+        <v>30641.35</v>
+      </c>
+      <c r="L28" s="40">
+        <v>32695.45</v>
+      </c>
+      <c r="M28" s="40">
+        <v>32156.980000000003</v>
+      </c>
+      <c r="N28" s="40">
+        <v>31949.279999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" ht="16" thickBot="1">
+      <c r="G29" s="49"/>
+      <c r="H29" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="94">
+        <f>AVERAGE(I4:I28)</f>
+        <v>33454.039199999999</v>
+      </c>
+      <c r="J29" s="94">
+        <f>AVERAGE(J4:J28)</f>
+        <v>32289.110400000005</v>
+      </c>
+      <c r="K29" s="94">
+        <f>AVERAGE(K4:K28)</f>
+        <v>31354.883200000004</v>
+      </c>
+      <c r="L29" s="94">
+        <f>AVERAGE(L4:L28)</f>
+        <v>32361.517599999992</v>
+      </c>
+      <c r="M29" s="94">
+        <f>AVERAGE(M4:M28)</f>
+        <v>32339.889999999996</v>
+      </c>
+      <c r="N29" s="94">
+        <f>AVERAGE(N4:N28)</f>
+        <v>32223.104400000015</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14">
+      <c r="G30" s="49"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="7:14" ht="16" thickBot="1">
+      <c r="G31" s="49"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="7:14" ht="15" customHeight="1">
+      <c r="H32" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" ht="49" thickBot="1">
+      <c r="G33" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+    </row>
+    <row r="34" spans="7:14">
+      <c r="H34" s="79">
+        <v>1</v>
+      </c>
+      <c r="I34" s="38">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38">
+        <v>0.92</v>
+      </c>
+      <c r="K34" s="38">
+        <v>0.88</v>
+      </c>
+      <c r="L34" s="38">
+        <v>1</v>
+      </c>
+      <c r="M34" s="38">
+        <v>0.96</v>
+      </c>
+      <c r="N34" s="76">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14">
+      <c r="H35" s="80">
+        <v>2</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1</v>
+      </c>
+      <c r="J35" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K35" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L35" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M35" s="39">
+        <v>1</v>
+      </c>
+      <c r="N35" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14">
+      <c r="H36" s="80">
+        <v>3</v>
+      </c>
+      <c r="I36" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="J36" s="39">
+        <v>1</v>
+      </c>
+      <c r="K36" s="39">
+        <v>0.84</v>
+      </c>
+      <c r="L36" s="39">
+        <v>1</v>
+      </c>
+      <c r="M36" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N36" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="37" spans="7:14">
+      <c r="H37" s="80">
+        <v>4</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K37" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="L37" s="39">
+        <v>1</v>
+      </c>
+      <c r="M37" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N37" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14">
+      <c r="H38" s="80">
+        <v>5</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1</v>
+      </c>
+      <c r="J38" s="39">
+        <v>1</v>
+      </c>
+      <c r="K38" s="39">
+        <v>0.72</v>
+      </c>
+      <c r="L38" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="M38" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N38" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14">
+      <c r="H39" s="80">
+        <v>6</v>
+      </c>
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="K39" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L39" s="39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14">
+      <c r="H40" s="80">
+        <v>7</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1</v>
+      </c>
+      <c r="J40" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K40" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="39">
+        <v>1</v>
+      </c>
+      <c r="M40" s="39">
+        <v>1</v>
+      </c>
+      <c r="N40" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14">
+      <c r="H41" s="80">
+        <v>8</v>
+      </c>
+      <c r="I41" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="J41" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K41" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="L41" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M41" s="39">
+        <v>1</v>
+      </c>
+      <c r="N41" s="77">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14">
+      <c r="H42" s="80">
+        <v>9</v>
+      </c>
+      <c r="I42" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="J42" s="39">
+        <v>1</v>
+      </c>
+      <c r="K42" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="L42" s="39">
+        <v>1</v>
+      </c>
+      <c r="M42" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N42" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14">
+      <c r="H43" s="80">
+        <v>10</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K43" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="L43" s="39">
+        <v>1</v>
+      </c>
+      <c r="M43" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N43" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="44" spans="7:14">
+      <c r="H44" s="80">
+        <v>11</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K44" s="39">
+        <v>0.84</v>
+      </c>
+      <c r="L44" s="39">
+        <v>1</v>
+      </c>
+      <c r="M44" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="N44" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="45" spans="7:14">
+      <c r="H45" s="80">
+        <v>12</v>
+      </c>
+      <c r="I45" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="J45" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K45" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N45" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14">
+      <c r="H46" s="80">
+        <v>13</v>
+      </c>
+      <c r="I46" s="39">
+        <v>1</v>
+      </c>
+      <c r="J46" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K46" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L46" s="39">
+        <v>1</v>
+      </c>
+      <c r="M46" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N46" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:14">
+      <c r="H47" s="80">
+        <v>14</v>
+      </c>
+      <c r="I47" s="39">
+        <v>1</v>
+      </c>
+      <c r="J47" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K47" s="39">
+        <v>0.76</v>
+      </c>
+      <c r="L47" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M47" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N47" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="48" spans="7:14">
+      <c r="H48" s="80">
+        <v>15</v>
+      </c>
+      <c r="I48" s="39">
+        <v>1</v>
+      </c>
+      <c r="J48" s="39">
+        <v>1</v>
+      </c>
+      <c r="K48" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L48" s="39">
+        <v>1</v>
+      </c>
+      <c r="M48" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N48" s="77">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14">
+      <c r="H49" s="80">
+        <v>16</v>
+      </c>
+      <c r="I49" s="39">
+        <v>1</v>
+      </c>
+      <c r="J49" s="39">
+        <v>1</v>
+      </c>
+      <c r="K49" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="L49" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M49" s="39">
+        <v>1</v>
+      </c>
+      <c r="N49" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14">
+      <c r="H50" s="80">
+        <v>17</v>
+      </c>
+      <c r="I50" s="39">
+        <v>1</v>
+      </c>
+      <c r="J50" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="K50" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L50" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M50" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="N50" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14">
+      <c r="H51" s="80">
+        <v>18</v>
+      </c>
+      <c r="I51" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="J51" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K51" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="L51" s="39">
+        <v>1</v>
+      </c>
+      <c r="M51" s="39">
+        <v>1</v>
+      </c>
+      <c r="N51" s="77">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14">
+      <c r="H52" s="80">
+        <v>19</v>
+      </c>
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="39">
+        <v>1</v>
+      </c>
+      <c r="K52" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L52" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="M52" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N52" s="77">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14">
+      <c r="H53" s="80">
+        <v>20</v>
+      </c>
+      <c r="I53" s="39">
+        <v>1</v>
+      </c>
+      <c r="J53" s="39">
+        <v>1</v>
+      </c>
+      <c r="K53" s="39">
+        <v>0.84</v>
+      </c>
+      <c r="L53" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M53" s="39">
+        <v>1</v>
+      </c>
+      <c r="N53" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14">
+      <c r="H54" s="80">
+        <v>21</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="39">
+        <v>1</v>
+      </c>
+      <c r="K54" s="39">
+        <v>1</v>
+      </c>
+      <c r="L54" s="39">
+        <v>1</v>
+      </c>
+      <c r="M54" s="39">
+        <v>1</v>
+      </c>
+      <c r="N54" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14">
+      <c r="H55" s="80">
+        <v>22</v>
+      </c>
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K55" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="L55" s="39">
+        <v>1</v>
+      </c>
+      <c r="M55" s="39">
+        <v>1</v>
+      </c>
+      <c r="N55" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14">
+      <c r="H56" s="80">
+        <v>23</v>
+      </c>
+      <c r="I56" s="39">
+        <v>1</v>
+      </c>
+      <c r="J56" s="39">
+        <v>1</v>
+      </c>
+      <c r="K56" s="39">
+        <v>0.76</v>
+      </c>
+      <c r="L56" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="M56" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="N56" s="77">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="57" spans="8:14">
+      <c r="H57" s="80">
+        <v>24</v>
+      </c>
+      <c r="I57" s="39">
+        <v>1</v>
+      </c>
+      <c r="J57" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="K57" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="L57" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="M57" s="39">
+        <v>1</v>
+      </c>
+      <c r="N57" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="8:14" ht="16" thickBot="1">
+      <c r="H58" s="81">
+        <v>25</v>
+      </c>
+      <c r="I58" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="J58" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="K58" s="40">
+        <v>0.72</v>
+      </c>
+      <c r="L58" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="M58" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="N58" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="8:14" ht="16" thickBot="1">
+      <c r="H59" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="96">
+        <f>AVERAGE(I34:I58)</f>
+        <v>0.99040000000000006</v>
+      </c>
+      <c r="J59" s="96">
+        <f>AVERAGE(J34:J58)</f>
+        <v>0.96640000000000026</v>
+      </c>
+      <c r="K59" s="96">
+        <f>AVERAGE(K34:K58)</f>
+        <v>0.86880000000000024</v>
+      </c>
+      <c r="L59" s="96">
+        <f>AVERAGE(L34:L58)</f>
+        <v>0.97440000000000027</v>
+      </c>
+      <c r="M59" s="96">
+        <f>AVERAGE(M34:M58)</f>
+        <v>0.96960000000000024</v>
+      </c>
+      <c r="N59" s="103">
+        <f>AVERAGE(N34:N58)</f>
+        <v>0.96640000000000015</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C3C7A2-3501-9C40-8DB2-05A4DEA39321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5063D-C880-254C-99A9-8C0EAD52DBF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>(1416,1148) ; (1869,1578) ; (1133,879)</t>
+  </si>
+  <si>
+    <t>(1416,1087) ; (1869,1495) ; (1133,832)</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico -10%</t>
   </si>
 </sst>
 </file>
@@ -1058,44 +1064,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1127,52 +1097,90 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1552,7 +1560,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28">
         <f ca="1">INT(RANDBETWEEN(J29,J28))</f>
-        <v>1197</v>
+        <v>1038</v>
       </c>
       <c r="G4" s="33"/>
     </row>
@@ -1562,17 +1570,17 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1197</v>
+        <v>1038</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>776</v>
+        <v>598</v>
       </c>
       <c r="G5" s="34"/>
       <c r="I5" s="6" t="s">
@@ -1598,21 +1606,21 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>776</v>
+        <v>598</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>351</v>
+        <v>156</v>
       </c>
       <c r="G6" s="34">
         <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
-        <v>1065</v>
+        <v>1260</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>7</v>
@@ -1637,7 +1645,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1649,11 +1657,11 @@
       </c>
       <c r="E7" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-97</v>
+        <v>-276</v>
       </c>
       <c r="G7" s="34"/>
       <c r="I7" s="9" t="s">
@@ -1677,7 +1685,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1065</v>
+        <v>1260</v>
       </c>
       <c r="E8" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
@@ -1685,11 +1693,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>662</v>
+        <v>857</v>
       </c>
       <c r="G8" s="34">
         <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
-        <v>754</v>
+        <v>559</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1707,23 +1715,23 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>662</v>
+        <v>857</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="E9" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>956</v>
       </c>
       <c r="G9" s="34"/>
     </row>
@@ -1733,24 +1741,24 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>956</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="E10" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G10" s="34">
         <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>11</v>
@@ -1765,7 +1773,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1773,15 +1781,15 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E11" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1035</v>
+        <v>969</v>
       </c>
       <c r="G11" s="34"/>
       <c r="I11" s="9">
@@ -1797,7 +1805,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1035</v>
+        <v>969</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1806,15 +1814,15 @@
       </c>
       <c r="E12" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>485</v>
+        <v>372</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="G12" s="34">
         <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>866</v>
+        <v>819</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -1829,7 +1837,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1837,15 +1845,15 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>866</v>
+        <v>819</v>
       </c>
       <c r="E13" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="G13" s="34"/>
     </row>
@@ -1855,7 +1863,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1864,15 +1872,15 @@
       </c>
       <c r="E14" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="G14" s="34">
         <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>850</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20" thickBot="1">
@@ -1881,7 +1889,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1893,11 +1901,11 @@
       </c>
       <c r="E15" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="G15" s="34"/>
       <c r="M15" s="15"/>
@@ -1908,24 +1916,24 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="E16" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="G16" s="34">
         <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>931</v>
+        <v>804</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>15</v>
@@ -1933,10 +1941,10 @@
       <c r="J16" s="21">
         <v>96.5</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="94"/>
     </row>
     <row r="17" spans="1:17" ht="20" thickBot="1">
       <c r="A17" s="27">
@@ -1944,7 +1952,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -1952,15 +1960,15 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>931</v>
+        <v>804</v>
       </c>
       <c r="E17" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="G17" s="34"/>
       <c r="I17" s="17" t="s">
@@ -1969,10 +1977,10 @@
       <c r="J17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="92"/>
     </row>
     <row r="18" spans="1:17" ht="20" thickBot="1">
       <c r="A18" s="47">
@@ -1980,7 +1988,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1989,15 +1997,15 @@
       </c>
       <c r="E18" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>646</v>
+        <v>544</v>
       </c>
       <c r="G18" s="34">
         <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>19</v>
@@ -2006,10 +2014,10 @@
         <f>J16*J17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="92"/>
     </row>
     <row r="19" spans="1:17" ht="20" thickBot="1">
       <c r="A19" s="27">
@@ -2017,23 +2025,23 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>646</v>
+        <v>544</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="E19" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>1033</v>
       </c>
       <c r="G19" s="34"/>
     </row>
@@ -2043,24 +2051,24 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="E20" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G20" s="34">
         <f ca="1">IF(F20 &lt; M29, (IF(F20&lt;0, M28, M28-F20)), 0 )</f>
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -2080,7 +2088,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2088,15 +2096,15 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="E21" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1374</v>
+        <v>1292</v>
       </c>
       <c r="G21" s="34"/>
       <c r="I21" s="20" t="s">
@@ -2106,10 +2114,10 @@
         <f>20+2*J20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="66"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="22" spans="1:17" ht="20" thickBot="1">
       <c r="A22" s="47">
@@ -2117,7 +2125,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1374</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -2126,20 +2134,20 @@
       </c>
       <c r="E22" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>740</v>
+        <v>635</v>
       </c>
       <c r="G22" s="34">
         <f ca="1">IF(F22 &lt; M29, (IF(F22&lt;0, M28, M28-F22)), 0 )</f>
-        <v>1129</v>
+        <v>1234</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
     </row>
     <row r="23" spans="1:17" ht="20" thickBot="1">
       <c r="A23" s="27">
@@ -2147,23 +2155,23 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>740</v>
+        <v>635</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="E23" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>695</v>
+        <v>594</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>1275</v>
       </c>
       <c r="G23" s="34"/>
       <c r="I23" s="17" t="s">
@@ -2172,10 +2180,10 @@
       <c r="J23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="66"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="20" thickBot="1">
@@ -2184,24 +2192,24 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>1275</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1129</v>
+        <v>0</v>
       </c>
       <c r="E24" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="G24" s="34">
         <f ca="1">IF(F24 &lt; M29, (IF(F24&lt;0, M28, M28-F24)), 0 )</f>
-        <v>1263</v>
+        <v>1149</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -2214,7 +2222,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2222,15 +2230,15 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1263</v>
+        <v>1149</v>
       </c>
       <c r="E25" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1255</v>
+        <v>1227</v>
       </c>
       <c r="G25" s="34"/>
       <c r="I25" s="20" t="s">
@@ -2239,10 +2247,10 @@
       <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="66"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="26" spans="1:17" ht="20" thickBot="1">
       <c r="A26" s="47">
@@ -2250,7 +2258,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1255</v>
+        <v>1227</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -2259,15 +2267,15 @@
       </c>
       <c r="E26" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="G26" s="34">
         <f ca="1">IF(F26 &lt; M29, (IF(F26&lt;0, M28, M28-F26)), 0 )</f>
-        <v>1193</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="19">
@@ -2276,38 +2284,38 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1193</v>
+        <v>0</v>
       </c>
       <c r="E27" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1302</v>
+        <v>129</v>
       </c>
       <c r="G27" s="34"/>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="L27" s="63" t="s">
+      <c r="J27" s="87"/>
+      <c r="L27" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="64"/>
+      <c r="M27" s="89"/>
       <c r="N27" s="52"/>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="P27" s="64"/>
+      <c r="P27" s="89"/>
       <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="1:17" ht="19">
@@ -2316,24 +2324,24 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1302</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="E28" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>553</v>
+        <v>651</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="G28" s="34">
         <f ca="1">IF(F28 &lt; M29, (IF(F28&lt;0, M28, M28-F28)), 0 )</f>
-        <v>1120</v>
+        <v>1167</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>27</v>
@@ -2362,7 +2370,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2370,38 +2378,38 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1120</v>
+        <v>1167</v>
       </c>
       <c r="E29" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>707</v>
+        <v>571</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1162</v>
+        <v>1298</v>
       </c>
       <c r="G29" s="34"/>
       <c r="I29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="23">
-        <f>IF(INT(J28-207.456) &lt; 0, 0, INT((J28-207.456)*0.95) )</f>
-        <v>1148</v>
+        <f>IF(INT(J28-207.456) &lt; 0, 0, INT((J28-207.456)*0.85) )</f>
+        <v>1027</v>
       </c>
       <c r="L29" s="55" t="s">
         <v>28</v>
       </c>
       <c r="M29" s="56">
-        <f>IF(INT(M28-207.456) &lt; 0, 0, INT((M28-207.456)*0.95) )</f>
-        <v>1578</v>
+        <f>IF(INT(M28-207.456) &lt; 0, 0, INT((M28-207.456)*0.85) )</f>
+        <v>1412</v>
       </c>
       <c r="N29" s="52"/>
       <c r="O29" s="55" t="s">
         <v>28</v>
       </c>
       <c r="P29" s="56">
-        <f>IF(INT(P28-207.456) &lt; 0, 0, INT((P28-207.456)*0.95) )</f>
-        <v>879</v>
+        <f>IF(INT(P28-207.456) &lt; 0, 0, INT((P28-207.456)*0.85) )</f>
+        <v>786</v>
       </c>
       <c r="Q29" s="52"/>
     </row>
@@ -2411,7 +2419,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1162</v>
+        <v>1298</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -2420,15 +2428,15 @@
       </c>
       <c r="E30" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>533</v>
+        <v>697</v>
       </c>
       <c r="G30" s="34">
         <f ca="1">IF(F30 &lt; M29, (IF(F30&lt;0, M28, M28-F30)), 0 )</f>
-        <v>1336</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="20" thickBot="1">
@@ -2437,23 +2445,23 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>697</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="E31" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1267</v>
+        <v>111</v>
       </c>
       <c r="G31" s="34"/>
       <c r="I31" s="36" t="s">
@@ -2469,24 +2477,24 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1267</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="E32" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="G32" s="34">
         <f ca="1">IF(F32 &lt; P29, (IF(F32&lt;0, P28, P28-F32)), 0 )</f>
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="20" thickBot="1">
@@ -2495,7 +2503,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2507,11 +2515,11 @@
       </c>
       <c r="E33" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="G33" s="34"/>
       <c r="I33" s="41" t="s">
@@ -2519,7 +2527,7 @@
       </c>
       <c r="J33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L33" s="41" t="s">
         <v>44</v>
@@ -2549,24 +2557,24 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="E34" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="G34" s="34">
         <f ca="1">IF(F34 &lt; P29, (IF(F34&lt;0, P28, P28-F34)), 0 )</f>
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="L34" s="44" t="s">
         <v>45</v>
@@ -2596,7 +2604,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2604,15 +2612,15 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="E35" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="G35" s="34"/>
       <c r="I35" s="41" t="s">
@@ -2620,7 +2628,7 @@
       </c>
       <c r="J35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="20" thickBot="1">
@@ -2629,7 +2637,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
@@ -2638,15 +2646,15 @@
       </c>
       <c r="E36" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>494</v>
+        <v>328</v>
       </c>
       <c r="G36" s="34">
         <f ca="1">IF(F36 &lt; P29, (IF(F36&lt;0, P28, P28-F36)), 0 )</f>
-        <v>639</v>
+        <v>805</v>
       </c>
       <c r="L36" s="41" t="s">
         <v>50</v>
@@ -2676,23 +2684,23 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>494</v>
+        <v>328</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="E37" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>797</v>
+        <v>-62</v>
       </c>
       <c r="G37" s="34"/>
       <c r="I37" s="41" t="s">
@@ -2730,24 +2738,24 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="E38" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="G38" s="34">
         <f ca="1">IF(F38 &lt; P29, (IF(F38&lt;0, P28, P28-F38)), 0 )</f>
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
@@ -2760,7 +2768,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2768,15 +2776,15 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="E39" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="G39" s="34"/>
       <c r="I39" s="41" t="s">
@@ -2797,7 +2805,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
@@ -2806,15 +2814,15 @@
       </c>
       <c r="E40" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G40" s="34">
         <f ca="1">IF(F40 &lt; P29, (IF(F40&lt;0, P28, P28-F40)), 0 )</f>
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
@@ -2827,7 +2835,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2839,11 +2847,11 @@
       </c>
       <c r="E41" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G41" s="34"/>
       <c r="I41" s="50"/>
@@ -2859,24 +2867,24 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="E42" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="G42" s="34">
         <f ca="1">IF(F42 &lt; P29, (IF(F42&lt;0, P28, P28-F42)), 0 )</f>
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="I42" s="50"/>
       <c r="J42" s="14"/>
@@ -2890,7 +2898,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2902,11 +2910,11 @@
       </c>
       <c r="E43" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="G43" s="34"/>
       <c r="L43" s="49"/>
@@ -2917,31 +2925,31 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="E44" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="G44" s="34">
         <f ca="1">IF(F44 &lt; P29, (IF(F44&lt;0, P28, P28-F44)), 0 )</f>
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="I44" s="46" t="s">
         <v>39</v>
       </c>
       <c r="J44" s="43">
         <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>3.88</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="19">
@@ -2950,7 +2958,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -2958,15 +2966,15 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="E45" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G45" s="34"/>
     </row>
@@ -2976,7 +2984,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -2985,15 +2993,15 @@
       </c>
       <c r="E46" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G46" s="34">
         <f ca="1">IF(F46 &lt; P29, (IF(F46&lt;0, P28, P28-F46)), 0 )</f>
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="20" thickBot="1">
@@ -3002,23 +3010,23 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="E47" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>790</v>
+        <v>104</v>
       </c>
       <c r="G47" s="34"/>
     </row>
@@ -3028,38 +3036,38 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="E48" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G48" s="34">
         <f ca="1">IF(F48 &lt; P29, (IF(F48&lt;0, P28, P28-F48)), 0 )</f>
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I48" s="41" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="21">
         <f ca="1">(J18*J33)+(J21*J35)+(J23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>32782.300000000003</v>
-      </c>
-      <c r="K48" s="85" t="s">
+        <v>32903.15</v>
+      </c>
+      <c r="K48" s="73" t="s">
         <v>65</v>
       </c>
       <c r="L48" s="21">
         <f ca="1">1-(J35/(COUNTIF(G5:G54,"&gt;0")))</f>
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="20" thickBot="1">
@@ -3068,23 +3076,23 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E49" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>838</v>
       </c>
       <c r="G49" s="34"/>
     </row>
@@ -3094,38 +3102,38 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>838</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E50" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>394</v>
+        <v>534</v>
       </c>
       <c r="G50" s="34">
         <f ca="1">IF(F50 &lt; P29, (IF(F50&lt;0, P28, P28-F50)), 0 )</f>
-        <v>739</v>
-      </c>
-      <c r="I50" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="I50" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="L50" s="63" t="s">
+      <c r="J50" s="87"/>
+      <c r="L50" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="M50" s="64"/>
+      <c r="M50" s="89"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="63" t="s">
+      <c r="O50" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="64"/>
+      <c r="P50" s="89"/>
     </row>
     <row r="51" spans="1:16" ht="19">
       <c r="A51" s="27">
@@ -3133,23 +3141,23 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>394</v>
+        <v>534</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E51" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>749</v>
       </c>
       <c r="G51" s="34"/>
       <c r="I51" s="9" t="s">
@@ -3181,24 +3189,24 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>749</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="E52" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="G52" s="34">
         <f ca="1">IF(F52 &lt; P29, (IF(F52&lt;0, P28, P28-F52)), 0 )</f>
-        <v>673</v>
+        <v>761</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>28</v>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
@@ -3241,11 +3249,11 @@
       </c>
       <c r="E53" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="G53" s="34"/>
     </row>
@@ -3255,24 +3263,24 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>673</v>
+        <v>761</v>
       </c>
       <c r="E54" s="32">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="G54" s="35">
         <f ca="1">IF(F54 &lt; P29, (IF(F54&lt;0, P28, P28-F54)), 0 )</f>
-        <v>751</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3281,7 +3289,7 @@
       <c r="C58" s="49"/>
     </row>
     <row r="59" spans="1:16" ht="19">
-      <c r="A59" s="73"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
     </row>
@@ -3412,19 +3420,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3432,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3444,86 +3452,93 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="14" width="15.83203125" customWidth="1"/>
+    <col min="9" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="58" customHeight="1" thickBot="1">
-      <c r="I1" s="83" t="s">
+    <row r="1" spans="1:15" ht="58" customHeight="1" thickBot="1">
+      <c r="I1" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="71" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1">
-      <c r="H2" s="74" t="s">
+      <c r="O1" s="82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" thickBot="1">
+      <c r="H2" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="96" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="O2" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-    </row>
-    <row r="4" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A4" s="87" t="s">
+      <c r="H3" s="101"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+    </row>
+    <row r="4" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A4" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="74">
         <f>I29</f>
         <v>33454.039199999999</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="74">
         <f>I59</f>
         <v>0.99040000000000006</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="67">
         <v>1</v>
       </c>
       <c r="I4" s="38">
@@ -3544,20 +3559,23 @@
       <c r="N4" s="38">
         <v>32139.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A5" s="87" t="s">
+      <c r="O4" s="64">
+        <v>33877.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="74">
         <f>J29</f>
         <v>32289.110400000005</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="83">
         <f>J59</f>
         <v>0.96640000000000026</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="68">
         <v>2</v>
       </c>
       <c r="I5" s="39">
@@ -3578,24 +3596,27 @@
       <c r="N5" s="39">
         <v>33130.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A6" s="98" t="s">
+      <c r="O5" s="65">
+        <v>32244.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A6" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="74">
         <f>K29</f>
         <v>31354.883200000004</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="84">
         <f>K59</f>
         <v>0.86880000000000024</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="99"/>
-      <c r="H6" s="80">
+      <c r="H6" s="68">
         <v>3</v>
       </c>
       <c r="I6" s="39">
@@ -3616,20 +3637,23 @@
       <c r="N6" s="39">
         <v>32278.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A7" s="98" t="s">
+      <c r="O6" s="65">
+        <v>31570.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A7" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="74">
         <f>L29</f>
         <v>32361.517599999992</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="74">
         <f>L59</f>
         <v>0.97440000000000027</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="68">
         <v>4</v>
       </c>
       <c r="I7" s="39">
@@ -3650,20 +3674,23 @@
       <c r="N7" s="39">
         <v>33060.959999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A8" s="98" t="s">
+      <c r="O7" s="65">
+        <v>32156.239999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A8" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="85">
         <f>M29</f>
         <v>32339.889999999996</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="74">
         <f>M59</f>
         <v>0.96960000000000024</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="68">
         <v>5</v>
       </c>
       <c r="I8" s="39">
@@ -3684,20 +3711,23 @@
       <c r="N8" s="39">
         <v>31774.84</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="50" customHeight="1" thickBot="1">
-      <c r="A9" s="98" t="s">
+      <c r="O8" s="65">
+        <v>31635.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A9" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="74">
         <f>N29</f>
         <v>32223.104400000015</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="74">
         <f>N59</f>
         <v>0.96640000000000015</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="68">
         <v>6</v>
       </c>
       <c r="I9" s="39">
@@ -3718,9 +3748,23 @@
       <c r="N9" s="39">
         <v>32122.239999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="H10" s="80">
+      <c r="O9" s="65">
+        <v>32139.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="50" customHeight="1" thickBot="1">
+      <c r="A10" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="74">
+        <f>O29</f>
+        <v>32233.172400000003</v>
+      </c>
+      <c r="C10" s="74">
+        <f>O59</f>
+        <v>0.95640400000000014</v>
+      </c>
+      <c r="H10" s="68">
         <v>7</v>
       </c>
       <c r="I10" s="39">
@@ -3741,9 +3785,12 @@
       <c r="N10" s="39">
         <v>32469.64</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="H11" s="80">
+      <c r="O10" s="65">
+        <v>31707.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="H11" s="68">
         <v>8</v>
       </c>
       <c r="I11" s="39">
@@ -3764,9 +3811,12 @@
       <c r="N11" s="39">
         <v>32086.760000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="H12" s="80">
+      <c r="O11" s="65">
+        <v>32295.200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="H12" s="68">
         <v>9</v>
       </c>
       <c r="I12" s="39">
@@ -3787,9 +3837,12 @@
       <c r="N12" s="39">
         <v>31236.370000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="H13" s="80">
+      <c r="O12" s="65">
+        <v>32190.980000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="68">
         <v>10</v>
       </c>
       <c r="I13" s="39">
@@ -3810,9 +3863,12 @@
       <c r="N13" s="39">
         <v>32452.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="H14" s="80">
+      <c r="O13" s="65">
+        <v>33042.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="H14" s="68">
         <v>11</v>
       </c>
       <c r="I14" s="39">
@@ -3833,9 +3889,12 @@
       <c r="N14" s="39">
         <v>33338.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="H15" s="80">
+      <c r="O14" s="65">
+        <v>32418.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="H15" s="68">
         <v>12</v>
       </c>
       <c r="I15" s="39">
@@ -3856,9 +3915,12 @@
       <c r="N15" s="39">
         <v>32035.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="H16" s="80">
+      <c r="O15" s="65">
+        <v>31447.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="H16" s="68">
         <v>13</v>
       </c>
       <c r="I16" s="39">
@@ -3879,9 +3941,12 @@
       <c r="N16" s="39">
         <v>31897.17</v>
       </c>
-    </row>
-    <row r="17" spans="7:14">
-      <c r="H17" s="80">
+      <c r="O16" s="65">
+        <v>32591.97</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15">
+      <c r="H17" s="68">
         <v>14</v>
       </c>
       <c r="I17" s="39">
@@ -3902,9 +3967,12 @@
       <c r="N17" s="39">
         <v>31271.11</v>
       </c>
-    </row>
-    <row r="18" spans="7:14">
-      <c r="H18" s="80">
+      <c r="O17" s="65">
+        <v>32991.480000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15">
+      <c r="H18" s="68">
         <v>15</v>
       </c>
       <c r="I18" s="39">
@@ -3925,9 +3993,12 @@
       <c r="N18" s="39">
         <v>31496.18</v>
       </c>
-    </row>
-    <row r="19" spans="7:14">
-      <c r="H19" s="80">
+      <c r="O18" s="65">
+        <v>32694.71</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15">
+      <c r="H19" s="68">
         <v>16</v>
       </c>
       <c r="I19" s="39">
@@ -3948,9 +4019,12 @@
       <c r="N19" s="39">
         <v>31376.07</v>
       </c>
-    </row>
-    <row r="20" spans="7:14">
-      <c r="H20" s="80">
+      <c r="O19" s="65">
+        <v>32574.6</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15">
+      <c r="H20" s="68">
         <v>17</v>
       </c>
       <c r="I20" s="39">
@@ -3971,9 +4045,12 @@
       <c r="N20" s="39">
         <v>32799.67</v>
       </c>
-    </row>
-    <row r="21" spans="7:14">
-      <c r="H21" s="80">
+      <c r="O20" s="65">
+        <v>32400.16</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15">
+      <c r="H21" s="68">
         <v>18</v>
       </c>
       <c r="I21" s="39">
@@ -3994,9 +4071,12 @@
       <c r="N21" s="39">
         <v>31947.800000000003</v>
       </c>
-    </row>
-    <row r="22" spans="7:14">
-      <c r="H22" s="80">
+      <c r="O21" s="65">
+        <v>32313.31</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15">
+      <c r="H22" s="68">
         <v>19</v>
       </c>
       <c r="I22" s="39">
@@ -4017,9 +4097,12 @@
       <c r="N22" s="39">
         <v>33268.660000000003</v>
       </c>
-    </row>
-    <row r="23" spans="7:14">
-      <c r="H23" s="80">
+      <c r="O22" s="65">
+        <v>31271.85</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15">
+      <c r="H23" s="68">
         <v>20</v>
       </c>
       <c r="I23" s="39">
@@ -4040,9 +4123,12 @@
       <c r="N23" s="39">
         <v>32435.64</v>
       </c>
-    </row>
-    <row r="24" spans="7:14">
-      <c r="H24" s="80">
+      <c r="O23" s="65">
+        <v>31130.67</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15">
+      <c r="H24" s="68">
         <v>21</v>
       </c>
       <c r="I24" s="39">
@@ -4063,9 +4149,12 @@
       <c r="N24" s="39">
         <v>32314.050000000003</v>
       </c>
-    </row>
-    <row r="25" spans="7:14">
-      <c r="H25" s="80">
+      <c r="O24" s="65">
+        <v>31548.29</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15">
+      <c r="H25" s="68">
         <v>22</v>
       </c>
       <c r="I25" s="39">
@@ -4086,9 +4175,12 @@
       <c r="N25" s="39">
         <v>32748.300000000003</v>
       </c>
-    </row>
-    <row r="26" spans="7:14">
-      <c r="H26" s="80">
+      <c r="O25" s="65">
+        <v>32036.13</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15">
+      <c r="H26" s="68">
         <v>23</v>
       </c>
       <c r="I26" s="39">
@@ -4109,9 +4201,12 @@
       <c r="N26" s="39">
         <v>31981.800000000003</v>
       </c>
-    </row>
-    <row r="27" spans="7:14">
-      <c r="H27" s="80">
+      <c r="O26" s="65">
+        <v>32003.15</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15">
+      <c r="H27" s="68">
         <v>24</v>
       </c>
       <c r="I27" s="39">
@@ -4132,9 +4227,12 @@
       <c r="N27" s="39">
         <v>31966.65</v>
       </c>
-    </row>
-    <row r="28" spans="7:14" ht="16" thickBot="1">
-      <c r="H28" s="81">
+      <c r="O27" s="65">
+        <v>31670.620000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" ht="16" thickBot="1">
+      <c r="H28" s="69">
         <v>25</v>
       </c>
       <c r="I28" s="40">
@@ -4155,84 +4253,95 @@
       <c r="N28" s="40">
         <v>31949.279999999999</v>
       </c>
-    </row>
-    <row r="29" spans="7:14" ht="16" thickBot="1">
+      <c r="O28" s="65">
+        <v>33876.61</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" ht="16" thickBot="1">
       <c r="G29" s="49"/>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="94">
-        <f>AVERAGE(I4:I28)</f>
+      <c r="I29" s="78">
+        <f t="shared" ref="I29:N29" si="0">AVERAGE(I4:I28)</f>
         <v>33454.039199999999</v>
       </c>
-      <c r="J29" s="94">
-        <f>AVERAGE(J4:J28)</f>
+      <c r="J29" s="78">
+        <f t="shared" si="0"/>
         <v>32289.110400000005</v>
       </c>
-      <c r="K29" s="94">
-        <f>AVERAGE(K4:K28)</f>
+      <c r="K29" s="78">
+        <f t="shared" si="0"/>
         <v>31354.883200000004</v>
       </c>
-      <c r="L29" s="94">
-        <f>AVERAGE(L4:L28)</f>
+      <c r="L29" s="78">
+        <f t="shared" si="0"/>
         <v>32361.517599999992</v>
       </c>
-      <c r="M29" s="94">
-        <f>AVERAGE(M4:M28)</f>
+      <c r="M29" s="78">
+        <f t="shared" si="0"/>
         <v>32339.889999999996</v>
       </c>
-      <c r="N29" s="94">
-        <f>AVERAGE(N4:N28)</f>
+      <c r="N29" s="78">
+        <f t="shared" si="0"/>
         <v>32223.104400000015</v>
       </c>
-    </row>
-    <row r="30" spans="7:14">
+      <c r="O29" s="78">
+        <f>AVERAGE(O4:O28)</f>
+        <v>32233.172400000003</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15">
       <c r="G30" s="49"/>
       <c r="H30" s="51"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="7:14" ht="16" thickBot="1">
+    <row r="31" spans="7:15" ht="16" thickBot="1">
       <c r="G31" s="49"/>
       <c r="H31" s="51"/>
       <c r="I31" s="49"/>
     </row>
-    <row r="32" spans="7:14" ht="15" customHeight="1">
-      <c r="H32" s="74" t="s">
+    <row r="32" spans="7:15" ht="15" customHeight="1">
+      <c r="H32" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="90" t="s">
+      <c r="I32" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="88" t="s">
+      <c r="J32" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="88" t="s">
+      <c r="K32" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="88" t="s">
+      <c r="L32" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="88" t="s">
+      <c r="M32" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="88" t="s">
+      <c r="N32" s="96" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="7:14" ht="49" thickBot="1">
-      <c r="G33" s="82" t="s">
+      <c r="O32" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" ht="49" thickBot="1">
+      <c r="G33" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-    </row>
-    <row r="34" spans="7:14">
-      <c r="H34" s="79">
+      <c r="H33" s="101"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+    </row>
+    <row r="34" spans="7:15">
+      <c r="H34" s="67">
         <v>1</v>
       </c>
       <c r="I34" s="38">
@@ -4250,12 +4359,15 @@
       <c r="M34" s="38">
         <v>0.96</v>
       </c>
-      <c r="N34" s="76">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14">
-      <c r="H35" s="80">
+      <c r="N34" s="38">
+        <v>0.96</v>
+      </c>
+      <c r="O34" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15">
+      <c r="H35" s="68">
         <v>2</v>
       </c>
       <c r="I35" s="39">
@@ -4273,12 +4385,15 @@
       <c r="M35" s="39">
         <v>1</v>
       </c>
-      <c r="N35" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14">
-      <c r="H36" s="80">
+      <c r="N35" s="39">
+        <v>1</v>
+      </c>
+      <c r="O35" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15">
+      <c r="H36" s="68">
         <v>3</v>
       </c>
       <c r="I36" s="39">
@@ -4296,12 +4411,15 @@
       <c r="M36" s="39">
         <v>0.96</v>
       </c>
-      <c r="N36" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="37" spans="7:14">
-      <c r="H37" s="80">
+      <c r="N36" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O36" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15">
+      <c r="H37" s="68">
         <v>4</v>
       </c>
       <c r="I37" s="39">
@@ -4319,12 +4437,15 @@
       <c r="M37" s="39">
         <v>0.96</v>
       </c>
-      <c r="N37" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="7:14">
-      <c r="H38" s="80">
+      <c r="N37" s="39">
+        <v>1</v>
+      </c>
+      <c r="O37" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15">
+      <c r="H38" s="68">
         <v>5</v>
       </c>
       <c r="I38" s="39">
@@ -4342,12 +4463,15 @@
       <c r="M38" s="39">
         <v>0.96</v>
       </c>
-      <c r="N38" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="39" spans="7:14">
-      <c r="H39" s="80">
+      <c r="N38" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O38" s="65">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15">
+      <c r="H39" s="68">
         <v>6</v>
       </c>
       <c r="I39" s="39">
@@ -4365,12 +4489,15 @@
       <c r="M39" s="39">
         <v>1</v>
       </c>
-      <c r="N39" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="40" spans="7:14">
-      <c r="H40" s="80">
+      <c r="N39" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O39" s="65">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15">
+      <c r="H40" s="68">
         <v>7</v>
       </c>
       <c r="I40" s="39">
@@ -4388,12 +4515,15 @@
       <c r="M40" s="39">
         <v>1</v>
       </c>
-      <c r="N40" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14">
-      <c r="H41" s="80">
+      <c r="N40" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O40" s="65">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15">
+      <c r="H41" s="68">
         <v>8</v>
       </c>
       <c r="I41" s="39">
@@ -4411,12 +4541,15 @@
       <c r="M41" s="39">
         <v>1</v>
       </c>
-      <c r="N41" s="77">
+      <c r="N41" s="39">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="42" spans="7:14">
-      <c r="H42" s="80">
+      <c r="O41" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15">
+      <c r="H42" s="68">
         <v>9</v>
       </c>
       <c r="I42" s="39">
@@ -4434,12 +4567,15 @@
       <c r="M42" s="39">
         <v>0.96</v>
       </c>
-      <c r="N42" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="43" spans="7:14">
-      <c r="H43" s="80">
+      <c r="N42" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O42" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15">
+      <c r="H43" s="68">
         <v>10</v>
       </c>
       <c r="I43" s="39">
@@ -4457,12 +4593,15 @@
       <c r="M43" s="39">
         <v>0.96</v>
       </c>
-      <c r="N43" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="44" spans="7:14">
-      <c r="H44" s="80">
+      <c r="N43" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O43" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15">
+      <c r="H44" s="68">
         <v>11</v>
       </c>
       <c r="I44" s="39">
@@ -4480,12 +4619,15 @@
       <c r="M44" s="39">
         <v>0.88</v>
       </c>
-      <c r="N44" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="45" spans="7:14">
-      <c r="H45" s="80">
+      <c r="N44" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O44" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15">
+      <c r="H45" s="68">
         <v>12</v>
       </c>
       <c r="I45" s="39">
@@ -4503,12 +4645,15 @@
       <c r="M45" s="39">
         <v>0.96</v>
       </c>
-      <c r="N45" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="46" spans="7:14">
-      <c r="H46" s="80">
+      <c r="N45" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O45" s="65">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15">
+      <c r="H46" s="68">
         <v>13</v>
       </c>
       <c r="I46" s="39">
@@ -4526,12 +4671,15 @@
       <c r="M46" s="39">
         <v>0.96</v>
       </c>
-      <c r="N46" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:14">
-      <c r="H47" s="80">
+      <c r="N46" s="39">
+        <v>1</v>
+      </c>
+      <c r="O46" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:15">
+      <c r="H47" s="68">
         <v>14</v>
       </c>
       <c r="I47" s="39">
@@ -4549,12 +4697,15 @@
       <c r="M47" s="39">
         <v>0.96</v>
       </c>
-      <c r="N47" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="48" spans="7:14">
-      <c r="H48" s="80">
+      <c r="N47" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O47" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:15">
+      <c r="H48" s="68">
         <v>15</v>
       </c>
       <c r="I48" s="39">
@@ -4572,12 +4723,15 @@
       <c r="M48" s="39">
         <v>0.96</v>
       </c>
-      <c r="N48" s="77">
+      <c r="N48" s="39">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="49" spans="8:14">
-      <c r="H49" s="80">
+      <c r="O48" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="49" spans="8:15">
+      <c r="H49" s="68">
         <v>16</v>
       </c>
       <c r="I49" s="39">
@@ -4595,12 +4749,15 @@
       <c r="M49" s="39">
         <v>1</v>
       </c>
-      <c r="N49" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14">
-      <c r="H50" s="80">
+      <c r="N49" s="39">
+        <v>1</v>
+      </c>
+      <c r="O49" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="8:15">
+      <c r="H50" s="68">
         <v>17</v>
       </c>
       <c r="I50" s="39">
@@ -4618,12 +4775,15 @@
       <c r="M50" s="39">
         <v>0.88</v>
       </c>
-      <c r="N50" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="51" spans="8:14">
-      <c r="H51" s="80">
+      <c r="N50" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O50" s="65">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="51" spans="8:15">
+      <c r="H51" s="68">
         <v>18</v>
       </c>
       <c r="I51" s="39">
@@ -4641,12 +4801,15 @@
       <c r="M51" s="39">
         <v>1</v>
       </c>
-      <c r="N51" s="77">
+      <c r="N51" s="39">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="52" spans="8:14">
-      <c r="H52" s="80">
+      <c r="O51" s="65">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="52" spans="8:15">
+      <c r="H52" s="68">
         <v>19</v>
       </c>
       <c r="I52" s="39">
@@ -4664,12 +4827,15 @@
       <c r="M52" s="39">
         <v>0.96</v>
       </c>
-      <c r="N52" s="77">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="53" spans="8:14">
-      <c r="H53" s="80">
+      <c r="N52" s="39">
+        <v>0.96</v>
+      </c>
+      <c r="O52" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="8:15">
+      <c r="H53" s="68">
         <v>20</v>
       </c>
       <c r="I53" s="39">
@@ -4687,12 +4853,15 @@
       <c r="M53" s="39">
         <v>1</v>
       </c>
-      <c r="N53" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="8:14">
-      <c r="H54" s="80">
+      <c r="N53" s="39">
+        <v>1</v>
+      </c>
+      <c r="O53" s="65">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="54" spans="8:15">
+      <c r="H54" s="68">
         <v>21</v>
       </c>
       <c r="I54" s="39">
@@ -4710,12 +4879,15 @@
       <c r="M54" s="39">
         <v>1</v>
       </c>
-      <c r="N54" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="8:14">
-      <c r="H55" s="80">
+      <c r="N54" s="39">
+        <v>1</v>
+      </c>
+      <c r="O54" s="65">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="55" spans="8:15">
+      <c r="H55" s="68">
         <v>22</v>
       </c>
       <c r="I55" s="39">
@@ -4733,12 +4905,15 @@
       <c r="M55" s="39">
         <v>1</v>
       </c>
-      <c r="N55" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="8:14">
-      <c r="H56" s="80">
+      <c r="N55" s="39">
+        <v>1</v>
+      </c>
+      <c r="O55" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:15">
+      <c r="H56" s="68">
         <v>23</v>
       </c>
       <c r="I56" s="39">
@@ -4756,12 +4931,15 @@
       <c r="M56" s="39">
         <v>0.96</v>
       </c>
-      <c r="N56" s="77">
+      <c r="N56" s="39">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="57" spans="8:14">
-      <c r="H57" s="80">
+      <c r="O56" s="65">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="8:15">
+      <c r="H57" s="68">
         <v>24</v>
       </c>
       <c r="I57" s="39">
@@ -4779,12 +4957,15 @@
       <c r="M57" s="39">
         <v>1</v>
       </c>
-      <c r="N57" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="8:14" ht="16" thickBot="1">
-      <c r="H58" s="81">
+      <c r="N57" s="39">
+        <v>1</v>
+      </c>
+      <c r="O57" s="65">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="58" spans="8:15" ht="16" thickBot="1">
+      <c r="H58" s="69">
         <v>25</v>
       </c>
       <c r="I58" s="40">
@@ -4802,47 +4983,50 @@
       <c r="M58" s="40">
         <v>0.96</v>
       </c>
-      <c r="N58" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="8:14" ht="16" thickBot="1">
-      <c r="H59" s="96" t="s">
+      <c r="N58" s="40">
+        <v>1</v>
+      </c>
+      <c r="O58" s="66">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="8:15" ht="16" thickBot="1">
+      <c r="H59" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="96">
-        <f>AVERAGE(I34:I58)</f>
+      <c r="I59" s="80">
+        <f t="shared" ref="I59:N59" si="1">AVERAGE(I34:I58)</f>
         <v>0.99040000000000006</v>
       </c>
-      <c r="J59" s="96">
-        <f>AVERAGE(J34:J58)</f>
+      <c r="J59" s="80">
+        <f t="shared" si="1"/>
         <v>0.96640000000000026</v>
       </c>
-      <c r="K59" s="96">
-        <f>AVERAGE(K34:K58)</f>
+      <c r="K59" s="80">
+        <f t="shared" si="1"/>
         <v>0.86880000000000024</v>
       </c>
-      <c r="L59" s="96">
-        <f>AVERAGE(L34:L58)</f>
+      <c r="L59" s="80">
+        <f t="shared" si="1"/>
         <v>0.97440000000000027</v>
       </c>
-      <c r="M59" s="96">
-        <f>AVERAGE(M34:M58)</f>
+      <c r="M59" s="80">
+        <f t="shared" si="1"/>
         <v>0.96960000000000024</v>
       </c>
-      <c r="N59" s="103">
-        <f>AVERAGE(N34:N58)</f>
+      <c r="N59" s="80">
+        <f t="shared" si="1"/>
         <v>0.96640000000000015</v>
       </c>
+      <c r="O59" s="80">
+        <f>AVERAGE(O34:O58)</f>
+        <v>0.95640400000000014</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K32:K33"/>
+  <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O32:O33"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L32:L33"/>
@@ -4852,6 +5036,12 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K32:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B5063D-C880-254C-99A9-8C0EAD52DBF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBFD43-909C-D54D-AF58-04BE63DA26F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>PERÍODO</t>
   </si>
@@ -136,36 +136,18 @@
     <t>stock médio</t>
   </si>
   <si>
-    <t>Média Anual</t>
-  </si>
-  <si>
     <t>Quebras</t>
   </si>
   <si>
-    <t>Risco ótimo de quebra</t>
-  </si>
-  <si>
     <t>P[DDPP&gt;S]</t>
   </si>
   <si>
-    <t>Desvio Anual</t>
-  </si>
-  <si>
     <t>E[DDPP&gt;S]</t>
   </si>
   <si>
     <t>Custos totais</t>
   </si>
   <si>
-    <t>PARÂMETROS VARIÁVEIS [1,16]</t>
-  </si>
-  <si>
-    <t>PARÂMETROS VARIÁVEIS [17,28]</t>
-  </si>
-  <si>
-    <t>PARÂMETROS VARIÁVEIS [29,50]</t>
-  </si>
-  <si>
     <t>Média DDPP[1,16]</t>
   </si>
   <si>
@@ -235,12 +217,6 @@
     <t>(1416,1208) ; (1869,1661) ; (1133,925)</t>
   </si>
   <si>
-    <t>* S analítico - 10%</t>
-  </si>
-  <si>
-    <t>* S analítico - 5%</t>
-  </si>
-  <si>
     <t>(1341,1133) ; (1770,1562) ; (1073,865)</t>
   </si>
   <si>
@@ -269,13 +245,67 @@
   </si>
   <si>
     <t>* S analítico - 5% ;     s analítico -10%</t>
+  </si>
+  <si>
+    <t>(1416,1027) ; (1869,1412) ; (1133,786)</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico -15%</t>
+  </si>
+  <si>
+    <t>* Parar de aumentar s; Começar a diminuir s</t>
+  </si>
+  <si>
+    <t>(1416,966) ; (1869,1329) ; (1133,740)</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico -20%</t>
+  </si>
+  <si>
+    <t>(1416,906) ; (1869,1246) ; (1133,694)</t>
+  </si>
+  <si>
+    <t>* Parar de diminuir s ;   Simulação chegou ao fim</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico -25%</t>
+  </si>
+  <si>
+    <t>Menor Custo</t>
+  </si>
+  <si>
+    <t>Melhor resultado</t>
+  </si>
+  <si>
+    <t>Lucro de vendas</t>
+  </si>
+  <si>
+    <t>PROCURA</t>
+  </si>
+  <si>
+    <t>preço unitário de venda</t>
+  </si>
+  <si>
+    <t>PARÂMETROS [1,16]</t>
+  </si>
+  <si>
+    <t>PARÂMETROS [17,28]</t>
+  </si>
+  <si>
+    <t>PARÂMETROS [29,50]</t>
+  </si>
+  <si>
+    <t>* S analítico - 5% ;     s analítico</t>
+  </si>
+  <si>
+    <t>* S analítico - 10% ;     s analítico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +394,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +475,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -448,17 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -666,32 +698,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -884,146 +890,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1034,49 +1071,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1085,101 +1119,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
-  <dimension ref="A2:Q84"/>
+  <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1514,20 +1606,19 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="16" thickBot="1"/>
-    <row r="3" spans="1:14" ht="27" customHeight="1">
+    <row r="2" spans="1:15" ht="16" thickBot="1"/>
+    <row r="3" spans="1:15" ht="27" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1541,350 +1632,384 @@
         <v>3</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="110" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1">
-      <c r="A4" s="26">
+      <c r="H3" s="113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25" customHeight="1" thickBot="1">
+      <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <f ca="1">INT(RANDBETWEEN(J29,J28))</f>
-        <v>1038</v>
-      </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="20" thickBot="1">
-      <c r="A5" s="27">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27">
+        <f ca="1">INT(RANDBETWEEN(K29,K28))</f>
+        <v>1370</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" ht="19">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1038</v>
+        <v>1370</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>440</v>
+      <c r="E5" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>430</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>598</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="I5" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="G5" s="109"/>
+      <c r="H5" s="1">
+        <f ca="1">IF(F5&gt;=0,E5,E5+F5)</f>
+        <v>430</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="45">
-        <f>(J6*16 + J7 *12+ J8*22)/50</f>
-        <v>430.08839999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" thickBot="1">
-      <c r="A6" s="47">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" ht="19">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>598</v>
+        <v>940</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>442</v>
+      <c r="E6" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>369</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F54" ca="1" si="1">B6-E6+D6</f>
-        <v>156</v>
-      </c>
-      <c r="G6" s="34">
-        <f ca="1">IF(F6 &lt; J29, (IF(F6&lt;0, J28, J28-F6)), 0 )</f>
-        <v>1260</v>
-      </c>
-      <c r="I6" s="9" t="s">
+        <f ca="1">B6-E6+D6</f>
+        <v>571</v>
+      </c>
+      <c r="G6" s="109">
+        <f ca="1">IF(F6 &lt; K29, (IF(F6&lt;0, K28, K28-F6)), 0 )</f>
+        <v>920</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H54" ca="1" si="1">IF(F6&gt;=0,E6,E6+F6)</f>
+        <v>369</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>435.03</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>37.85</v>
       </c>
-      <c r="M6" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="21">
-        <f>N5*0.087</f>
-        <v>37.417690799999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="19">
-      <c r="A7" s="27">
+      <c r="N6" s="45"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="19">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>571</v>
       </c>
       <c r="C7" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>432</v>
+        <v>920</v>
+      </c>
+      <c r="E7" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>411</v>
       </c>
       <c r="F7" s="1">
+        <f ca="1">B7-E7+D7</f>
+        <v>1080</v>
+      </c>
+      <c r="G7" s="109"/>
+      <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-276</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="I7" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>575.26</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>50.05</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20" thickBot="1">
-      <c r="A8" s="47">
+    <row r="8" spans="1:15" ht="20" thickBot="1">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1260</v>
-      </c>
-      <c r="E8" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>403</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>396</v>
       </c>
       <c r="F8" s="1">
+        <f ca="1">B8-E8+D8</f>
+        <v>684</v>
+      </c>
+      <c r="G8" s="109">
+        <f ca="1">IF(F8 &lt; K29, (IF(F8&lt;0, K28, K28-F8)), 0 )</f>
+        <v>807</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>857</v>
-      </c>
-      <c r="G8" s="34">
-        <f ca="1">IF(F8 &lt; J29, (IF(F8&lt;0, J28, J28-F8)), 0 )</f>
-        <v>559</v>
-      </c>
-      <c r="I8" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>347.31</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="13">
         <v>30.22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20" thickBot="1">
-      <c r="A9" s="27">
+    <row r="9" spans="1:15" ht="20" thickBot="1">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>857</v>
+        <v>684</v>
       </c>
       <c r="C9" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>559</v>
-      </c>
-      <c r="E9" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>460</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>448</v>
       </c>
       <c r="F9" s="1">
+        <f ca="1">B9-E9+D9</f>
+        <v>236</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>956</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="19">
-      <c r="A10" s="47">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19">
+      <c r="A10" s="42">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>956</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>442</v>
+        <v>807</v>
+      </c>
+      <c r="E10" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>422</v>
       </c>
       <c r="F10" s="1">
+        <f ca="1">B10-E10+D10</f>
+        <v>621</v>
+      </c>
+      <c r="G10" s="109">
+        <f ca="1">IF(F10 &lt; K29, (IF(F10&lt;0, K28, K28-F10)), 0 )</f>
+        <v>870</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>514</v>
-      </c>
-      <c r="G10" s="34">
-        <f ca="1">IF(F10 &lt; J29, (IF(F10&lt;0, J28, J28-F10)), 0 )</f>
-        <v>902</v>
-      </c>
-      <c r="I10" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19">
-      <c r="A11" s="27">
+    <row r="11" spans="1:15" ht="19">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>514</v>
+        <v>621</v>
       </c>
       <c r="C11" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>902</v>
-      </c>
-      <c r="E11" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>447</v>
+        <v>870</v>
+      </c>
+      <c r="E11" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>499</v>
       </c>
       <c r="F11" s="1">
+        <f ca="1">B11-E11+D11</f>
+        <v>992</v>
+      </c>
+      <c r="G11" s="109"/>
+      <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>969</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
+        <v>499</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20" thickBot="1">
-      <c r="A12" s="47">
+    <row r="12" spans="1:15" ht="20" thickBot="1">
+      <c r="A12" s="42">
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>969</v>
+        <v>992</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f ca="1">IF(C11 = 0.4, G10, 0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>372</v>
+      <c r="E12" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>355</v>
       </c>
       <c r="F12" s="1">
+        <f ca="1">B12-E12+D12</f>
+        <v>637</v>
+      </c>
+      <c r="G12" s="109">
+        <f ca="1">IF(F12 &lt; K29, (IF(F12&lt;0, K28, K28-F12)), 0 )</f>
+        <v>854</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>597</v>
-      </c>
-      <c r="G12" s="34">
-        <f ca="1">IF(F12 &lt; J29, (IF(F12&lt;0, J28, J28-F12)), 0 )</f>
-        <v>819</v>
-      </c>
-      <c r="I12" s="11">
+        <v>355</v>
+      </c>
+      <c r="J12" s="11">
         <v>2</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19">
-      <c r="A13" s="27">
+    <row r="13" spans="1:15" ht="19">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="C13" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>819</v>
-      </c>
-      <c r="E13" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>436</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>446</v>
       </c>
       <c r="F13" s="1">
+        <f ca="1">B13-E13+D13</f>
+        <v>191</v>
+      </c>
+      <c r="G13" s="109"/>
+      <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>980</v>
-      </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="19">
-      <c r="A14" s="47">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" thickBot="1">
+      <c r="A14" s="42">
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>374</v>
+        <v>854</v>
+      </c>
+      <c r="E14" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>439</v>
       </c>
       <c r="F14" s="1">
+        <f ca="1">B14-E14+D14</f>
+        <v>606</v>
+      </c>
+      <c r="G14" s="109">
+        <f ca="1">IF(F14 &lt; K29, (IF(F14&lt;0, K28, K28-F14)), 0 )</f>
+        <v>885</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>606</v>
-      </c>
-      <c r="G14" s="34">
-        <f ca="1">IF(F14 &lt; J29, (IF(F14&lt;0, J28, J28-F14)), 0 )</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" thickBot="1">
-      <c r="A15" s="27">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" thickBot="1">
+      <c r="A15" s="26">
         <v>11</v>
       </c>
       <c r="B15" s="1">
@@ -1892,1547 +2017,1683 @@
         <v>606</v>
       </c>
       <c r="C15" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.4</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>394</v>
+      <c r="E15" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>410</v>
       </c>
       <c r="F15" s="1">
+        <f ca="1">B15-E15+D15</f>
+        <v>196</v>
+      </c>
+      <c r="G15" s="109"/>
+      <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="20" thickBot="1">
-      <c r="A16" s="47">
+        <v>410</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="21">
+        <v>120</v>
+      </c>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20" thickBot="1">
+      <c r="A16" s="42">
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>810</v>
-      </c>
-      <c r="E16" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>410</v>
+        <v>885</v>
+      </c>
+      <c r="E16" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>420</v>
       </c>
       <c r="F16" s="1">
+        <f ca="1">B16-E16+D16</f>
+        <v>661</v>
+      </c>
+      <c r="G16" s="109">
+        <f ca="1">IF(F16 &lt; K29, (IF(F16&lt;0, K28, K28-F16)), 0 )</f>
+        <v>830</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>612</v>
-      </c>
-      <c r="G16" s="34">
-        <f ca="1">IF(F16 &lt; J29, (IF(F16&lt;0, J28, J28-F16)), 0 )</f>
-        <v>804</v>
-      </c>
-      <c r="I16" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="J16" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="21">
+      <c r="K16" s="114">
         <v>96.5</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="L16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="94"/>
-    </row>
-    <row r="17" spans="1:17" ht="20" thickBot="1">
-      <c r="A17" s="27">
+      <c r="M16" s="86"/>
+    </row>
+    <row r="17" spans="1:18" ht="20" thickBot="1">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>804</v>
-      </c>
-      <c r="E17" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>402</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>376</v>
       </c>
       <c r="F17" s="1">
+        <f ca="1">B17-E17+D17</f>
+        <v>285</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1014</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="I17" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="21">
+      <c r="K17" s="21">
         <v>0.18</v>
       </c>
-      <c r="K17" s="92" t="s">
+      <c r="L17" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="92"/>
-    </row>
-    <row r="18" spans="1:17" ht="20" thickBot="1">
-      <c r="A18" s="47">
+      <c r="M17" s="84"/>
+    </row>
+    <row r="18" spans="1:18" ht="20" thickBot="1">
+      <c r="A18" s="42">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1014</v>
+        <v>285</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>470</v>
+        <v>830</v>
+      </c>
+      <c r="E18" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>396</v>
       </c>
       <c r="F18" s="1">
+        <f ca="1">B18-E18+D18</f>
+        <v>719</v>
+      </c>
+      <c r="G18" s="109">
+        <f ca="1">IF(F18 &lt; K29, (IF(F18&lt;0, K28, K28-F18)), 0 )</f>
+        <v>772</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>544</v>
-      </c>
-      <c r="G18" s="34">
-        <f ca="1">IF(F18 &lt; J29, (IF(F18&lt;0, J28, J28-F18)), 0 )</f>
-        <v>872</v>
-      </c>
-      <c r="I18" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="21">
-        <f>J16*J17</f>
+      <c r="K18" s="21">
+        <f>K16*K17</f>
         <v>17.37</v>
       </c>
-      <c r="K18" s="93" t="s">
+      <c r="L18" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="92"/>
-    </row>
-    <row r="19" spans="1:17" ht="20" thickBot="1">
-      <c r="A19" s="27">
+      <c r="M18" s="84"/>
+    </row>
+    <row r="19" spans="1:18" ht="20" thickBot="1">
+      <c r="A19" s="26">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="C19" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>872</v>
-      </c>
-      <c r="E19" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>383</v>
+        <v>772</v>
+      </c>
+      <c r="E19" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>395</v>
       </c>
       <c r="F19" s="1">
+        <f ca="1">B19-E19+D19</f>
+        <v>1096</v>
+      </c>
+      <c r="G19" s="109"/>
+      <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1033</v>
-      </c>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:17" ht="20" thickBot="1">
-      <c r="A20" s="47">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="20" thickBot="1">
+      <c r="A20" s="42">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1033</v>
+        <v>1096</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f ca="1">IF(C19 = 0.4, G18, 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="29">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J6, K6))</f>
-        <v>438</v>
+      <c r="E20" s="28">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
+        <v>473</v>
       </c>
       <c r="F20" s="1">
+        <f ca="1">B20-E20+D20</f>
+        <v>623</v>
+      </c>
+      <c r="G20" s="109">
+        <f ca="1">IF(F20 &lt; N29, (IF(F20&lt;0, N28, N28-F20)), 0 )</f>
+        <v>1344</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>595</v>
-      </c>
-      <c r="G20" s="34">
-        <f ca="1">IF(F20 &lt; M29, (IF(F20&lt;0, M28, M28-F20)), 0 )</f>
-        <v>1274</v>
-      </c>
-      <c r="I20" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="21">
+      <c r="K20" s="21">
         <v>7</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="L20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="20" thickBot="1">
-      <c r="A21" s="27">
+      <c r="M20" s="18"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="20" thickBot="1">
+      <c r="A21" s="26">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="C21" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>1274</v>
-      </c>
-      <c r="E21" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>577</v>
+        <v>1344</v>
+      </c>
+      <c r="E21" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>549</v>
       </c>
       <c r="F21" s="1">
+        <f ca="1">B21-E21+D21</f>
+        <v>1418</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1292</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="I21" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="21">
-        <f>20+2*J20</f>
+      <c r="K21" s="21">
+        <f>20+2*K20</f>
         <v>34</v>
       </c>
-      <c r="K21" s="90" t="s">
+      <c r="L21" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="91"/>
-    </row>
-    <row r="22" spans="1:17" ht="20" thickBot="1">
-      <c r="A22" s="47">
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="1:18" ht="20" thickBot="1">
+      <c r="A22" s="42">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1292</v>
+        <v>1418</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>657</v>
+      <c r="E22" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>587</v>
       </c>
       <c r="F22" s="1">
+        <f ca="1">B22-E22+D22</f>
+        <v>831</v>
+      </c>
+      <c r="G22" s="109">
+        <f ca="1">IF(F22 &lt; N29, (IF(F22&lt;0, N28, N28-F22)), 0 )</f>
+        <v>1136</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>635</v>
-      </c>
-      <c r="G22" s="34">
-        <f ca="1">IF(F22 &lt; M29, (IF(F22&lt;0, M28, M28-F22)), 0 )</f>
-        <v>1234</v>
-      </c>
-      <c r="I22" s="14"/>
+        <v>587</v>
+      </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-    </row>
-    <row r="23" spans="1:17" ht="20" thickBot="1">
-      <c r="A23" s="27">
+      <c r="K22" s="14"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" spans="1:18" ht="20" thickBot="1">
+      <c r="A23" s="26">
         <v>19</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>635</v>
+        <v>831</v>
       </c>
       <c r="C23" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>1234</v>
-      </c>
-      <c r="E23" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>594</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>560</v>
       </c>
       <c r="F23" s="1">
+        <f ca="1">B23-E23+D23</f>
+        <v>271</v>
+      </c>
+      <c r="G23" s="109"/>
+      <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1275</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="I23" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="21">
+      <c r="K23" s="21">
         <v>900</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="L23" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="91"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" ht="20" thickBot="1">
-      <c r="A24" s="47">
+      <c r="M23" s="83"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="20" thickBot="1">
+      <c r="A24" s="42">
         <v>20</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1275</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>555</v>
+        <v>1136</v>
+      </c>
+      <c r="E24" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>590</v>
       </c>
       <c r="F24" s="1">
+        <f ca="1">B24-E24+D24</f>
+        <v>817</v>
+      </c>
+      <c r="G24" s="109">
+        <f ca="1">IF(F24 &lt; N29, (IF(F24&lt;0, N28, N28-F24)), 0 )</f>
+        <v>1150</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="G24" s="34">
-        <f ca="1">IF(F24 &lt; M29, (IF(F24&lt;0, M28, M28-F24)), 0 )</f>
-        <v>1149</v>
-      </c>
-      <c r="I24" s="14"/>
+        <v>590</v>
+      </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="20" thickBot="1">
-      <c r="A25" s="27">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="20" thickBot="1">
+      <c r="A25" s="26">
         <v>21</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="C25" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1149</v>
-      </c>
-      <c r="E25" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>642</v>
+        <v>1150</v>
+      </c>
+      <c r="E25" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>575</v>
       </c>
       <c r="F25" s="1">
+        <f ca="1">B25-E25+D25</f>
+        <v>1392</v>
+      </c>
+      <c r="G25" s="109"/>
+      <c r="H25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1227</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="I25" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="21">
+      <c r="K25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="L25" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="91"/>
-    </row>
-    <row r="26" spans="1:17" ht="20" thickBot="1">
-      <c r="A26" s="47">
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:18" ht="20" thickBot="1">
+      <c r="A26" s="42">
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1227</v>
+        <v>1392</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
         <f ca="1">IF(C25 = 0.4, G24, 0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>582</v>
+      <c r="E26" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>621</v>
       </c>
       <c r="F26" s="1">
+        <f ca="1">B26-E26+D26</f>
+        <v>771</v>
+      </c>
+      <c r="G26" s="109">
+        <f ca="1">IF(F26 &lt; N29, (IF(F26&lt;0, N28, N28-F26)), 0 )</f>
+        <v>1196</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>645</v>
-      </c>
-      <c r="G26" s="34">
-        <f ca="1">IF(F26 &lt; M29, (IF(F26&lt;0, M28, M28-F26)), 0 )</f>
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="19">
-      <c r="A27" s="27">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="19">
+      <c r="A27" s="26">
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>771</v>
       </c>
       <c r="C27" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>516</v>
+      <c r="E27" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>632</v>
       </c>
       <c r="F27" s="1">
+        <f ca="1">B27-E27+D27</f>
+        <v>139</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="I27" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="87"/>
-      <c r="L27" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" spans="1:17" ht="19">
-      <c r="A28" s="47">
+        <v>632</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="M27" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="81"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="47"/>
+    </row>
+    <row r="28" spans="1:18" ht="19">
+      <c r="A28" s="42">
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>1224</v>
-      </c>
-      <c r="E28" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>651</v>
+        <v>1196</v>
+      </c>
+      <c r="E28" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>562</v>
       </c>
       <c r="F28" s="1">
+        <f ca="1">B28-E28+D28</f>
+        <v>773</v>
+      </c>
+      <c r="G28" s="109">
+        <f ca="1">IF(F28 &lt; N29, (IF(F28&lt;0, N28, N28-F28)), 0 )</f>
+        <v>1194</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>702</v>
-      </c>
-      <c r="G28" s="34">
-        <f ca="1">IF(F28 &lt; M29, (IF(F28&lt;0, M28, M28-F28)), 0 )</f>
-        <v>1167</v>
-      </c>
-      <c r="I28" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="22">
-        <v>1416</v>
-      </c>
-      <c r="L28" s="53" t="s">
+      <c r="K28" s="22">
+        <f>INT(N33 + N34*N37)</f>
+        <v>1491</v>
+      </c>
+      <c r="M28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="54">
-        <v>1869</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53" t="s">
+      <c r="N28" s="49">
+        <f>INT(P33 + P34*P37)</f>
+        <v>1967</v>
+      </c>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="54">
-        <v>1133</v>
-      </c>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" ht="20" thickBot="1">
-      <c r="A29" s="27">
+      <c r="Q28" s="49">
+        <f>INT(R33 + R34*R37)</f>
+        <v>1193</v>
+      </c>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:18" ht="20" thickBot="1">
+      <c r="A29" s="26">
         <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>702</v>
+        <v>773</v>
       </c>
       <c r="C29" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1167</v>
-      </c>
-      <c r="E29" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>571</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>615</v>
       </c>
       <c r="F29" s="1">
+        <f ca="1">B29-E29+D29</f>
+        <v>158</v>
+      </c>
+      <c r="G29" s="109"/>
+      <c r="H29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1298</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="I29" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="23">
-        <f>IF(INT(J28-207.456) &lt; 0, 0, INT((J28-207.456)*0.85) )</f>
-        <v>1027</v>
-      </c>
-      <c r="L29" s="55" t="s">
+      <c r="K29" s="23">
+        <f>IF(INT(K28-207.456) &lt; 0, 0, INT(K28-207.456) )</f>
+        <v>1283</v>
+      </c>
+      <c r="M29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="56">
-        <f>IF(INT(M28-207.456) &lt; 0, 0, INT((M28-207.456)*0.85) )</f>
-        <v>1412</v>
-      </c>
-      <c r="N29" s="52"/>
-      <c r="O29" s="55" t="s">
+      <c r="N29" s="51">
+        <f>IF(INT(N28-207.456) &lt; 0, 0, INT(N28-207.456) )</f>
+        <v>1759</v>
+      </c>
+      <c r="O29" s="47"/>
+      <c r="P29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="56">
-        <f>IF(INT(P28-207.456) &lt; 0, 0, INT((P28-207.456)*0.85) )</f>
-        <v>786</v>
-      </c>
-      <c r="Q29" s="52"/>
-    </row>
-    <row r="30" spans="1:17" ht="20" thickBot="1">
-      <c r="A30" s="47">
+      <c r="Q29" s="51">
+        <f>IF(INT(Q28-207.456) &lt; 0, 0, INT(Q28-207.456) )</f>
+        <v>985</v>
+      </c>
+      <c r="R29" s="47"/>
+    </row>
+    <row r="30" spans="1:18" ht="20" thickBot="1">
+      <c r="A30" s="42">
         <v>26</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1298</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>601</v>
+        <v>1194</v>
+      </c>
+      <c r="E30" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>610</v>
       </c>
       <c r="F30" s="1">
+        <f ca="1">B30-E30+D30</f>
+        <v>742</v>
+      </c>
+      <c r="G30" s="109">
+        <f ca="1">IF(F30 &lt; N29, (IF(F30&lt;0, N28, N28-F30)), 0 )</f>
+        <v>1225</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>697</v>
-      </c>
-      <c r="G30" s="34">
-        <f ca="1">IF(F30 &lt; M29, (IF(F30&lt;0, M28, M28-F30)), 0 )</f>
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="20" thickBot="1">
-      <c r="A31" s="27">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="20" thickBot="1">
+      <c r="A31" s="26">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="C31" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>586</v>
+        <v>1225</v>
+      </c>
+      <c r="E31" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>670</v>
       </c>
       <c r="F31" s="1">
+        <f ca="1">B31-E31+D31</f>
+        <v>1297</v>
+      </c>
+      <c r="G31" s="109"/>
+      <c r="H31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="I31" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="J31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="K31" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="20" thickBot="1">
-      <c r="A32" s="47">
+    <row r="32" spans="1:18" ht="20" thickBot="1">
+      <c r="A32" s="42">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>1297</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>1172</v>
-      </c>
-      <c r="E32" s="30">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J7, K7))</f>
-        <v>556</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
+        <v>595</v>
       </c>
       <c r="F32" s="1">
+        <f ca="1">B32-E32+D32</f>
+        <v>702</v>
+      </c>
+      <c r="G32" s="109">
+        <f ca="1">IF(F32 &lt; Q29, (IF(F32&lt;0, Q28, Q28-F32)), 0 )</f>
+        <v>491</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>727</v>
-      </c>
-      <c r="G32" s="34">
-        <f ca="1">IF(F32 &lt; P29, (IF(F32&lt;0, P28, P28-F32)), 0 )</f>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="20" thickBot="1">
-      <c r="A33" s="27">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="20" thickBot="1">
+      <c r="A33" s="26">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="C33" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>382</v>
+        <v>491</v>
+      </c>
+      <c r="E33" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>361</v>
       </c>
       <c r="F33" s="1">
+        <f ca="1">B33-E33+D33</f>
+        <v>832</v>
+      </c>
+      <c r="G33" s="109"/>
+      <c r="H33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="G33" s="34"/>
-      <c r="I33" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="J33" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="21">
+      <c r="K33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>595</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="21">
-        <f>INT(J6*(J25+((I11*J11) + (I12*J12))))</f>
+        <v>661</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="21">
+        <f>INT(K6*(K25+((J11*K11) + (J12*K12))))</f>
         <v>1479</v>
       </c>
-      <c r="N33" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="59">
-        <f>INT(J7*(J25+((I11*J11) + (I12*J12))))</f>
+      <c r="O33" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="54">
+        <f>INT(K7*(K25+((J11*K11) + (J12*K12))))</f>
         <v>1955</v>
       </c>
-      <c r="P33" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="59">
-        <f>INT(J8*(J25+((I11*J11) + (I12*J12))))</f>
+      <c r="Q33" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="54">
+        <f>INT(K8*(K25+((J11*K11) + (J12*K12))))</f>
         <v>1180</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="20" thickBot="1">
-      <c r="A34" s="47">
+    <row r="34" spans="1:18" ht="20" thickBot="1">
+      <c r="A34" s="42">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>832</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>406</v>
-      </c>
-      <c r="E34" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>371</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>422</v>
       </c>
       <c r="F34" s="1">
+        <f ca="1">B34-E34+D34</f>
+        <v>410</v>
+      </c>
+      <c r="G34" s="109">
+        <f ca="1">IF(F34 &lt; Q29, (IF(F34&lt;0, Q28, Q28-F34)), 0 )</f>
+        <v>783</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>380</v>
-      </c>
-      <c r="G34" s="34">
-        <f ca="1">IF(F34 &lt; P29, (IF(F34&lt;0, P28, P28-F34)), 0 )</f>
-        <v>753</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" s="21">
-        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K6))</f>
+        <v>422</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="21">
+        <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L6))</f>
         <v>11</v>
       </c>
-      <c r="N34" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="59">
-        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K7))</f>
+      <c r="O34" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="54">
+        <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L7))</f>
         <v>13</v>
       </c>
-      <c r="P34" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" s="59">
-        <f>INT(SQRT((J25+((I11*J11)+(I12*J12)))*K8))</f>
+      <c r="Q34" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="54">
+        <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L8))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="20" thickBot="1">
-      <c r="A35" s="27">
+    <row r="35" spans="1:18" ht="20" thickBot="1">
+      <c r="A35" s="26">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="C35" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>753</v>
-      </c>
-      <c r="E35" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>377</v>
+        <v>783</v>
+      </c>
+      <c r="E35" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>403</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>756</v>
-      </c>
-      <c r="G35" s="34"/>
-      <c r="I35" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="21">
+        <f ca="1">B35-E35+D35</f>
+        <v>790</v>
+      </c>
+      <c r="G35" s="109"/>
+      <c r="H35" s="1">
+        <f ca="1">IF(F35&gt;=0,E35,E35+F35)</f>
+        <v>403</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20" thickBot="1">
-      <c r="A36" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="20" thickBot="1">
+      <c r="A36" s="42">
         <v>32</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>428</v>
+      <c r="E36" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>353</v>
       </c>
       <c r="F36" s="1">
+        <f ca="1">B36-E36+D36</f>
+        <v>437</v>
+      </c>
+      <c r="G36" s="109">
+        <f ca="1">IF(F36 &lt; Q29, (IF(F36&lt;0, Q28, Q28-F36)), 0 )</f>
+        <v>756</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="G36" s="34">
-        <f ca="1">IF(F36 &lt; P29, (IF(F36&lt;0, P28, P28-F36)), 0 )</f>
-        <v>805</v>
-      </c>
-      <c r="L36" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36" s="61">
+        <v>353</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="56">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="N36" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="61">
+      <c r="O36" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" s="56">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P36" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q36" s="61">
+      <c r="Q36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="56">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="20" thickBot="1">
-      <c r="A37" s="27">
+    <row r="37" spans="1:18" ht="20" thickBot="1">
+      <c r="A37" s="26">
         <v>33</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="C37" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>390</v>
+        <v>756</v>
+      </c>
+      <c r="E37" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>357</v>
       </c>
       <c r="F37" s="1">
+        <f ca="1">B37-E37+D37</f>
+        <v>836</v>
+      </c>
+      <c r="G37" s="109"/>
+      <c r="H37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-62</v>
-      </c>
-      <c r="G37" s="34"/>
-      <c r="I37" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="21">
-        <f>(J18*(J25/50)/J21)</f>
-        <v>2.0435294117647062E-2</v>
-      </c>
-      <c r="L37" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" s="61">
-        <f>ABS(NORMSINV(M36))</f>
+        <v>357</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="14"/>
+      <c r="M37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="56">
+        <f>ABS(NORMSINV(N36))</f>
         <v>1.1503493803760083</v>
       </c>
-      <c r="N37" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="61">
-        <f>ABS(NORMSINV(O36))</f>
+      <c r="O37" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="56">
+        <f>ABS(NORMSINV(P36))</f>
         <v>0.96742156610170071</v>
       </c>
-      <c r="P37" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="62">
-        <f>ABS(NORMSINV(Q36))</f>
+      <c r="Q37" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="57">
+        <f>ABS(NORMSINV(R36))</f>
         <v>1.3351777361189361</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="20" thickBot="1">
-      <c r="A38" s="47">
+    <row r="38" spans="1:18" ht="20" thickBot="1">
+      <c r="A38" s="42">
         <v>34</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>805</v>
-      </c>
-      <c r="E38" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>382</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>359</v>
       </c>
       <c r="F38" s="1">
+        <f ca="1">B38-E38+D38</f>
+        <v>477</v>
+      </c>
+      <c r="G38" s="109">
+        <f ca="1">IF(F38 &lt; Q29, (IF(F38&lt;0, Q28, Q28-F38)), 0 )</f>
+        <v>716</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>423</v>
-      </c>
-      <c r="G38" s="34">
-        <f ca="1">IF(F38 &lt; P29, (IF(F38&lt;0, P28, P28-F38)), 0 )</f>
-        <v>710</v>
-      </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-    </row>
-    <row r="39" spans="1:17" ht="20" thickBot="1">
-      <c r="A39" s="27">
+        <v>359</v>
+      </c>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+    </row>
+    <row r="39" spans="1:18" ht="20" thickBot="1">
+      <c r="A39" s="26">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="C39" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>710</v>
-      </c>
-      <c r="E39" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>314</v>
+        <v>716</v>
+      </c>
+      <c r="E39" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>418</v>
       </c>
       <c r="F39" s="1">
+        <f ca="1">B39-E39+D39</f>
+        <v>775</v>
+      </c>
+      <c r="G39" s="109"/>
+      <c r="H39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>819</v>
-      </c>
-      <c r="G39" s="34"/>
-      <c r="I39" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="21">
+        <v>418</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="21">
         <f ca="1">1/(COUNTIF(G5:G54,"&gt;0"))</f>
         <v>0.04</v>
       </c>
-      <c r="K39" s="50"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51"/>
-    </row>
-    <row r="40" spans="1:17" ht="19">
-      <c r="A40" s="47">
+      <c r="L39" s="45"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
+    </row>
+    <row r="40" spans="1:18" ht="20" thickBot="1">
+      <c r="A40" s="42">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>819</v>
+        <v>775</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>366</v>
+      <c r="E40" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>388</v>
       </c>
       <c r="F40" s="1">
+        <f ca="1">B40-E40+D40</f>
+        <v>387</v>
+      </c>
+      <c r="G40" s="109">
+        <f ca="1">IF(F40 &lt; Q29, (IF(F40&lt;0, Q28, Q28-F40)), 0 )</f>
+        <v>806</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="G40" s="34">
-        <f ca="1">IF(F40 &lt; P29, (IF(F40&lt;0, P28, P28-F40)), 0 )</f>
-        <v>680</v>
-      </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-    </row>
-    <row r="41" spans="1:17" ht="19">
-      <c r="A41" s="27">
+        <v>388</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+    </row>
+    <row r="41" spans="1:18" ht="20" thickBot="1">
+      <c r="A41" s="26">
         <v>37</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="C41" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>340</v>
+      <c r="E41" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>396</v>
       </c>
       <c r="F41" s="1">
+        <f ca="1">B41-E41+D41</f>
+        <v>-9</v>
+      </c>
+      <c r="G41" s="109"/>
+      <c r="H41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="G41" s="34"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-    </row>
-    <row r="42" spans="1:17" ht="19">
-      <c r="A42" s="47">
+        <v>387</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="38">
+        <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
+        <v>0.36</v>
+      </c>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+    </row>
+    <row r="42" spans="1:18" ht="19">
+      <c r="A42" s="42">
         <v>38</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>680</v>
-      </c>
-      <c r="E42" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>299</v>
+        <v>806</v>
+      </c>
+      <c r="E42" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>358</v>
       </c>
       <c r="F42" s="1">
+        <f ca="1">B42-E42+D42</f>
+        <v>448</v>
+      </c>
+      <c r="G42" s="109">
+        <f ca="1">IF(F42 &lt; Q29, (IF(F42&lt;0, Q28, Q28-F42)), 0 )</f>
+        <v>745</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>494</v>
-      </c>
-      <c r="G42" s="34">
-        <f ca="1">IF(F42 &lt; P29, (IF(F42&lt;0, P28, P28-F42)), 0 )</f>
-        <v>639</v>
-      </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-    </row>
-    <row r="43" spans="1:17" ht="20" thickBot="1">
-      <c r="A43" s="27">
+        <v>358</v>
+      </c>
+      <c r="J42" s="45"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+    </row>
+    <row r="43" spans="1:18" ht="19">
+      <c r="A43" s="26">
         <v>39</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="C43" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>346</v>
+        <v>745</v>
+      </c>
+      <c r="E43" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>369</v>
       </c>
       <c r="F43" s="1">
+        <f ca="1">B43-E43+D43</f>
+        <v>824</v>
+      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="G43" s="34"/>
-      <c r="L43" s="49"/>
-    </row>
-    <row r="44" spans="1:17" ht="20" thickBot="1">
-      <c r="A44" s="47">
+        <v>369</v>
+      </c>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" spans="1:18" ht="20" thickBot="1">
+      <c r="A44" s="42">
         <v>40</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>824</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>639</v>
-      </c>
-      <c r="E44" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>337</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>346</v>
       </c>
       <c r="F44" s="1">
+        <f ca="1">B44-E44+D44</f>
+        <v>478</v>
+      </c>
+      <c r="G44" s="109">
+        <f ca="1">IF(F44 &lt; Q29, (IF(F44&lt;0, Q28, Q28-F44)), 0 )</f>
+        <v>715</v>
+      </c>
+      <c r="H44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="G44" s="34">
-        <f ca="1">IF(F44 &lt; P29, (IF(F44&lt;0, P28, P28-F44)), 0 )</f>
-        <v>683</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="43">
-        <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>13.52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="19">
-      <c r="A45" s="27">
+        <v>346</v>
+      </c>
+      <c r="J44" s="106"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="45" spans="1:18" ht="20" thickBot="1">
+      <c r="A45" s="26">
         <v>41</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C45" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>683</v>
-      </c>
-      <c r="E45" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>322</v>
+        <v>715</v>
+      </c>
+      <c r="E45" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>328</v>
       </c>
       <c r="F45" s="1">
+        <f ca="1">B45-E45+D45</f>
+        <v>865</v>
+      </c>
+      <c r="G45" s="109"/>
+      <c r="H45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>811</v>
-      </c>
-      <c r="G45" s="34"/>
-    </row>
-    <row r="46" spans="1:17" ht="19">
-      <c r="A46" s="47">
+        <v>328</v>
+      </c>
+      <c r="J45" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="40">
+        <f ca="1">SUM(H5:H54) * K15</f>
+        <v>2617320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="19">
+      <c r="A46" s="42">
         <v>42</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>811</v>
+        <v>865</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>354</v>
+      <c r="E46" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>315</v>
       </c>
       <c r="F46" s="1">
+        <f ca="1">B46-E46+D46</f>
+        <v>550</v>
+      </c>
+      <c r="G46" s="109">
+        <f ca="1">IF(F46 &lt; Q29, (IF(F46&lt;0, Q28, Q28-F46)), 0 )</f>
+        <v>643</v>
+      </c>
+      <c r="H46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>457</v>
-      </c>
-      <c r="G46" s="34">
-        <f ca="1">IF(F46 &lt; P29, (IF(F46&lt;0, P28, P28-F46)), 0 )</f>
-        <v>676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20" thickBot="1">
-      <c r="A47" s="27">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="20" thickBot="1">
+      <c r="A47" s="26">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="C47" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>353</v>
+        <v>643</v>
+      </c>
+      <c r="E47" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>368</v>
       </c>
       <c r="F47" s="1">
+        <f ca="1">B47-E47+D47</f>
+        <v>825</v>
+      </c>
+      <c r="G47" s="109"/>
+      <c r="H47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="G47" s="34"/>
-    </row>
-    <row r="48" spans="1:17" ht="20" thickBot="1">
-      <c r="A48" s="47">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="20" thickBot="1">
+      <c r="A48" s="42">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>825</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>676</v>
-      </c>
-      <c r="E48" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>349</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>381</v>
       </c>
       <c r="F48" s="1">
+        <f ca="1">B48-E48+D48</f>
+        <v>444</v>
+      </c>
+      <c r="G48" s="109">
+        <f ca="1">IF(F48 &lt; Q29, (IF(F48&lt;0, Q28, Q28-F48)), 0 )</f>
+        <v>749</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>431</v>
-      </c>
-      <c r="G48" s="34">
-        <f ca="1">IF(F48 &lt; P29, (IF(F48&lt;0, P28, P28-F48)), 0 )</f>
-        <v>702</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="21">
-        <f ca="1">(J18*J33)+(J21*J35)+(J23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>32903.15</v>
-      </c>
-      <c r="K48" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="L48" s="21">
-        <f ca="1">1-(J35/(COUNTIF(G5:G54,"&gt;0")))</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="20" thickBot="1">
-      <c r="A49" s="27">
+        <v>381</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="21">
+        <f ca="1">(K18*K33)+(K21*K35)+(K23*COUNTIF(G5:G54,"&gt;0"))</f>
+        <v>34015.57</v>
+      </c>
+      <c r="L48" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="21">
+        <f ca="1">1-(K35/(COUNTIF(G5:G54,"&gt;0")))</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="19">
+      <c r="A49" s="26">
         <v>45</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C49" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.4</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>702</v>
-      </c>
-      <c r="E49" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>295</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>330</v>
       </c>
       <c r="F49" s="1">
+        <f ca="1">B49-E49+D49</f>
+        <v>114</v>
+      </c>
+      <c r="G49" s="109"/>
+      <c r="H49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>838</v>
-      </c>
-      <c r="G49" s="34"/>
-    </row>
-    <row r="50" spans="1:16" ht="19">
-      <c r="A50" s="47">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="19">
+      <c r="A50" s="42">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>838</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>304</v>
+        <v>749</v>
+      </c>
+      <c r="E50" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>317</v>
       </c>
       <c r="F50" s="1">
+        <f ca="1">B50-E50+D50</f>
+        <v>546</v>
+      </c>
+      <c r="G50" s="109">
+        <f ca="1">IF(F50 &lt; Q29, (IF(F50&lt;0, Q28, Q28-F50)), 0 )</f>
+        <v>647</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>534</v>
-      </c>
-      <c r="G50" s="34">
-        <f ca="1">IF(F50 &lt; P29, (IF(F50&lt;0, P28, P28-F50)), 0 )</f>
-        <v>599</v>
-      </c>
-      <c r="I50" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="87"/>
-      <c r="L50" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="M50" s="89"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="89"/>
-    </row>
-    <row r="51" spans="1:16" ht="19">
-      <c r="A51" s="27">
+        <v>317</v>
+      </c>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+    </row>
+    <row r="51" spans="1:17" ht="19">
+      <c r="A51" s="26">
         <v>47</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C51" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>599</v>
-      </c>
-      <c r="E51" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>384</v>
+        <v>647</v>
+      </c>
+      <c r="E51" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>352</v>
       </c>
       <c r="F51" s="1">
+        <f ca="1">B51-E51+D51</f>
+        <v>841</v>
+      </c>
+      <c r="G51" s="109"/>
+      <c r="H51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>749</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="I51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="22">
-        <f>INT(M56 + M57*M60)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="54">
-        <f>INT(O56 + O57*O60)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="52"/>
-      <c r="O51" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="54">
-        <f>INT(Q56 + Q57*Q60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="20" thickBot="1">
-      <c r="A52" s="47">
+        <v>352</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+    </row>
+    <row r="52" spans="1:17" ht="19">
+      <c r="A52" s="42">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
+      <c r="E52" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
         <v>377</v>
       </c>
       <c r="F52" s="1">
+        <f ca="1">B52-E52+D52</f>
+        <v>464</v>
+      </c>
+      <c r="G52" s="109">
+        <f ca="1">IF(F52 &lt; Q29, (IF(F52&lt;0, Q28, Q28-F52)), 0 )</f>
+        <v>729</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>372</v>
-      </c>
-      <c r="G52" s="34">
-        <f ca="1">IF(F52 &lt; P29, (IF(F52&lt;0, P28, P28-F52)), 0 )</f>
-        <v>761</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="23">
-        <f>IF(INT(J51-207.456) &lt; 0, 0, INT(J51-207.456) )</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="56">
-        <f>IF(INT(M51-207.456) &lt; 0, 0, INT(M51-207.456) )</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="52"/>
-      <c r="O52" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" s="56">
-        <f>IF(INT(P51-207.456) &lt; 0, 0, INT(P51-207.456) )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="19">
-      <c r="A53" s="27">
+        <v>377</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+    </row>
+    <row r="53" spans="1:17" ht="19">
+      <c r="A53" s="26">
         <v>49</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="C53" s="1">
-        <f ca="1">PROB(I11:I12,J11:J12,RANDBETWEEN(1,2))</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="D53" s="1">
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="31">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>345</v>
+        <v>729</v>
+      </c>
+      <c r="E53" s="30">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>302</v>
       </c>
       <c r="F53" s="1">
+        <f ca="1">B53-E53+D53</f>
+        <v>891</v>
+      </c>
+      <c r="G53" s="109"/>
+      <c r="H53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="G53" s="34"/>
-    </row>
-    <row r="54" spans="1:16" ht="20" thickBot="1">
-      <c r="A54" s="48">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="20" thickBot="1">
+      <c r="A54" s="43">
         <v>50</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>891</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <f ca="1">IF(C53 = 0.4, G52, 0)</f>
-        <v>761</v>
-      </c>
-      <c r="E54" s="32">
-        <f ca="1">INT(_xlfn.NORM.INV(RAND(), J8, K8))</f>
-        <v>325</v>
+        <v>0</v>
+      </c>
+      <c r="E54" s="31">
+        <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
+        <v>369</v>
       </c>
       <c r="F54" s="2">
+        <f ca="1">B54-E54+D54</f>
+        <v>522</v>
+      </c>
+      <c r="G54" s="112">
+        <f ca="1">IF(F54 &lt; Q29, (IF(F54&lt;0, Q28, Q28-F54)), 0 )</f>
+        <v>671</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>463</v>
-      </c>
-      <c r="G54" s="35">
-        <f ca="1">IF(F54 &lt; P29, (IF(F54&lt;0, P28, P28-F54)), 0 )</f>
-        <v>670</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-    </row>
-    <row r="59" spans="1:16" ht="19">
-      <c r="A59" s="63"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="51"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="51"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="51"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="51"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="51"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+    </row>
+    <row r="59" spans="1:17" ht="19">
+      <c r="A59" s="58"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="46"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="46"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="46"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="46"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="51"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="51"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="51"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="51"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="51"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="51"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="51"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="51"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="51"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="51"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="51"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I27:J27"/>
+  <mergeCells count="10">
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3440,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3452,1581 +3713,2149 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="15" width="15.83203125" customWidth="1"/>
+    <col min="9" max="18" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="58" customHeight="1" thickBot="1">
-      <c r="I1" s="71" t="s">
+    <row r="1" spans="1:18" ht="58" customHeight="1" thickBot="1">
+      <c r="I1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="M1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" thickBot="1">
+      <c r="H2" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="71" t="s">
+      <c r="O2" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
-      <c r="H2" s="100" t="s">
+      <c r="R2" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-    </row>
-    <row r="4" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A4" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="74">
+      <c r="G3" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+    </row>
+    <row r="4" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A4" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="66">
         <f>I29</f>
         <v>33454.039199999999</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="66">
         <f>I59</f>
         <v>0.99040000000000006</v>
       </c>
-      <c r="H4" s="67">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38">
+      <c r="H4" s="59">
+        <v>1</v>
+      </c>
+      <c r="I4" s="34">
         <v>33078.33</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="34">
         <v>31930.43</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="34">
         <v>31460.7</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="34">
         <v>31515.03</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="34">
         <v>32573.86</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="34">
         <v>32139.61</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="34">
         <v>33877.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A5" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="74">
+      <c r="P4" s="34">
+        <v>31621.75</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>31482.79</v>
+      </c>
+      <c r="R4" s="34">
+        <v>32746.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A5" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="66">
         <f>J29</f>
         <v>32289.110400000005</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="75">
         <f>J59</f>
         <v>0.96640000000000026</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="60">
         <v>2</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="35">
         <v>32609.34</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="35">
         <v>32539.120000000003</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="35">
         <v>31895.690000000002</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="35">
         <v>33303.4</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="35">
         <v>32922</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="35">
         <v>33130.44</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="35">
         <v>32244.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A6" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="74">
+      <c r="P5" s="35">
+        <v>34311.599999999999</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>31305.11</v>
+      </c>
+      <c r="R5" s="35">
+        <v>31188.239999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A6" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="66">
         <f>K29</f>
         <v>31354.883200000004</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="76">
         <f>K59</f>
         <v>0.86880000000000024</v>
       </c>
-      <c r="D6" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="99"/>
-      <c r="H6" s="68">
+      <c r="D6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="H6" s="60">
         <v>3</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <v>34328.230000000003</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <v>33026.22</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="35">
         <v>30000.880000000001</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="35">
         <v>31688.730000000003</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="35">
         <v>32400.16</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="35">
         <v>32278.57</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="35">
         <v>31570.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A7" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="74">
+      <c r="P6" s="35">
+        <v>33546.58</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>32539.86</v>
+      </c>
+      <c r="R6" s="35">
+        <v>32403.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A7" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="66">
         <f>L29</f>
         <v>32361.517599999992</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="66">
         <f>L59</f>
         <v>0.97440000000000027</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="60">
         <v>4</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="35">
         <v>32713.56</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="35">
         <v>32730.190000000002</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="35">
         <v>31250.78</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="35">
         <v>31480.29</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="35">
         <v>32052.760000000002</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="35">
         <v>33060.959999999999</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="35">
         <v>32156.239999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A8" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="85">
+      <c r="P7" s="35">
+        <v>33321.51</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>33286.770000000004</v>
+      </c>
+      <c r="R7" s="35">
+        <v>30096.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A8" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="77">
         <f>M29</f>
         <v>32339.889999999996</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="66">
         <f>M59</f>
         <v>0.96960000000000024</v>
       </c>
-      <c r="H8" s="68">
+      <c r="D8" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="91"/>
+      <c r="H8" s="60">
         <v>5</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <v>33182.550000000003</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="35">
         <v>33199.919999999998</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="35">
         <v>30693.46</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="35">
         <v>32173.61</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="35">
         <v>32330.68</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="35">
         <v>31774.84</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="35">
         <v>31635.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A9" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="74">
+      <c r="P8" s="35">
+        <v>32887.26</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>32850.300000000003</v>
+      </c>
+      <c r="R8" s="35">
+        <v>30614.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A9" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="99">
         <f>N29</f>
         <v>32223.104400000015</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="99">
         <f>N59</f>
         <v>0.96640000000000015</v>
       </c>
-      <c r="H9" s="68">
+      <c r="D9" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="H9" s="60">
         <v>6</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <v>32591.97</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <v>31564.92</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="35">
         <v>31947.800000000003</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="35">
         <v>33095.699999999997</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="35">
         <v>31914.54</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="35">
         <v>32122.239999999998</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="35">
         <v>32139.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="50" customHeight="1" thickBot="1">
-      <c r="A10" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="74">
+      <c r="P9" s="35">
+        <v>33425.730000000003</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>29768.16</v>
+      </c>
+      <c r="R9" s="35">
+        <v>32226.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A10" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="66">
         <f>O29</f>
         <v>32233.172400000003</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="66">
         <f>O59</f>
         <v>0.95640400000000014</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="60">
         <v>7</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="35">
         <v>34085.79</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <v>31271.11</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <v>30955.489999999998</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="35">
         <v>30577.05</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="35">
         <v>33738.39</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="35">
         <v>32469.64</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="35">
         <v>31707.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="H11" s="68">
+      <c r="P10" s="35">
+        <v>32226.46</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>32539.86</v>
+      </c>
+      <c r="R10" s="35">
+        <v>32264.440000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A11" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="66">
+        <f>P29</f>
+        <v>32852.457600000002</v>
+      </c>
+      <c r="C11" s="66">
+        <f>P59</f>
+        <v>0.96106400000000025</v>
+      </c>
+      <c r="H11" s="60">
         <v>8</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <v>33685.54</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <v>31670.620000000003</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="35">
         <v>31755.989999999998</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="35">
         <v>31809.58</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="35">
         <v>32175.09</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="35">
         <v>32086.760000000002</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="35">
         <v>32295.200000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="H12" s="68">
+      <c r="P11" s="35">
+        <v>33006.630000000005</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>34137.9</v>
+      </c>
+      <c r="R11" s="35">
+        <v>31482.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A12" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="66">
+        <f>Q29</f>
+        <v>32566.412400000001</v>
+      </c>
+      <c r="C12" s="66">
+        <f>Q59</f>
+        <v>0.96015600000000001</v>
+      </c>
+      <c r="H12" s="60">
         <v>9</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <v>35040.400000000001</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <v>32852.520000000004</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="35">
         <v>30713.79</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="35">
         <v>31914.54</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="35">
         <v>33459.730000000003</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="35">
         <v>31236.370000000003</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="35">
         <v>32190.980000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="68">
+      <c r="P12" s="35">
+        <v>32921.26</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>32124</v>
+      </c>
+      <c r="R12" s="35">
+        <v>32487.010000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="50" customHeight="1" thickBot="1">
+      <c r="A13" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="98">
+        <f>R29</f>
+        <v>31406.488400000002</v>
+      </c>
+      <c r="C13" s="76">
+        <f>R59</f>
+        <v>0.9185080000000001</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="H13" s="60">
         <v>10</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>33304.14</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <v>30888.97</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="35">
         <v>31826.95</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="35">
         <v>32765.67</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="35">
         <v>31896.43</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="35">
         <v>32452.27</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="35">
         <v>33042.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="H14" s="68">
+      <c r="P13" s="35">
+        <v>33547.32</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>31896.43</v>
+      </c>
+      <c r="R13" s="35">
+        <v>31361.200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" thickBot="1">
+      <c r="H14" s="60">
         <v>11</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>33113.07</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <v>32209.09</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="35">
         <v>31060.45</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="35">
         <v>31653.989999999998</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="35">
         <v>31808.1</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="35">
         <v>33338.14</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="35">
         <v>32418.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="H15" s="68">
+      <c r="P14" s="35">
+        <v>33963.46</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>32977.35</v>
+      </c>
+      <c r="R14" s="35">
+        <v>31642.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="26" customHeight="1" thickBot="1">
+      <c r="A15" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="66">
+        <f>MIN(B4,B5,B7,B8,B9,B10,B11,B12)</f>
+        <v>32223.104400000015</v>
+      </c>
+      <c r="H15" s="60">
         <v>12</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <v>33164.44</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="35">
         <v>31844.32</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="35">
         <v>31528.7</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="35">
         <v>32087.5</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="35">
         <v>32104.870000000003</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="35">
         <v>32035.39</v>
       </c>
-      <c r="O15" s="65">
+      <c r="O15" s="35">
         <v>31447.31</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="H16" s="68">
+      <c r="P15" s="35">
+        <v>33042.85</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>31760.71</v>
+      </c>
+      <c r="R15" s="35">
+        <v>32037.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="H16" s="60">
         <v>13</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <v>32922</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <v>31410.07</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="35">
         <v>32138.870000000003</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="35">
         <v>33026.22</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="35">
         <v>32990.74</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="35">
         <v>31897.17</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="35">
         <v>32591.97</v>
       </c>
-    </row>
-    <row r="17" spans="7:15">
-      <c r="H17" s="68">
+      <c r="P16" s="35">
+        <v>32177.59</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>32595.21</v>
+      </c>
+      <c r="R16" s="35">
+        <v>31294.22</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18">
+      <c r="H17" s="60">
         <v>14</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <v>33773.130000000005</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <v>33286.03</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="35">
         <v>31250.04</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="35">
         <v>34032.94</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="35">
         <v>32469.64</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="35">
         <v>31271.11</v>
       </c>
-      <c r="O17" s="65">
+      <c r="O17" s="35">
         <v>32991.480000000003</v>
       </c>
-    </row>
-    <row r="18" spans="7:15">
-      <c r="H18" s="68">
+      <c r="P17" s="35">
+        <v>31169.39</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>34190.01</v>
+      </c>
+      <c r="R17" s="35">
+        <v>28048.81</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18">
+      <c r="H18" s="60">
         <v>15</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="35">
         <v>35544.870000000003</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <v>33234.660000000003</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="35">
         <v>31999.91</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="35">
         <v>32122.980000000003</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="35">
         <v>31792.21</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="35">
         <v>31496.18</v>
       </c>
-      <c r="O18" s="65">
+      <c r="O18" s="35">
         <v>32694.71</v>
       </c>
-    </row>
-    <row r="19" spans="7:15">
-      <c r="H19" s="68">
+      <c r="P18" s="35">
+        <v>31721.989999999998</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>30994.95</v>
+      </c>
+      <c r="R18" s="35">
+        <v>29593.72</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18">
+      <c r="H19" s="60">
         <v>16</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <v>33477.839999999997</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <v>31497.66</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="35">
         <v>30661.68</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="35">
         <v>32764.93</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="35">
         <v>32539.86</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="35">
         <v>31376.07</v>
       </c>
-      <c r="O19" s="65">
+      <c r="O19" s="35">
         <v>32574.6</v>
       </c>
-    </row>
-    <row r="20" spans="7:15">
-      <c r="H20" s="68">
+      <c r="P19" s="35">
+        <v>32539.86</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>31934.41</v>
+      </c>
+      <c r="R19" s="35">
+        <v>32141.370000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="7:18">
+      <c r="H20" s="60">
         <v>17</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="35">
         <v>32644.080000000002</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <v>32502.9</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="35">
         <v>31287.739999999998</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="35">
         <v>33511.839999999997</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="35">
         <v>32659.230000000003</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="35">
         <v>32799.67</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="35">
         <v>32400.16</v>
       </c>
-    </row>
-    <row r="21" spans="7:15">
-      <c r="H21" s="68">
+      <c r="P20" s="35">
+        <v>33285.29</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>33859.980000000003</v>
+      </c>
+      <c r="R20" s="35">
+        <v>32329.200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="7:18">
+      <c r="H21" s="60">
         <v>18</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="35">
         <v>33025.480000000003</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="35">
         <v>32087.5</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="35">
         <v>31010.560000000001</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="35">
         <v>34190.01</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="35">
         <v>32661.45</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="35">
         <v>31947.800000000003</v>
       </c>
-      <c r="O21" s="65">
+      <c r="O21" s="35">
         <v>32313.31</v>
       </c>
-    </row>
-    <row r="22" spans="7:15">
-      <c r="H22" s="68">
+      <c r="P21" s="35">
+        <v>32887.26</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>34085.050000000003</v>
+      </c>
+      <c r="R21" s="35">
+        <v>32577.1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:18">
+      <c r="H22" s="60">
         <v>19</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="35">
         <v>33252.03</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="35">
         <v>34068.42</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="35">
         <v>31478.81</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="35">
         <v>32190.239999999998</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="35">
         <v>31514.29</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="35">
         <v>33268.660000000003</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="35">
         <v>31271.85</v>
       </c>
-    </row>
-    <row r="23" spans="7:15">
-      <c r="H23" s="68">
+      <c r="P22" s="35">
+        <v>31792.95</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>33790.5</v>
+      </c>
+      <c r="R22" s="35">
+        <v>28969.88</v>
+      </c>
+    </row>
+    <row r="23" spans="7:18">
+      <c r="H23" s="60">
         <v>20</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="35">
         <v>32626.71</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <v>32609.34</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="35">
         <v>32102.65</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="35">
         <v>32313.31</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="35">
         <v>32105.61</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="35">
         <v>32435.64</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="35">
         <v>31130.67</v>
       </c>
-    </row>
-    <row r="24" spans="7:15">
-      <c r="H24" s="68">
+      <c r="P23" s="35">
+        <v>33076.85</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>33008.85</v>
+      </c>
+      <c r="R23" s="35">
+        <v>32368.66</v>
+      </c>
+    </row>
+    <row r="24" spans="7:18">
+      <c r="H24" s="60">
         <v>21</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="35">
         <v>33495.21</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="35">
         <v>31410.81</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="35">
         <v>32800.410000000003</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="35">
         <v>32505.120000000003</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="35">
         <v>30941.82</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="35">
         <v>32314.050000000003</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="35">
         <v>31548.29</v>
       </c>
-    </row>
-    <row r="25" spans="7:15">
-      <c r="H25" s="68">
+      <c r="P24" s="35">
+        <v>33025.480000000003</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>33547.32</v>
+      </c>
+      <c r="R24" s="35">
+        <v>31190</v>
+      </c>
+    </row>
+    <row r="25" spans="7:18">
+      <c r="H25" s="60">
         <v>22</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="35">
         <v>33964.199999999997</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="35">
         <v>31635.88</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="35">
         <v>32417.53</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="35">
         <v>32331.42</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="35">
         <v>32418.27</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="35">
         <v>32748.300000000003</v>
       </c>
-      <c r="O25" s="65">
+      <c r="O25" s="35">
         <v>32036.13</v>
       </c>
-    </row>
-    <row r="26" spans="7:15">
-      <c r="H26" s="68">
+      <c r="P25" s="35">
+        <v>32886.520000000004</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>33181.81</v>
+      </c>
+      <c r="R25" s="35">
+        <v>32279.31</v>
+      </c>
+    </row>
+    <row r="26" spans="7:18">
+      <c r="H26" s="60">
         <v>23</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="35">
         <v>32765.67</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="35">
         <v>32383.53</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="35">
         <v>30555.24</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="35">
         <v>31009.82</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="35">
         <v>32712.82</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="35">
         <v>31981.800000000003</v>
       </c>
-      <c r="O26" s="65">
+      <c r="O26" s="35">
         <v>32003.15</v>
       </c>
-    </row>
-    <row r="27" spans="7:15">
-      <c r="H27" s="68">
+      <c r="P26" s="35">
+        <v>32455.510000000002</v>
+      </c>
+      <c r="Q26" s="35">
+        <v>32906.39</v>
+      </c>
+      <c r="R26" s="35">
+        <v>30769.88</v>
+      </c>
+    </row>
+    <row r="27" spans="7:18">
+      <c r="H27" s="60">
         <v>24</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="35">
         <v>34085.79</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="35">
         <v>32782.300000000003</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="35">
         <v>30436.61</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="35">
         <v>32278.57</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="35">
         <v>32157.72</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="35">
         <v>31966.65</v>
       </c>
-      <c r="O27" s="65">
+      <c r="O27" s="35">
         <v>31670.620000000003</v>
       </c>
-    </row>
-    <row r="28" spans="7:15" ht="16" thickBot="1">
-      <c r="H28" s="69">
+      <c r="P27" s="35">
+        <v>34155.270000000004</v>
+      </c>
+      <c r="Q27" s="35">
+        <v>31100.65</v>
+      </c>
+      <c r="R27" s="35">
+        <v>30718.510000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="7:18" ht="16" thickBot="1">
+      <c r="H28" s="61">
         <v>25</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="36">
         <v>33876.61</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="36">
         <v>32591.230000000003</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="36">
         <v>30641.35</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="36">
         <v>32695.45</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="36">
         <v>32156.980000000003</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N28" s="36">
         <v>31949.279999999999</v>
       </c>
-      <c r="O28" s="65">
+      <c r="O28" s="35">
         <v>33876.61</v>
       </c>
-    </row>
-    <row r="29" spans="7:15" ht="16" thickBot="1">
-      <c r="G29" s="49"/>
-      <c r="H29" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="78">
+      <c r="P28" s="36">
+        <v>32315.07</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>32295.940000000002</v>
+      </c>
+      <c r="R28" s="36">
+        <v>32330.68</v>
+      </c>
+    </row>
+    <row r="29" spans="7:18" ht="16" thickBot="1">
+      <c r="G29" s="44"/>
+      <c r="H29" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="70">
         <f t="shared" ref="I29:N29" si="0">AVERAGE(I4:I28)</f>
         <v>33454.039199999999</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="70">
         <f t="shared" si="0"/>
         <v>32289.110400000005</v>
       </c>
-      <c r="K29" s="78">
+      <c r="K29" s="70">
         <f t="shared" si="0"/>
         <v>31354.883200000004</v>
       </c>
-      <c r="L29" s="78">
+      <c r="L29" s="70">
         <f t="shared" si="0"/>
         <v>32361.517599999992</v>
       </c>
-      <c r="M29" s="78">
+      <c r="M29" s="70">
         <f t="shared" si="0"/>
         <v>32339.889999999996</v>
       </c>
-      <c r="N29" s="78">
+      <c r="N29" s="70">
         <f t="shared" si="0"/>
         <v>32223.104400000015</v>
       </c>
-      <c r="O29" s="78">
+      <c r="O29" s="70">
         <f>AVERAGE(O4:O28)</f>
         <v>32233.172400000003</v>
       </c>
-    </row>
-    <row r="30" spans="7:15">
-      <c r="G30" s="49"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="49"/>
-    </row>
-    <row r="31" spans="7:15" ht="16" thickBot="1">
-      <c r="G31" s="49"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="7:15" ht="15" customHeight="1">
-      <c r="H32" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="96" t="s">
+      <c r="P29" s="70">
+        <f>AVERAGE(P4:P28)</f>
+        <v>32852.457600000002</v>
+      </c>
+      <c r="Q29" s="70">
+        <f>AVERAGE(Q4:Q28)</f>
+        <v>32566.412400000001</v>
+      </c>
+      <c r="R29" s="70">
+        <f>AVERAGE(R4:R28)</f>
+        <v>31406.488400000002</v>
+      </c>
+    </row>
+    <row r="30" spans="7:18">
+      <c r="G30" s="44"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="7:18" ht="16" thickBot="1">
+      <c r="G31" s="44"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="7:18" ht="15" customHeight="1">
+      <c r="H32" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="96" t="s">
+      <c r="P32" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" s="96" t="s">
+      <c r="Q32" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="7:15" ht="49" thickBot="1">
-      <c r="G33" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-    </row>
-    <row r="34" spans="7:15">
-      <c r="H34" s="67">
-        <v>1</v>
-      </c>
-      <c r="I34" s="38">
-        <v>1</v>
-      </c>
-      <c r="J34" s="38">
+    </row>
+    <row r="33" spans="7:18" ht="49" thickBot="1">
+      <c r="G33" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="93"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+    </row>
+    <row r="34" spans="7:18">
+      <c r="H34" s="59">
+        <v>1</v>
+      </c>
+      <c r="I34" s="34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="34">
         <v>0.92</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="34">
         <v>0.88</v>
       </c>
-      <c r="L34" s="38">
-        <v>1</v>
-      </c>
-      <c r="M34" s="38">
-        <v>0.96</v>
-      </c>
-      <c r="N34" s="38">
-        <v>0.96</v>
-      </c>
-      <c r="O34" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="7:15">
-      <c r="H35" s="68">
+      <c r="L34" s="34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0.96</v>
+      </c>
+      <c r="O34" s="34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="96">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="R34" s="34">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="7:18">
+      <c r="H35" s="60">
         <v>2</v>
       </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K35" s="39">
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K35" s="35">
         <v>0.92</v>
       </c>
-      <c r="L35" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M35" s="39">
-        <v>1</v>
-      </c>
-      <c r="N35" s="39">
-        <v>1</v>
-      </c>
-      <c r="O35" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="7:15">
-      <c r="H36" s="68">
+      <c r="L35" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M35" s="35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="35">
+        <v>1</v>
+      </c>
+      <c r="P35" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="R35" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:18">
+      <c r="H36" s="60">
         <v>3</v>
       </c>
-      <c r="I36" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="J36" s="39">
-        <v>1</v>
-      </c>
-      <c r="K36" s="39">
+      <c r="I36" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J36" s="35">
+        <v>1</v>
+      </c>
+      <c r="K36" s="35">
         <v>0.84</v>
       </c>
-      <c r="L36" s="39">
-        <v>1</v>
-      </c>
-      <c r="M36" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N36" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O36" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="7:15">
-      <c r="H37" s="68">
+      <c r="L36" s="35">
+        <v>1</v>
+      </c>
+      <c r="M36" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N36" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O36" s="35">
+        <v>1</v>
+      </c>
+      <c r="P36" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>1</v>
+      </c>
+      <c r="R36" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="7:18">
+      <c r="H37" s="60">
         <v>4</v>
       </c>
-      <c r="I37" s="39">
-        <v>1</v>
-      </c>
-      <c r="J37" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K37" s="39">
+      <c r="I37" s="35">
+        <v>1</v>
+      </c>
+      <c r="J37" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K37" s="35">
         <v>0.8</v>
       </c>
-      <c r="L37" s="39">
-        <v>1</v>
-      </c>
-      <c r="M37" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N37" s="39">
-        <v>1</v>
-      </c>
-      <c r="O37" s="65">
+      <c r="L37" s="35">
+        <v>1</v>
+      </c>
+      <c r="M37" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N37" s="35">
+        <v>1</v>
+      </c>
+      <c r="O37" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="38" spans="7:15">
-      <c r="H38" s="68">
+      <c r="P37" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>1</v>
+      </c>
+      <c r="R37" s="35">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="7:18">
+      <c r="H38" s="60">
         <v>5</v>
       </c>
-      <c r="I38" s="39">
-        <v>1</v>
-      </c>
-      <c r="J38" s="39">
-        <v>1</v>
-      </c>
-      <c r="K38" s="39">
+      <c r="I38" s="35">
+        <v>1</v>
+      </c>
+      <c r="J38" s="35">
+        <v>1</v>
+      </c>
+      <c r="K38" s="35">
         <v>0.72</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="35">
         <v>0.92</v>
       </c>
-      <c r="M38" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N38" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O38" s="65">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="39" spans="7:15">
-      <c r="H39" s="68">
+      <c r="M38" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N38" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O38" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="P38" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>0.88</v>
+      </c>
+      <c r="R38" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="7:18">
+      <c r="H39" s="60">
         <v>6</v>
       </c>
-      <c r="I39" s="39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="39">
+      <c r="I39" s="35">
+        <v>1</v>
+      </c>
+      <c r="J39" s="35">
         <v>0.88</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="35">
         <v>0.92</v>
       </c>
-      <c r="L39" s="39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O39" s="65">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="40" spans="7:15">
-      <c r="H40" s="68">
+      <c r="L39" s="35">
+        <v>1</v>
+      </c>
+      <c r="M39" s="35">
+        <v>1</v>
+      </c>
+      <c r="N39" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O39" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="P39" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="35">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="R39" s="35">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="40" spans="7:18">
+      <c r="H40" s="60">
         <v>7</v>
       </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K40" s="39">
+      <c r="I40" s="35">
+        <v>1</v>
+      </c>
+      <c r="J40" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K40" s="35">
         <v>0.8</v>
       </c>
-      <c r="L40" s="39">
-        <v>1</v>
-      </c>
-      <c r="M40" s="39">
-        <v>1</v>
-      </c>
-      <c r="N40" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O40" s="65">
+      <c r="L40" s="35">
+        <v>1</v>
+      </c>
+      <c r="M40" s="35">
+        <v>1</v>
+      </c>
+      <c r="N40" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O40" s="35">
         <v>0.91669999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="7:15">
-      <c r="H41" s="68">
+      <c r="P40" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>1</v>
+      </c>
+      <c r="R40" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="7:18">
+      <c r="H41" s="60">
         <v>8</v>
       </c>
-      <c r="I41" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="J41" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K41" s="39">
+      <c r="I41" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J41" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K41" s="35">
         <v>0.88</v>
       </c>
-      <c r="L41" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M41" s="39">
-        <v>1</v>
-      </c>
-      <c r="N41" s="39">
+      <c r="L41" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M41" s="35">
+        <v>1</v>
+      </c>
+      <c r="N41" s="35">
         <v>0.92</v>
       </c>
-      <c r="O41" s="65">
+      <c r="O41" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="42" spans="7:15">
-      <c r="H42" s="68">
+      <c r="P41" s="35">
+        <v>0.88</v>
+      </c>
+      <c r="Q41" s="35">
+        <v>1</v>
+      </c>
+      <c r="R41" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="7:18">
+      <c r="H42" s="60">
         <v>9</v>
       </c>
-      <c r="I42" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="J42" s="39">
-        <v>1</v>
-      </c>
-      <c r="K42" s="39">
+      <c r="I42" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J42" s="35">
+        <v>1</v>
+      </c>
+      <c r="K42" s="35">
         <v>0.88</v>
       </c>
-      <c r="L42" s="39">
-        <v>1</v>
-      </c>
-      <c r="M42" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N42" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O42" s="65">
+      <c r="L42" s="35">
+        <v>1</v>
+      </c>
+      <c r="M42" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N42" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O42" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="43" spans="7:15">
-      <c r="H43" s="68">
+      <c r="P42" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>0.875</v>
+      </c>
+      <c r="R42" s="35">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="43" spans="7:18">
+      <c r="H43" s="60">
         <v>10</v>
       </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K43" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="L43" s="39">
-        <v>1</v>
-      </c>
-      <c r="M43" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N43" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O43" s="65">
+      <c r="I43" s="35">
+        <v>1</v>
+      </c>
+      <c r="J43" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K43" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="L43" s="35">
+        <v>1</v>
+      </c>
+      <c r="M43" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N43" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O43" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="44" spans="7:15">
-      <c r="H44" s="68">
+      <c r="P43" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="R43" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="7:18">
+      <c r="H44" s="60">
         <v>11</v>
       </c>
-      <c r="I44" s="39">
-        <v>1</v>
-      </c>
-      <c r="J44" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K44" s="39">
+      <c r="I44" s="35">
+        <v>1</v>
+      </c>
+      <c r="J44" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K44" s="35">
         <v>0.84</v>
       </c>
-      <c r="L44" s="39">
-        <v>1</v>
-      </c>
-      <c r="M44" s="39">
+      <c r="L44" s="35">
+        <v>1</v>
+      </c>
+      <c r="M44" s="35">
         <v>0.88</v>
       </c>
-      <c r="N44" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O44" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="7:15">
-      <c r="H45" s="68">
+      <c r="N44" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O44" s="35">
+        <v>1</v>
+      </c>
+      <c r="P44" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>1</v>
+      </c>
+      <c r="R44" s="35">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="7:18">
+      <c r="H45" s="60">
         <v>12</v>
       </c>
-      <c r="I45" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="J45" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K45" s="39">
+      <c r="I45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K45" s="35">
         <v>0.8</v>
       </c>
-      <c r="L45" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M45" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N45" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O45" s="65">
+      <c r="L45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O45" s="35">
         <v>0.91669999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="7:15">
-      <c r="H46" s="68">
+      <c r="P45" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q45" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="R45" s="35">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="46" spans="7:18">
+      <c r="H46" s="60">
         <v>13</v>
       </c>
-      <c r="I46" s="39">
-        <v>1</v>
-      </c>
-      <c r="J46" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K46" s="39">
+      <c r="I46" s="35">
+        <v>1</v>
+      </c>
+      <c r="J46" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K46" s="35">
         <v>0.92</v>
       </c>
-      <c r="L46" s="39">
-        <v>1</v>
-      </c>
-      <c r="M46" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N46" s="39">
-        <v>1</v>
-      </c>
-      <c r="O46" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:15">
-      <c r="H47" s="68">
+      <c r="L46" s="35">
+        <v>1</v>
+      </c>
+      <c r="M46" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N46" s="35">
+        <v>1</v>
+      </c>
+      <c r="O46" s="35">
+        <v>1</v>
+      </c>
+      <c r="P46" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="Q46" s="35">
+        <v>1</v>
+      </c>
+      <c r="R46" s="35">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="7:18">
+      <c r="H47" s="60">
         <v>14</v>
       </c>
-      <c r="I47" s="39">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K47" s="39">
+      <c r="I47" s="35">
+        <v>1</v>
+      </c>
+      <c r="J47" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K47" s="35">
         <v>0.76</v>
       </c>
-      <c r="L47" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M47" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N47" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O47" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="7:15">
-      <c r="H48" s="68">
+      <c r="L47" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M47" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N47" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O47" s="35">
+        <v>1</v>
+      </c>
+      <c r="P47" s="35">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="Q47" s="35">
+        <v>1</v>
+      </c>
+      <c r="R47" s="35">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="7:18">
+      <c r="H48" s="60">
         <v>15</v>
       </c>
-      <c r="I48" s="39">
-        <v>1</v>
-      </c>
-      <c r="J48" s="39">
-        <v>1</v>
-      </c>
-      <c r="K48" s="39">
+      <c r="I48" s="35">
+        <v>1</v>
+      </c>
+      <c r="J48" s="35">
+        <v>1</v>
+      </c>
+      <c r="K48" s="35">
         <v>0.92</v>
       </c>
-      <c r="L48" s="39">
-        <v>1</v>
-      </c>
-      <c r="M48" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N48" s="39">
+      <c r="L48" s="35">
+        <v>1</v>
+      </c>
+      <c r="M48" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N48" s="35">
         <v>0.92</v>
       </c>
-      <c r="O48" s="65">
+      <c r="O48" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="49" spans="8:15">
-      <c r="H49" s="68">
+      <c r="P48" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="Q48" s="35">
+        <v>0.875</v>
+      </c>
+      <c r="R48" s="35">
+        <v>0.81810000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="8:18">
+      <c r="H49" s="60">
         <v>16</v>
       </c>
-      <c r="I49" s="39">
-        <v>1</v>
-      </c>
-      <c r="J49" s="39">
-        <v>1</v>
-      </c>
-      <c r="K49" s="39">
+      <c r="I49" s="35">
+        <v>1</v>
+      </c>
+      <c r="J49" s="35">
+        <v>1</v>
+      </c>
+      <c r="K49" s="35">
         <v>0.88</v>
       </c>
-      <c r="L49" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M49" s="39">
-        <v>1</v>
-      </c>
-      <c r="N49" s="39">
-        <v>1</v>
-      </c>
-      <c r="O49" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="8:15">
-      <c r="H50" s="68">
+      <c r="L49" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M49" s="35">
+        <v>1</v>
+      </c>
+      <c r="N49" s="35">
+        <v>1</v>
+      </c>
+      <c r="O49" s="35">
+        <v>1</v>
+      </c>
+      <c r="P49" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="R49" s="35">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="50" spans="8:18">
+      <c r="H50" s="60">
         <v>17</v>
       </c>
-      <c r="I50" s="39">
-        <v>1</v>
-      </c>
-      <c r="J50" s="39">
+      <c r="I50" s="35">
+        <v>1</v>
+      </c>
+      <c r="J50" s="35">
         <v>0.88</v>
       </c>
-      <c r="K50" s="39">
+      <c r="K50" s="35">
         <v>0.92</v>
       </c>
-      <c r="L50" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M50" s="39">
+      <c r="L50" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M50" s="35">
         <v>0.88</v>
       </c>
-      <c r="N50" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O50" s="65">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="51" spans="8:15">
-      <c r="H51" s="68">
+      <c r="N50" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O50" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="P50" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>1</v>
+      </c>
+      <c r="R50" s="35">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="51" spans="8:18">
+      <c r="H51" s="60">
         <v>18</v>
       </c>
-      <c r="I51" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="J51" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K51" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="L51" s="39">
-        <v>1</v>
-      </c>
-      <c r="M51" s="39">
-        <v>1</v>
-      </c>
-      <c r="N51" s="39">
+      <c r="I51" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="J51" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K51" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="L51" s="35">
+        <v>1</v>
+      </c>
+      <c r="M51" s="35">
+        <v>1</v>
+      </c>
+      <c r="N51" s="35">
         <v>0.92</v>
       </c>
-      <c r="O51" s="65">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="52" spans="8:15">
-      <c r="H52" s="68">
+      <c r="O51" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="P51" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="R51" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="8:18">
+      <c r="H52" s="60">
         <v>19</v>
       </c>
-      <c r="I52" s="39">
-        <v>1</v>
-      </c>
-      <c r="J52" s="39">
-        <v>1</v>
-      </c>
-      <c r="K52" s="39">
+      <c r="I52" s="35">
+        <v>1</v>
+      </c>
+      <c r="J52" s="35">
+        <v>1</v>
+      </c>
+      <c r="K52" s="35">
         <v>0.92</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="35">
         <v>0.88</v>
       </c>
-      <c r="M52" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N52" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="O52" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="8:15">
-      <c r="H53" s="68">
+      <c r="M52" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N52" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="O52" s="35">
+        <v>1</v>
+      </c>
+      <c r="P52" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="35">
+        <v>1</v>
+      </c>
+      <c r="R52" s="35">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="8:18">
+      <c r="H53" s="60">
         <v>20</v>
       </c>
-      <c r="I53" s="39">
-        <v>1</v>
-      </c>
-      <c r="J53" s="39">
-        <v>1</v>
-      </c>
-      <c r="K53" s="39">
+      <c r="I53" s="35">
+        <v>1</v>
+      </c>
+      <c r="J53" s="35">
+        <v>1</v>
+      </c>
+      <c r="K53" s="35">
         <v>0.84</v>
       </c>
-      <c r="L53" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M53" s="39">
-        <v>1</v>
-      </c>
-      <c r="N53" s="39">
-        <v>1</v>
-      </c>
-      <c r="O53" s="65">
+      <c r="L53" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M53" s="35">
+        <v>1</v>
+      </c>
+      <c r="N53" s="35">
+        <v>1</v>
+      </c>
+      <c r="O53" s="35">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="54" spans="8:15">
-      <c r="H54" s="68">
+      <c r="P53" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="Q53" s="35">
+        <v>1</v>
+      </c>
+      <c r="R53" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="8:18">
+      <c r="H54" s="60">
         <v>21</v>
       </c>
-      <c r="I54" s="39">
-        <v>1</v>
-      </c>
-      <c r="J54" s="39">
-        <v>1</v>
-      </c>
-      <c r="K54" s="39">
-        <v>1</v>
-      </c>
-      <c r="L54" s="39">
-        <v>1</v>
-      </c>
-      <c r="M54" s="39">
-        <v>1</v>
-      </c>
-      <c r="N54" s="39">
-        <v>1</v>
-      </c>
-      <c r="O54" s="65">
+      <c r="I54" s="35">
+        <v>1</v>
+      </c>
+      <c r="J54" s="35">
+        <v>1</v>
+      </c>
+      <c r="K54" s="35">
+        <v>1</v>
+      </c>
+      <c r="L54" s="35">
+        <v>1</v>
+      </c>
+      <c r="M54" s="35">
+        <v>1</v>
+      </c>
+      <c r="N54" s="35">
+        <v>1</v>
+      </c>
+      <c r="O54" s="35">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="55" spans="8:15">
-      <c r="H55" s="68">
+      <c r="P54" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q54" s="35">
+        <v>1</v>
+      </c>
+      <c r="R54" s="35">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="8:18">
+      <c r="H55" s="60">
         <v>22</v>
       </c>
-      <c r="I55" s="39">
-        <v>1</v>
-      </c>
-      <c r="J55" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K55" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="L55" s="39">
-        <v>1</v>
-      </c>
-      <c r="M55" s="39">
-        <v>1</v>
-      </c>
-      <c r="N55" s="39">
-        <v>1</v>
-      </c>
-      <c r="O55" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="8:15">
-      <c r="H56" s="68">
+      <c r="I55" s="35">
+        <v>1</v>
+      </c>
+      <c r="J55" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K55" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="L55" s="35">
+        <v>1</v>
+      </c>
+      <c r="M55" s="35">
+        <v>1</v>
+      </c>
+      <c r="N55" s="35">
+        <v>1</v>
+      </c>
+      <c r="O55" s="35">
+        <v>1</v>
+      </c>
+      <c r="P55" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="Q55" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="R55" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="8:18">
+      <c r="H56" s="60">
         <v>23</v>
       </c>
-      <c r="I56" s="39">
-        <v>1</v>
-      </c>
-      <c r="J56" s="39">
-        <v>1</v>
-      </c>
-      <c r="K56" s="39">
+      <c r="I56" s="35">
+        <v>1</v>
+      </c>
+      <c r="J56" s="35">
+        <v>1</v>
+      </c>
+      <c r="K56" s="35">
         <v>0.76</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="35">
         <v>0.92</v>
       </c>
-      <c r="M56" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="N56" s="39">
+      <c r="M56" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="N56" s="35">
         <v>0.88</v>
       </c>
-      <c r="O56" s="65">
+      <c r="O56" s="35">
         <v>0.91669999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="8:15">
-      <c r="H57" s="68">
+      <c r="P56" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="Q56" s="35">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="R56" s="35">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="8:18">
+      <c r="H57" s="60">
         <v>24</v>
       </c>
-      <c r="I57" s="39">
-        <v>1</v>
-      </c>
-      <c r="J57" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="K57" s="39">
+      <c r="I57" s="35">
+        <v>1</v>
+      </c>
+      <c r="J57" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="K57" s="35">
         <v>0.92</v>
       </c>
-      <c r="L57" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="M57" s="39">
-        <v>1</v>
-      </c>
-      <c r="N57" s="39">
-        <v>1</v>
-      </c>
-      <c r="O57" s="65">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="58" spans="8:15" ht="16" thickBot="1">
-      <c r="H58" s="69">
+      <c r="L57" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="M57" s="35">
+        <v>1</v>
+      </c>
+      <c r="N57" s="35">
+        <v>1</v>
+      </c>
+      <c r="O57" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="P57" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="R57" s="35">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="8:18" ht="16" thickBot="1">
+      <c r="H58" s="61">
         <v>25</v>
       </c>
-      <c r="I58" s="40">
-        <v>0.96</v>
-      </c>
-      <c r="J58" s="40">
-        <v>0.96</v>
-      </c>
-      <c r="K58" s="40">
+      <c r="I58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="J58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="K58" s="36">
         <v>0.72</v>
       </c>
-      <c r="L58" s="40">
-        <v>0.96</v>
-      </c>
-      <c r="M58" s="40">
-        <v>0.96</v>
-      </c>
-      <c r="N58" s="40">
-        <v>1</v>
-      </c>
-      <c r="O58" s="66">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="59" spans="8:15" ht="16" thickBot="1">
-      <c r="H59" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="80">
+      <c r="L58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="M58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="N58" s="36">
+        <v>1</v>
+      </c>
+      <c r="O58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="P58" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="Q58" s="36">
+        <v>0.96</v>
+      </c>
+      <c r="R58" s="36">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="8:18" ht="16" thickBot="1">
+      <c r="H59" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="72">
         <f t="shared" ref="I59:N59" si="1">AVERAGE(I34:I58)</f>
         <v>0.99040000000000006</v>
       </c>
-      <c r="J59" s="80">
+      <c r="J59" s="72">
         <f t="shared" si="1"/>
         <v>0.96640000000000026</v>
       </c>
-      <c r="K59" s="80">
+      <c r="K59" s="72">
         <f t="shared" si="1"/>
         <v>0.86880000000000024</v>
       </c>
-      <c r="L59" s="80">
+      <c r="L59" s="72">
         <f t="shared" si="1"/>
         <v>0.97440000000000027</v>
       </c>
-      <c r="M59" s="80">
+      <c r="M59" s="72">
         <f t="shared" si="1"/>
         <v>0.96960000000000024</v>
       </c>
-      <c r="N59" s="80">
+      <c r="N59" s="72">
         <f t="shared" si="1"/>
         <v>0.96640000000000015</v>
       </c>
-      <c r="O59" s="80">
+      <c r="O59" s="72">
         <f>AVERAGE(O34:O58)</f>
         <v>0.95640400000000014</v>
       </c>
+      <c r="P59" s="72">
+        <f>AVERAGE(P34:P58)</f>
+        <v>0.96106400000000025</v>
+      </c>
+      <c r="Q59" s="72">
+        <f>AVERAGE(Q34:Q58)</f>
+        <v>0.96015600000000001</v>
+      </c>
+      <c r="R59" s="72">
+        <f>AVERAGE(R34:R58)</f>
+        <v>0.9185080000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L32:L33"/>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBFD43-909C-D54D-AF58-04BE63DA26F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FFCD54-52E9-D24D-8419-E8335230B007}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>PERÍODO</t>
   </si>
   <si>
-    <t>STOCK INICIAL</t>
-  </si>
-  <si>
     <t>PRAZO</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>ENCOMENDA (Q)</t>
   </si>
   <si>
-    <t>STOCK EM MÃO (SM)</t>
-  </si>
-  <si>
     <t>PERDA DE VENDAS</t>
   </si>
   <si>
@@ -299,6 +293,12 @@
   </si>
   <si>
     <t>* S analítico - 10% ;     s analítico</t>
+  </si>
+  <si>
+    <t>STOCK FÍSICO</t>
+  </si>
+  <si>
+    <t>STOCK EM MÃO</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1623,25 +1623,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="113" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="25" customHeight="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27">
         <f ca="1">INT(RANDBETWEEN(K29,K28))</f>
-        <v>1370</v>
+        <v>1284</v>
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="27"/>
@@ -1665,31 +1665,31 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1370</v>
+        <v>1284</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>940</v>
+        <v>849</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="1">
         <f ca="1">IF(F5&gt;=0,E5,E5+F5)</f>
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -1700,28 +1700,28 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>940</v>
+        <v>849</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">B6-E6+D6</f>
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="G6" s="109">
         <f ca="1">IF(F6 &lt; K29, (IF(F6&lt;0, K28, K28-F6)), 0 )</f>
-        <v>920</v>
+        <v>1038</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H54" ca="1" si="1">IF(F6&gt;=0,E6,E6+F6)</f>
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="5">
         <v>435.03</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>571</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E7" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">B7-E7+D7</f>
-        <v>1080</v>
+        <v>81</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="5">
         <v>575.26</v>
@@ -1777,31 +1777,31 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1080</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="E8" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">B8-E8+D8</f>
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="G8" s="109">
         <f ca="1">IF(F8 &lt; K29, (IF(F8&lt;0, K28, K28-F8)), 0 )</f>
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="12">
         <v>347.31</v>
@@ -1816,28 +1816,28 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C9" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="E9" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">B9-E9+D9</f>
-        <v>236</v>
+        <v>1055</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19">
@@ -1846,34 +1846,34 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>1055</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="E10" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">B10-E10+D10</f>
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="G10" s="109">
         <f ca="1">IF(F10 &lt; K29, (IF(F10&lt;0, K28, K28-F10)), 0 )</f>
-        <v>870</v>
+        <v>817</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="J10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19">
@@ -1882,28 +1882,28 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="C11" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>870</v>
+        <v>817</v>
       </c>
       <c r="E11" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>499</v>
+        <v>389</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">B11-E11+D11</f>
-        <v>992</v>
+        <v>1102</v>
       </c>
       <c r="G11" s="109"/>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>499</v>
+        <v>389</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>992</v>
+        <v>1102</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1927,19 +1927,19 @@
       </c>
       <c r="E12" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">B12-E12+D12</f>
-        <v>637</v>
+        <v>693</v>
       </c>
       <c r="G12" s="109">
         <f ca="1">IF(F12 &lt; K29, (IF(F12&lt;0, K28, K28-F12)), 0 )</f>
-        <v>854</v>
+        <v>798</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J12" s="11">
         <v>2</v>
@@ -1954,28 +1954,28 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>637</v>
+        <v>693</v>
       </c>
       <c r="C13" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E13" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">B13-E13+D13</f>
-        <v>191</v>
+        <v>1006</v>
       </c>
       <c r="G13" s="109"/>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
@@ -1984,28 +1984,28 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>1006</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f ca="1">IF(C13 = 0.4, G12, 0)</f>
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="E14" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">B14-E14+D14</f>
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="G14" s="109">
         <f ca="1">IF(F14 &lt; K29, (IF(F14&lt;0, K28, K28-F14)), 0 )</f>
-        <v>885</v>
+        <v>915</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20" thickBot="1">
@@ -2014,31 +2014,31 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="C15" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="E15" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">B15-E15+D15</f>
-        <v>196</v>
+        <v>1039</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="21">
         <v>120</v>
@@ -2051,37 +2051,37 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>1039</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f ca="1">IF(C15 = 0.4, G14, 0)</f>
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="E16" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">B16-E16+D16</f>
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="G16" s="109">
         <f ca="1">IF(F16 &lt; K29, (IF(F16&lt;0, K28, K28-F16)), 0 )</f>
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="J16" s="115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="114">
         <v>96.5</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="86"/>
     </row>
@@ -2091,10 +2091,10 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.4</v>
       </c>
       <c r="D17" s="1">
@@ -2103,25 +2103,25 @@
       </c>
       <c r="E17" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">B17-E17+D17</f>
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="21">
         <v>0.18</v>
       </c>
       <c r="L17" s="84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="84"/>
     </row>
@@ -2131,38 +2131,38 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">B18-E18+D18</f>
-        <v>719</v>
+        <v>604</v>
       </c>
       <c r="G18" s="109">
         <f ca="1">IF(F18 &lt; K29, (IF(F18&lt;0, K28, K28-F18)), 0 )</f>
-        <v>772</v>
+        <v>887</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="21">
         <f>K16*K17</f>
         <v>17.37</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="84"/>
     </row>
@@ -2172,28 +2172,28 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>719</v>
+        <v>604</v>
       </c>
       <c r="C19" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>772</v>
+        <v>887</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">B19-E19+D19</f>
-        <v>1096</v>
+        <v>1049</v>
       </c>
       <c r="G19" s="109"/>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>395</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20" thickBot="1">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1096</v>
+        <v>1049</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -2211,28 +2211,28 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">B20-E20+D20</f>
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="G20" s="109">
         <f ca="1">IF(F20 &lt; N29, (IF(F20&lt;0, N28, N28-F20)), 0 )</f>
-        <v>1344</v>
+        <v>1301</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="21">
         <v>7</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="4"/>
@@ -2243,38 +2243,38 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="C21" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>1344</v>
+        <v>0</v>
       </c>
       <c r="E21" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">B21-E21+D21</f>
-        <v>1418</v>
+        <v>97</v>
       </c>
       <c r="G21" s="109"/>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="21">
         <f>20+2*K20</f>
         <v>34</v>
       </c>
       <c r="L21" s="82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="83"/>
     </row>
@@ -2284,28 +2284,28 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1418</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="E22" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">B22-E22+D22</f>
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="G22" s="109">
         <f ca="1">IF(F22 &lt; N29, (IF(F22&lt;0, N28, N28-F22)), 0 )</f>
-        <v>1136</v>
+        <v>1179</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -2318,37 +2318,37 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="C23" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="E23" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">B23-E23+D23</f>
-        <v>271</v>
+        <v>1426</v>
       </c>
       <c r="G23" s="109"/>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="21">
         <v>900</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M23" s="83"/>
       <c r="N23" s="15"/>
@@ -2359,28 +2359,28 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>1426</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="E24" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>590</v>
+        <v>471</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">B24-E24+D24</f>
-        <v>817</v>
+        <v>955</v>
       </c>
       <c r="G24" s="109">
         <f ca="1">IF(F24 &lt; N29, (IF(F24&lt;0, N28, N28-F24)), 0 )</f>
-        <v>1150</v>
+        <v>1012</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>590</v>
+        <v>471</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -2393,37 +2393,37 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>817</v>
+        <v>955</v>
       </c>
       <c r="C25" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1150</v>
+        <v>1012</v>
       </c>
       <c r="E25" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">B25-E25+D25</f>
-        <v>1392</v>
+        <v>1425</v>
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" s="21">
         <v>2</v>
       </c>
       <c r="L25" s="82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25" s="83"/>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1392</v>
+        <v>1425</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -2442,19 +2442,19 @@
       </c>
       <c r="E26" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">B26-E26+D26</f>
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G26" s="109">
         <f ca="1">IF(F26 &lt; N29, (IF(F26&lt;0, N28, N28-F26)), 0 )</f>
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>621</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19">
@@ -2463,40 +2463,40 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C27" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="E27" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">B27-E27+D27</f>
-        <v>139</v>
+        <v>1319</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="J27" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K27" s="79"/>
       <c r="M27" s="80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N27" s="81"/>
       <c r="O27" s="47"/>
       <c r="P27" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="81"/>
       <c r="R27" s="47"/>
@@ -2507,38 +2507,38 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>1319</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="E28" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">B28-E28+D28</f>
-        <v>773</v>
+        <v>664</v>
       </c>
       <c r="G28" s="109">
         <f ca="1">IF(F28 &lt; N29, (IF(F28&lt;0, N28, N28-F28)), 0 )</f>
-        <v>1194</v>
+        <v>1303</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="22">
         <f>INT(N33 + N34*N37)</f>
         <v>1491</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="49">
         <f>INT(P33 + P34*P37)</f>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="O28" s="47"/>
       <c r="P28" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="49">
         <f>INT(R33 + R34*R37)</f>
@@ -2560,38 +2560,38 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>773</v>
+        <v>664</v>
       </c>
       <c r="C29" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="E29" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">B29-E29+D29</f>
-        <v>158</v>
+        <v>1416</v>
       </c>
       <c r="G29" s="109"/>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="23">
         <f>IF(INT(K28-207.456) &lt; 0, 0, INT(K28-207.456) )</f>
         <v>1283</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="51">
         <f>IF(INT(N28-207.456) &lt; 0, 0, INT(N28-207.456) )</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="51">
         <f>IF(INT(Q28-207.456) &lt; 0, 0, INT(Q28-207.456) )</f>
@@ -2613,28 +2613,28 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>1416</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="E30" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">B30-E30+D30</f>
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="G30" s="109">
         <f ca="1">IF(F30 &lt; N29, (IF(F30&lt;0, N28, N28-F30)), 0 )</f>
-        <v>1225</v>
+        <v>1148</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20" thickBot="1">
@@ -2643,34 +2643,34 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="C31" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="E31" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>670</v>
+        <v>442</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">B31-E31+D31</f>
-        <v>1297</v>
+        <v>377</v>
       </c>
       <c r="G31" s="109"/>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>670</v>
+        <v>442</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="20" thickBot="1">
@@ -2679,28 +2679,28 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1297</v>
+        <v>377</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="E32" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">B32-E32+D32</f>
-        <v>702</v>
+        <v>1001</v>
       </c>
       <c r="G32" s="109">
         <f ca="1">IF(F32 &lt; Q29, (IF(F32&lt;0, Q28, Q28-F32)), 0 )</f>
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>595</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20" thickBot="1">
@@ -2709,52 +2709,52 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>702</v>
+        <v>1001</v>
       </c>
       <c r="C33" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="E33" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F33" s="1">
         <f ca="1">B33-E33+D33</f>
-        <v>832</v>
+        <v>649</v>
       </c>
       <c r="G33" s="109"/>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N33" s="21">
         <f>INT(K6*(K25+((J11*K11) + (J12*K12))))</f>
         <v>1479</v>
       </c>
       <c r="O33" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P33" s="54">
         <f>INT(K7*(K25+((J11*K11) + (J12*K12))))</f>
         <v>1955</v>
       </c>
       <c r="Q33" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R33" s="54">
         <f>INT(K8*(K25+((J11*K11) + (J12*K12))))</f>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>832</v>
+        <v>649</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
@@ -2776,36 +2776,36 @@
       </c>
       <c r="E34" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="F34" s="1">
         <f ca="1">B34-E34+D34</f>
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="G34" s="109">
         <f ca="1">IF(F34 &lt; Q29, (IF(F34&lt;0, Q28, Q28-F34)), 0 )</f>
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N34" s="21">
         <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L6))</f>
         <v>11</v>
       </c>
       <c r="O34" s="53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P34" s="54">
         <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L7))</f>
         <v>13</v>
       </c>
       <c r="Q34" s="53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R34" s="54">
         <f>INT(SQRT((K25+((J11*K11)+(J12*K12)))*L8))</f>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="C35" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(C35 = 0.6, G34, 0)</f>
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="E35" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">B35-E35+D35</f>
-        <v>790</v>
+        <v>-46</v>
       </c>
       <c r="G35" s="109"/>
       <c r="H35" s="1">
         <f ca="1">IF(F35&gt;=0,E35,E35+F35)</f>
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="E36" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
@@ -2868,32 +2868,32 @@
       </c>
       <c r="F36" s="1">
         <f ca="1">B36-E36+D36</f>
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="G36" s="109">
         <f ca="1">IF(F36 &lt; Q29, (IF(F36&lt;0, Q28, Q28-F36)), 0 )</f>
-        <v>756</v>
+        <v>663</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>353</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N36" s="56">
         <f>1/8</f>
         <v>0.125</v>
       </c>
       <c r="O36" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P36" s="56">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R36" s="56">
         <f>1/11</f>
@@ -2906,47 +2906,47 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="C37" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>756</v>
+        <v>663</v>
       </c>
       <c r="E37" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">B37-E37+D37</f>
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="G37" s="109"/>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="14"/>
       <c r="M37" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N37" s="56">
         <f>ABS(NORMSINV(N36))</f>
         <v>1.1503493803760083</v>
       </c>
       <c r="O37" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P37" s="56">
         <f>ABS(NORMSINV(P36))</f>
         <v>0.96742156610170071</v>
       </c>
       <c r="Q37" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R37" s="57">
         <f>ABS(NORMSINV(R36))</f>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -2968,19 +2968,19 @@
       </c>
       <c r="E38" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">B38-E38+D38</f>
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="G38" s="109">
         <f ca="1">IF(F38 &lt; Q29, (IF(F38&lt;0, Q28, Q28-F38)), 0 )</f>
-        <v>716</v>
+        <v>640</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
@@ -2993,35 +2993,35 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="C39" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E39" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">B39-E39+D39</f>
-        <v>775</v>
+        <v>276</v>
       </c>
       <c r="G39" s="109"/>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K39" s="21">
         <f ca="1">1/(COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>0.04</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="L39" s="45"/>
       <c r="M39" s="14"/>
@@ -3034,28 +3034,28 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>775</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="E40" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="F40" s="1">
         <f ca="1">B40-E40+D40</f>
-        <v>387</v>
+        <v>576</v>
       </c>
       <c r="G40" s="109">
         <f ca="1">IF(F40 &lt; Q29, (IF(F40&lt;0, Q28, Q28-F40)), 0 )</f>
-        <v>806</v>
+        <v>617</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="L40" s="44"/>
       <c r="M40" s="44"/>
@@ -3068,10 +3068,10 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>576</v>
       </c>
       <c r="C41" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
@@ -3080,23 +3080,23 @@
       </c>
       <c r="E41" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="F41" s="1">
         <f ca="1">B41-E41+D41</f>
-        <v>-9</v>
+        <v>216</v>
       </c>
       <c r="G41" s="109"/>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="J41" s="41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K41" s="38">
         <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>0.36</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="L41" s="44"/>
       <c r="M41" s="44"/>
@@ -3109,28 +3109,28 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>806</v>
+        <v>617</v>
       </c>
       <c r="E42" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">B42-E42+D42</f>
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G42" s="109">
         <f ca="1">IF(F42 &lt; Q29, (IF(F42&lt;0, Q28, Q28-F42)), 0 )</f>
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3144,28 +3144,28 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C43" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="E43" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="F43" s="1">
         <f ca="1">B43-E43+D43</f>
-        <v>824</v>
+        <v>120</v>
       </c>
       <c r="G43" s="109"/>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="M43" s="44"/>
     </row>
@@ -3175,28 +3175,28 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>824</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E44" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">B44-E44+D44</f>
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="G44" s="109">
         <f ca="1">IF(F44 &lt; Q29, (IF(F44&lt;0, Q28, Q28-F44)), 0 )</f>
-        <v>715</v>
+        <v>655</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="J44" s="106"/>
       <c r="K44" s="107"/>
@@ -3208,35 +3208,35 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="C45" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="E45" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F45" s="1">
         <f ca="1">B45-E45+D45</f>
-        <v>865</v>
+        <v>152</v>
       </c>
       <c r="G45" s="109"/>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="J45" s="108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K45" s="40">
         <f ca="1">SUM(H5:H54) * K15</f>
-        <v>2617320</v>
+        <v>2504280</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="19">
@@ -3245,28 +3245,28 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>865</v>
+        <v>152</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E46" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F46" s="1">
         <f ca="1">B46-E46+D46</f>
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="G46" s="109">
         <f ca="1">IF(F46 &lt; Q29, (IF(F46&lt;0, Q28, Q28-F46)), 0 )</f>
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="20" thickBot="1">
@@ -3275,28 +3275,28 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="C47" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.6</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.4</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="E47" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">B47-E47+D47</f>
-        <v>825</v>
+        <v>184</v>
       </c>
       <c r="G47" s="109"/>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>368</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="20" thickBot="1">
@@ -3305,42 +3305,42 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>825</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="E48" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="F48" s="1">
         <f ca="1">B48-E48+D48</f>
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="G48" s="109">
         <f ca="1">IF(F48 &lt; Q29, (IF(F48&lt;0, Q28, Q28-F48)), 0 )</f>
-        <v>749</v>
+        <v>629</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K48" s="21">
         <f ca="1">(K18*K33)+(K21*K35)+(K23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>34015.57</v>
+        <v>33376.120000000003</v>
       </c>
       <c r="L48" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M48" s="21">
         <f ca="1">1-(K35/(COUNTIF(G5:G54,"&gt;0")))</f>
-        <v>0.96</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="19">
@@ -3349,28 +3349,28 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="C49" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
-        <v>0.4</v>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
+        <v>0.6</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="E49" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="F49" s="1">
         <f ca="1">B49-E49+D49</f>
-        <v>114</v>
+        <v>827</v>
       </c>
       <c r="G49" s="109"/>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="19">
@@ -3379,28 +3379,28 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>827</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <f ca="1">IF(C49 = 0.4, G48, 0)</f>
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="E50" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F50" s="1">
         <f ca="1">B50-E50+D50</f>
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="G50" s="109">
         <f ca="1">IF(F50 &lt; Q29, (IF(F50&lt;0, Q28, Q28-F50)), 0 )</f>
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3417,28 +3417,28 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="C51" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="E51" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="F51" s="1">
         <f ca="1">B51-E51+D51</f>
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="G51" s="109"/>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -3464,19 +3464,19 @@
       </c>
       <c r="E52" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="F52" s="1">
         <f ca="1">B52-E52+D52</f>
-        <v>464</v>
+        <v>582</v>
       </c>
       <c r="G52" s="109">
         <f ca="1">IF(F52 &lt; Q29, (IF(F52&lt;0, Q28, Q28-F52)), 0 )</f>
-        <v>729</v>
+        <v>611</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -3493,28 +3493,28 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>582</v>
       </c>
       <c r="C53" s="1">
-        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, 0.4,0.6)</f>
+        <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
         <v>0.6</v>
       </c>
       <c r="D53" s="1">
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
-        <v>729</v>
+        <v>611</v>
       </c>
       <c r="E53" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="F53" s="1">
         <f ca="1">B53-E53+D53</f>
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="G53" s="109"/>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="20" thickBot="1">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -3532,19 +3532,19 @@
       </c>
       <c r="E54" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F54" s="2">
         <f ca="1">B54-E54+D54</f>
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="G54" s="112">
         <f ca="1">IF(F54 &lt; Q29, (IF(F54&lt;0, Q28, Q28-F54)), 0 )</f>
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3703,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3718,83 +3718,83 @@
   <sheetData>
     <row r="1" spans="1:18" ht="58" customHeight="1" thickBot="1">
       <c r="I1" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="63" t="s">
-        <v>66</v>
-      </c>
       <c r="N1" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="74" t="s">
-        <v>72</v>
-      </c>
       <c r="Q1" s="74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R1" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" thickBot="1">
       <c r="H2" s="92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="M2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="88" t="s">
-        <v>65</v>
-      </c>
       <c r="N2" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="88" t="s">
-        <v>71</v>
-      </c>
       <c r="Q2" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="88" t="s">
         <v>74</v>
-      </c>
-      <c r="R2" s="88" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60" customHeight="1" thickBot="1">
       <c r="A3" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="89"/>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="4" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A4" s="67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="66">
         <f>I29</f>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="5" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A5" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="66">
         <f>J29</f>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="6" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A6" s="73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="66">
         <f>K29</f>
@@ -3913,7 +3913,7 @@
         <v>0.86880000000000024</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="91"/>
       <c r="H6" s="60">
@@ -3952,7 +3952,7 @@
     </row>
     <row r="7" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A7" s="73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="66">
         <f>L29</f>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="8" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A8" s="97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="77">
         <f>M29</f>
@@ -4009,7 +4009,7 @@
         <v>0.96960000000000024</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="91"/>
       <c r="H8" s="60">
@@ -4048,7 +4048,7 @@
     </row>
     <row r="9" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A9" s="73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="99">
         <f>N29</f>
@@ -4059,7 +4059,7 @@
         <v>0.96640000000000015</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="91"/>
       <c r="H9" s="60">
@@ -4098,7 +4098,7 @@
     </row>
     <row r="10" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A10" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="66">
         <f>O29</f>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="11" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A11" s="73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="66">
         <f>P29</f>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="12" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="66">
         <f>Q29</f>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="13" spans="1:18" ht="50" customHeight="1" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="98">
         <f>R29</f>
@@ -4247,7 +4247,7 @@
         <v>0.9185080000000001</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="91"/>
       <c r="H13" s="60">
@@ -4321,7 +4321,7 @@
     </row>
     <row r="15" spans="1:18" ht="26" customHeight="1" thickBot="1">
       <c r="A15" s="105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="66">
         <f>MIN(B4,B5,B7,B8,B9,B10,B11,B12)</f>
@@ -4819,7 +4819,7 @@
     <row r="29" spans="7:18" ht="16" thickBot="1">
       <c r="G29" s="44"/>
       <c r="H29" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I29" s="70">
         <f t="shared" ref="I29:N29" si="0">AVERAGE(I4:I28)</f>
@@ -4874,42 +4874,42 @@
     </row>
     <row r="32" spans="7:18" ht="15" customHeight="1">
       <c r="H32" s="92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" s="94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J32" s="88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="88" t="s">
+      <c r="M32" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="88" t="s">
-        <v>65</v>
-      </c>
       <c r="N32" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O32" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="88" t="s">
-        <v>71</v>
-      </c>
       <c r="Q32" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="88" t="s">
         <v>74</v>
-      </c>
-      <c r="R32" s="88" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="7:18" ht="49" thickBot="1">
       <c r="G33" s="62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="93"/>
       <c r="I33" s="95"/>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="59" spans="8:18" ht="16" thickBot="1">
       <c r="H59" s="104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I59" s="72">
         <f t="shared" ref="I59:N59" si="1">AVERAGE(I34:I58)</f>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FFCD54-52E9-D24D-8419-E8335230B007}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73742D68-8B50-3D4B-9C9D-3CD42D6DCFBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
     <sheet name="Testes" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Simulador!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Simulador!$E$5:$E$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1594,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1654,7 +1658,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27">
         <f ca="1">INT(RANDBETWEEN(K29,K28))</f>
-        <v>1284</v>
+        <v>1421</v>
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="27"/>
@@ -1665,22 +1669,22 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1284</v>
+        <v>1421</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>849</v>
+        <v>954</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="1">
         <f ca="1">IF(F5&gt;=0,E5,E5+F5)</f>
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>9</v>
@@ -1700,25 +1704,25 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>849</v>
+        <v>954</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">B6-E6+D6</f>
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="G6" s="109">
         <f ca="1">IF(F6 &lt; K29, (IF(F6&lt;0, K28, K28-F6)), 0 )</f>
-        <v>1038</v>
+        <v>988</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H54" ca="1" si="1">IF(F6&gt;=0,E6,E6+F6)</f>
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>6</v>
@@ -1738,7 +1742,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1750,16 +1754,16 @@
       </c>
       <c r="E7" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">B7-E7+D7</f>
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>7</v>
@@ -1777,28 +1781,28 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>1038</v>
+        <v>988</v>
       </c>
       <c r="E8" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">B8-E8+D8</f>
-        <v>699</v>
+        <v>564</v>
       </c>
       <c r="G8" s="109">
         <f ca="1">IF(F8 &lt; K29, (IF(F8&lt;0, K28, K28-F8)), 0 )</f>
-        <v>792</v>
+        <v>927</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>8</v>
@@ -1816,7 +1820,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>699</v>
+        <v>564</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1824,20 +1828,20 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>792</v>
+        <v>927</v>
       </c>
       <c r="E9" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">B9-E9+D9</f>
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19">
@@ -1846,7 +1850,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1855,19 +1859,19 @@
       </c>
       <c r="E10" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">B10-E10+D10</f>
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="G10" s="109">
         <f ca="1">IF(F10 &lt; K29, (IF(F10&lt;0, K28, K28-F10)), 0 )</f>
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>10</v>
@@ -1882,7 +1886,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1890,20 +1894,20 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="E11" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">B11-E11+D11</f>
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="G11" s="109"/>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1918,7 +1922,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1927,19 +1931,19 @@
       </c>
       <c r="E12" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">B12-E12+D12</f>
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="G12" s="109">
         <f ca="1">IF(F12 &lt; K29, (IF(F12&lt;0, K28, K28-F12)), 0 )</f>
-        <v>798</v>
+        <v>854</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="J12" s="11">
         <v>2</v>
@@ -1954,7 +1958,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1962,20 +1966,20 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>798</v>
+        <v>854</v>
       </c>
       <c r="E13" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">B13-E13+D13</f>
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G13" s="109"/>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
@@ -1984,7 +1988,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1993,19 +1997,19 @@
       </c>
       <c r="E14" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">B14-E14+D14</f>
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="G14" s="109">
         <f ca="1">IF(F14 &lt; K29, (IF(F14&lt;0, K28, K28-F14)), 0 )</f>
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20" thickBot="1">
@@ -2014,7 +2018,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2022,20 +2026,20 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="E15" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">B15-E15+D15</f>
-        <v>1039</v>
+        <v>1056</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>81</v>
@@ -2051,7 +2055,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1039</v>
+        <v>1056</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2060,19 +2064,19 @@
       </c>
       <c r="E16" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">B16-E16+D16</f>
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="G16" s="109">
         <f ca="1">IF(F16 &lt; K29, (IF(F16&lt;0, K28, K28-F16)), 0 )</f>
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J16" s="115" t="s">
         <v>14</v>
@@ -2091,7 +2095,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2103,16 +2107,16 @@
       </c>
       <c r="E17" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">B17-E17+D17</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>16</v>
@@ -2131,28 +2135,28 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">B18-E18+D18</f>
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="G18" s="109">
         <f ca="1">IF(F18 &lt; K29, (IF(F18&lt;0, K28, K28-F18)), 0 )</f>
-        <v>887</v>
+        <v>935</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>18</v>
@@ -2172,7 +2176,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2180,20 +2184,20 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>887</v>
+        <v>935</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">B19-E19+D19</f>
-        <v>1049</v>
+        <v>1062</v>
       </c>
       <c r="G19" s="109"/>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20" thickBot="1">
@@ -2202,7 +2206,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1049</v>
+        <v>1062</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -2211,19 +2215,19 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">B20-E20+D20</f>
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="G20" s="109">
         <f ca="1">IF(F20 &lt; N29, (IF(F20&lt;0, N28, N28-F20)), 0 )</f>
-        <v>1301</v>
+        <v>1375</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2243,28 +2247,28 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="E21" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">B21-E21+D21</f>
-        <v>97</v>
+        <v>1377</v>
       </c>
       <c r="G21" s="109"/>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>20</v>
@@ -2284,28 +2288,28 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>1377</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="E22" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">B22-E22+D22</f>
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="G22" s="109">
         <f ca="1">IF(F22 &lt; N29, (IF(F22&lt;0, N28, N28-F22)), 0 )</f>
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -2318,28 +2322,28 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="E23" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">B23-E23+D23</f>
-        <v>1426</v>
+        <v>190</v>
       </c>
       <c r="G23" s="109"/>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>21</v>
@@ -2359,28 +2363,28 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1426</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="E24" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">B24-E24+D24</f>
-        <v>955</v>
+        <v>799</v>
       </c>
       <c r="G24" s="109">
         <f ca="1">IF(F24 &lt; N29, (IF(F24&lt;0, N28, N28-F24)), 0 )</f>
-        <v>1012</v>
+        <v>1168</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -2393,7 +2397,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>955</v>
+        <v>799</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2401,20 +2405,20 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1012</v>
+        <v>1168</v>
       </c>
       <c r="E25" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">B25-E25+D25</f>
-        <v>1425</v>
+        <v>1476</v>
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>24</v>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1425</v>
+        <v>1476</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -2442,19 +2446,19 @@
       </c>
       <c r="E26" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">B26-E26+D26</f>
-        <v>762</v>
+        <v>880</v>
       </c>
       <c r="G26" s="109">
         <f ca="1">IF(F26 &lt; N29, (IF(F26&lt;0, N28, N28-F26)), 0 )</f>
-        <v>1205</v>
+        <v>1087</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>663</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19">
@@ -2463,7 +2467,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>762</v>
+        <v>880</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2471,20 +2475,20 @@
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1205</v>
+        <v>1087</v>
       </c>
       <c r="E27" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">B27-E27+D27</f>
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="J27" s="78" t="s">
         <v>82</v>
@@ -2507,7 +2511,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -2516,19 +2520,19 @@
       </c>
       <c r="E28" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">B28-E28+D28</f>
-        <v>664</v>
+        <v>776</v>
       </c>
       <c r="G28" s="109">
         <f ca="1">IF(F28 &lt; N29, (IF(F28&lt;0, N28, N28-F28)), 0 )</f>
-        <v>1303</v>
+        <v>1191</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>26</v>
@@ -2560,28 +2564,28 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>664</v>
+        <v>776</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(C29 = 0.6, G28, 0)</f>
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="E29" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">B29-E29+D29</f>
-        <v>1416</v>
+        <v>218</v>
       </c>
       <c r="G29" s="109"/>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>27</v>
@@ -2613,28 +2617,28 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1416</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="E30" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">B30-E30+D30</f>
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="G30" s="109">
         <f ca="1">IF(F30 &lt; N29, (IF(F30&lt;0, N28, N28-F30)), 0 )</f>
-        <v>1148</v>
+        <v>1116</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>597</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20" thickBot="1">
@@ -2643,28 +2647,28 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="E31" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>442</v>
+        <v>571</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">B31-E31+D31</f>
-        <v>377</v>
+        <v>1396</v>
       </c>
       <c r="G31" s="109"/>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>442</v>
+        <v>571</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>30</v>
@@ -2679,28 +2683,28 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>1396</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="E32" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">B32-E32+D32</f>
-        <v>1001</v>
+        <v>939</v>
       </c>
       <c r="G32" s="109">
         <f ca="1">IF(F32 &lt; Q29, (IF(F32&lt;0, Q28, Q28-F32)), 0 )</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>524</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20" thickBot="1">
@@ -2709,7 +2713,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1001</v>
+        <v>939</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2721,23 +2725,23 @@
       </c>
       <c r="E33" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="F33" s="1">
         <f ca="1">B33-E33+D33</f>
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G33" s="109"/>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="K33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="M33" s="37" t="s">
         <v>36</v>
@@ -2767,28 +2771,28 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="E34" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F34" s="1">
         <f ca="1">B34-E34+D34</f>
-        <v>310</v>
+        <v>573</v>
       </c>
       <c r="G34" s="109">
         <f ca="1">IF(F34 &lt; Q29, (IF(F34&lt;0, Q28, Q28-F34)), 0 )</f>
-        <v>883</v>
+        <v>620</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>37</v>
@@ -2818,7 +2822,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>573</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2830,16 +2834,16 @@
       </c>
       <c r="E35" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">B35-E35+D35</f>
-        <v>-46</v>
+        <v>292</v>
       </c>
       <c r="G35" s="109"/>
       <c r="H35" s="1">
         <f ca="1">IF(F35&gt;=0,E35,E35+F35)</f>
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="J35" s="37" t="s">
         <v>32</v>
@@ -2855,28 +2859,28 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>883</v>
+        <v>620</v>
       </c>
       <c r="E36" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F36" s="1">
         <f ca="1">B36-E36+D36</f>
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="G36" s="109">
         <f ca="1">IF(F36 &lt; Q29, (IF(F36&lt;0, Q28, Q28-F36)), 0 )</f>
-        <v>663</v>
+        <v>600</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="M36" s="37" t="s">
         <v>42</v>
@@ -2906,7 +2910,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2914,20 +2918,20 @@
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>663</v>
+        <v>600</v>
       </c>
       <c r="E37" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">B37-E37+D37</f>
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="G37" s="109"/>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="14"/>
@@ -2959,7 +2963,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -2968,19 +2972,19 @@
       </c>
       <c r="E38" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">B38-E38+D38</f>
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="G38" s="109">
         <f ca="1">IF(F38 &lt; Q29, (IF(F38&lt;0, Q28, Q28-F38)), 0 )</f>
-        <v>640</v>
+        <v>729</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
@@ -2993,7 +2997,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3005,23 +3009,23 @@
       </c>
       <c r="E39" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">B39-E39+D39</f>
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="G39" s="109"/>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="J39" s="37" t="s">
         <v>33</v>
       </c>
       <c r="K39" s="21">
         <f ca="1">1/(COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L39" s="45"/>
       <c r="M39" s="14"/>
@@ -3034,28 +3038,28 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>640</v>
+        <v>729</v>
       </c>
       <c r="E40" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F40" s="1">
         <f ca="1">B40-E40+D40</f>
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="G40" s="109">
         <f ca="1">IF(F40 &lt; Q29, (IF(F40&lt;0, Q28, Q28-F40)), 0 )</f>
-        <v>617</v>
+        <v>685</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L40" s="44"/>
       <c r="M40" s="44"/>
@@ -3068,35 +3072,35 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="E41" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F41" s="1">
         <f ca="1">B41-E41+D41</f>
-        <v>216</v>
+        <v>861</v>
       </c>
       <c r="G41" s="109"/>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>34</v>
       </c>
       <c r="K41" s="38">
         <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>1.9166666666666667</v>
+        <v>0.24</v>
       </c>
       <c r="L41" s="44"/>
       <c r="M41" s="44"/>
@@ -3109,28 +3113,28 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>861</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="E42" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">B42-E42+D42</f>
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G42" s="109">
         <f ca="1">IF(F42 &lt; Q29, (IF(F42&lt;0, Q28, Q28-F42)), 0 )</f>
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3144,28 +3148,28 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="E43" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F43" s="1">
         <f ca="1">B43-E43+D43</f>
-        <v>120</v>
+        <v>887</v>
       </c>
       <c r="G43" s="109"/>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="M43" s="44"/>
     </row>
@@ -3175,28 +3179,28 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>887</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="E44" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">B44-E44+D44</f>
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="G44" s="109">
         <f ca="1">IF(F44 &lt; Q29, (IF(F44&lt;0, Q28, Q28-F44)), 0 )</f>
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="J44" s="106"/>
       <c r="K44" s="107"/>
@@ -3208,35 +3212,35 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E45" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F45" s="1">
         <f ca="1">B45-E45+D45</f>
-        <v>152</v>
+        <v>829</v>
       </c>
       <c r="G45" s="109"/>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="J45" s="108" t="s">
         <v>79</v>
       </c>
       <c r="K45" s="40">
         <f ca="1">SUM(H5:H54) * K15</f>
-        <v>2504280</v>
+        <v>2581800</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="19">
@@ -3245,28 +3249,28 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>829</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <f ca="1">IF(C45 = 0.4, G44, 0)</f>
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="E46" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F46" s="1">
         <f ca="1">B46-E46+D46</f>
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G46" s="109">
         <f ca="1">IF(F46 &lt; Q29, (IF(F46&lt;0, Q28, Q28-F46)), 0 )</f>
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="20" thickBot="1">
@@ -3275,28 +3279,28 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="E47" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">B47-E47+D47</f>
-        <v>184</v>
+        <v>840</v>
       </c>
       <c r="G47" s="109"/>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="20" thickBot="1">
@@ -3305,42 +3309,42 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>840</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <f ca="1">IF(C47 = 0.4, G46, 0)</f>
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="E48" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="F48" s="1">
         <f ca="1">B48-E48+D48</f>
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="G48" s="109">
         <f ca="1">IF(F48 &lt; Q29, (IF(F48&lt;0, Q28, Q28-F48)), 0 )</f>
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="J48" s="37" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="21">
         <f ca="1">(K18*K33)+(K21*K35)+(K23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>33376.120000000003</v>
+        <v>34901.440000000002</v>
       </c>
       <c r="L48" s="65" t="s">
         <v>57</v>
       </c>
       <c r="M48" s="21">
         <f ca="1">1-(K35/(COUNTIF(G5:G54,"&gt;0")))</f>
-        <v>0.95833333333333337</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="19">
@@ -3349,7 +3353,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3357,20 +3361,20 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="E49" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F49" s="1">
         <f ca="1">B49-E49+D49</f>
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="G49" s="109"/>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="19">
@@ -3379,7 +3383,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
@@ -3388,19 +3392,19 @@
       </c>
       <c r="E50" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="F50" s="1">
         <f ca="1">B50-E50+D50</f>
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="G50" s="109">
         <f ca="1">IF(F50 &lt; Q29, (IF(F50&lt;0, Q28, Q28-F50)), 0 )</f>
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3417,28 +3421,28 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="E51" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="F51" s="1">
         <f ca="1">B51-E51+D51</f>
-        <v>896</v>
+        <v>-6</v>
       </c>
       <c r="G51" s="109"/>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -3455,28 +3459,28 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E52" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F52" s="1">
         <f ca="1">B52-E52+D52</f>
-        <v>582</v>
+        <v>481</v>
       </c>
       <c r="G52" s="109">
         <f ca="1">IF(F52 &lt; Q29, (IF(F52&lt;0, Q28, Q28-F52)), 0 )</f>
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -3493,7 +3497,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>582</v>
+        <v>481</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3501,20 +3505,20 @@
       </c>
       <c r="D53" s="1">
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="E53" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="F53" s="1">
         <f ca="1">B53-E53+D53</f>
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="G53" s="109"/>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="20" thickBot="1">
@@ -3523,7 +3527,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -3532,19 +3536,19 @@
       </c>
       <c r="E54" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F54" s="2">
         <f ca="1">B54-E54+D54</f>
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="G54" s="112">
         <f ca="1">IF(F54 &lt; Q29, (IF(F54&lt;0, Q28, Q28-F54)), 0 )</f>
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:17">

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73742D68-8B50-3D4B-9C9D-3CD42D6DCFBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EB513-087C-3D49-8B47-082298173344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="I9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1658,7 +1658,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="27">
         <f ca="1">INT(RANDBETWEEN(K29,K28))</f>
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="27"/>
@@ -1669,22 +1669,22 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(F4 &gt; 0, F4, 0)</f>
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">B5-E5+D5</f>
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="1">
         <f ca="1">IF(F5&gt;=0,E5,E5+F5)</f>
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>9</v>
@@ -1704,25 +1704,25 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B54" ca="1" si="0">IF(F5 &gt; 0, F5, 0)</f>
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">B6-E6+D6</f>
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="G6" s="109">
         <f ca="1">IF(F6 &lt; K29, (IF(F6&lt;0, K28, K28-F6)), 0 )</f>
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H54" ca="1" si="1">IF(F6&gt;=0,E6,E6+F6)</f>
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>6</v>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(C7 = 0.6, G6, 0)</f>
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="E7" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">B7-E7+D7</f>
-        <v>24</v>
+        <v>1023</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>7</v>
@@ -1781,28 +1781,28 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f ca="1">IF(C7 = 0.4, G6, 0)</f>
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="E8" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">B8-E8+D8</f>
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G8" s="109">
         <f ca="1">IF(F8 &lt; K29, (IF(F8&lt;0, K28, K28-F8)), 0 )</f>
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>8</v>
@@ -1820,28 +1820,28 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(C9 = 0.6, G8, 0)</f>
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="E9" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">B9-E9+D9</f>
-        <v>1066</v>
+        <v>107</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19">
@@ -1850,28 +1850,28 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1066</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f ca="1">IF(C9 = 0.4, G8, 0)</f>
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="E10" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">B10-E10+D10</f>
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="G10" s="109">
         <f ca="1">IF(F10 &lt; K29, (IF(F10&lt;0, K28, K28-F10)), 0 )</f>
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>10</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1894,20 +1894,20 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(C11 = 0.6, G10, 0)</f>
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="E11" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">B11-E11+D11</f>
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="G11" s="109"/>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1931,19 +1931,19 @@
       </c>
       <c r="E12" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">B12-E12+D12</f>
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="G12" s="109">
         <f ca="1">IF(F12 &lt; K29, (IF(F12&lt;0, K28, K28-F12)), 0 )</f>
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="J12" s="11">
         <v>2</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -1966,20 +1966,20 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(C13 = 0.6, G12, 0)</f>
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="E13" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">B13-E13+D13</f>
-        <v>1007</v>
+        <v>1074</v>
       </c>
       <c r="G13" s="109"/>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" thickBot="1">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1007</v>
+        <v>1074</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1997,19 +1997,19 @@
       </c>
       <c r="E14" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">B14-E14+D14</f>
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="G14" s="109">
         <f ca="1">IF(F14 &lt; K29, (IF(F14&lt;0, K28, K28-F14)), 0 )</f>
-        <v>888</v>
+        <v>823</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20" thickBot="1">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2026,20 +2026,20 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(C15 = 0.6, G14, 0)</f>
-        <v>888</v>
+        <v>823</v>
       </c>
       <c r="E15" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">B15-E15+D15</f>
-        <v>1056</v>
+        <v>1030</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>81</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1056</v>
+        <v>1030</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2064,19 +2064,19 @@
       </c>
       <c r="E16" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">B16-E16+D16</f>
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="G16" s="109">
         <f ca="1">IF(F16 &lt; K29, (IF(F16&lt;0, K28, K28-F16)), 0 )</f>
-        <v>875</v>
+        <v>827</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="J16" s="115" t="s">
         <v>14</v>
@@ -2095,28 +2095,28 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(C17 = 0.6, G16, 0)</f>
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="E17" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">B17-E17+D17</f>
-        <v>174</v>
+        <v>1040</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>16</v>
@@ -2135,28 +2135,28 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>1040</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f ca="1">IF(C17 = 0.4, G16, 0)</f>
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">B18-E18+D18</f>
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="G18" s="109">
         <f ca="1">IF(F18 &lt; K29, (IF(F18&lt;0, K28, K28-F18)), 0 )</f>
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>18</v>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2184,20 +2184,20 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(C19 = 0.6, G18, 0)</f>
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">B19-E19+D19</f>
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="G19" s="109"/>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>429</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20" thickBot="1">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -2215,19 +2215,19 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K6, L6))</f>
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">B20-E20+D20</f>
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="G20" s="109">
         <f ca="1">IF(F20 &lt; N29, (IF(F20&lt;0, N28, N28-F20)), 0 )</f>
-        <v>1375</v>
+        <v>1422</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>12</v>
@@ -2247,28 +2247,28 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(C21 = 0.6, G20, 0)</f>
-        <v>1375</v>
+        <v>0</v>
       </c>
       <c r="E21" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">B21-E21+D21</f>
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="G21" s="109"/>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>20</v>
@@ -2288,28 +2288,28 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <f ca="1">IF(C21 = 0.4, G20, 0)</f>
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="E22" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>577</v>
+        <v>636</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">B22-E22+D22</f>
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G22" s="109">
         <f ca="1">IF(F22 &lt; N29, (IF(F22&lt;0, N28, N28-F22)), 0 )</f>
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>577</v>
+        <v>636</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -2322,28 +2322,28 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(C23 = 0.6, G22, 0)</f>
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="E23" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">B23-E23+D23</f>
-        <v>190</v>
+        <v>1328</v>
       </c>
       <c r="G23" s="109"/>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>21</v>
@@ -2363,28 +2363,28 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>1328</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <f ca="1">IF(C23 = 0.4, G22, 0)</f>
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="E24" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">B24-E24+D24</f>
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="G24" s="109">
         <f ca="1">IF(F24 &lt; N29, (IF(F24&lt;0, N28, N28-F24)), 0 )</f>
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2405,20 +2405,20 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(C25 = 0.6, G24, 0)</f>
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="E25" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">B25-E25+D25</f>
-        <v>1476</v>
+        <v>1403</v>
       </c>
       <c r="G25" s="109"/>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>24</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1476</v>
+        <v>1403</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -2446,19 +2446,19 @@
       </c>
       <c r="E26" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">B26-E26+D26</f>
-        <v>880</v>
+        <v>809</v>
       </c>
       <c r="G26" s="109">
         <f ca="1">IF(F26 &lt; N29, (IF(F26&lt;0, N28, N28-F26)), 0 )</f>
-        <v>1087</v>
+        <v>1158</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19">
@@ -2467,28 +2467,28 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>880</v>
+        <v>809</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(C27 = 0.6, G26, 0)</f>
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="E27" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">B27-E27+D27</f>
-        <v>1345</v>
+        <v>139</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="J27" s="78" t="s">
         <v>82</v>
@@ -2511,28 +2511,28 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1345</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <f ca="1">IF(C27 = 0.4, G26, 0)</f>
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="E28" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">B28-E28+D28</f>
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="G28" s="109">
         <f ca="1">IF(F28 &lt; N29, (IF(F28&lt;0, N28, N28-F28)), 0 )</f>
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>26</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2576,16 +2576,16 @@
       </c>
       <c r="E29" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">B29-E29+D29</f>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G29" s="109"/>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>27</v>
@@ -2617,28 +2617,28 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">IF(C29 = 0.4, G28, 0)</f>
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="E30" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">B30-E30+D30</f>
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="G30" s="109">
         <f ca="1">IF(F30 &lt; N29, (IF(F30&lt;0, N28, N28-F30)), 0 )</f>
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20" thickBot="1">
@@ -2647,28 +2647,28 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(C31 = 0.6, G30, 0)</f>
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="E31" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">B31-E31+D31</f>
-        <v>1396</v>
+        <v>335</v>
       </c>
       <c r="G31" s="109"/>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>30</v>
@@ -2683,28 +2683,28 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1396</v>
+        <v>335</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">IF(C31 = 0.4, G30, 0)</f>
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="E32" s="29">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K7, L7))</f>
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">B32-E32+D32</f>
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="G32" s="109">
         <f ca="1">IF(F32 &lt; Q29, (IF(F32&lt;0, Q28, Q28-F32)), 0 )</f>
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>457</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20" thickBot="1">
@@ -2713,35 +2713,35 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(C33 = 0.6, G32, 0)</f>
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="E33" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F33" s="1">
         <f ca="1">B33-E33+D33</f>
-        <v>646</v>
+        <v>881</v>
       </c>
       <c r="G33" s="109"/>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="K33" s="21">
         <f ca="1">INT(AVERAGE(B5:B54))</f>
-        <v>712</v>
+        <v>669</v>
       </c>
       <c r="M33" s="37" t="s">
         <v>36</v>
@@ -2771,28 +2771,28 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>646</v>
+        <v>881</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <f ca="1">IF(C33 = 0.4, G32, 0)</f>
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="E34" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F34" s="1">
         <f ca="1">B34-E34+D34</f>
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="G34" s="109">
         <f ca="1">IF(F34 &lt; Q29, (IF(F34&lt;0, Q28, Q28-F34)), 0 )</f>
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>37</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -2834,23 +2834,23 @@
       </c>
       <c r="E35" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">B35-E35+D35</f>
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="G35" s="109"/>
       <c r="H35" s="1">
         <f ca="1">IF(F35&gt;=0,E35,E35+F35)</f>
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="J35" s="37" t="s">
         <v>32</v>
       </c>
       <c r="K35" s="21">
         <f ca="1">COUNTIF(F5:F54,"&lt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="20" thickBot="1">
@@ -2859,28 +2859,28 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <f ca="1">IF(C35 = 0.4, G34, 0)</f>
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="E36" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F36" s="1">
         <f ca="1">B36-E36+D36</f>
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="G36" s="109">
         <f ca="1">IF(F36 &lt; Q29, (IF(F36&lt;0, Q28, Q28-F36)), 0 )</f>
-        <v>600</v>
+        <v>683</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M36" s="37" t="s">
         <v>42</v>
@@ -2910,28 +2910,28 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(C37 = 0.6, G36, 0)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E37" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">B37-E37+D37</f>
-        <v>819</v>
+        <v>176</v>
       </c>
       <c r="G37" s="109"/>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="14"/>
@@ -2963,28 +2963,28 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>819</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <f ca="1">IF(C37 = 0.4, G36, 0)</f>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E38" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">B38-E38+D38</f>
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="G38" s="109">
         <f ca="1">IF(F38 &lt; Q29, (IF(F38&lt;0, Q28, Q28-F38)), 0 )</f>
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
@@ -2997,28 +2997,28 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(C39 = 0.6, G38, 0)</f>
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="E39" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">B39-E39+D39</f>
-        <v>115</v>
+        <v>818</v>
       </c>
       <c r="G39" s="109"/>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="J39" s="37" t="s">
         <v>33</v>
@@ -3038,28 +3038,28 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>818</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <f ca="1">IF(C39 = 0.4, G38, 0)</f>
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="E40" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F40" s="1">
         <f ca="1">B40-E40+D40</f>
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G40" s="109">
         <f ca="1">IF(F40 &lt; Q29, (IF(F40&lt;0, Q28, Q28-F40)), 0 )</f>
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L40" s="44"/>
       <c r="M40" s="44"/>
@@ -3072,35 +3072,35 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(C41 = 0.6, G40, 0)</f>
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E41" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F41" s="1">
         <f ca="1">B41-E41+D41</f>
-        <v>861</v>
+        <v>139</v>
       </c>
       <c r="G41" s="109"/>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>34</v>
       </c>
       <c r="K41" s="38">
         <f ca="1">ABS(SUMIF(F5:F54,"&lt;0"))/ COUNTIF(G5:G54,"&gt;0")</f>
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L41" s="44"/>
       <c r="M41" s="44"/>
@@ -3113,28 +3113,28 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>861</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <f ca="1">IF(C41 = 0.4, G40, 0)</f>
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="E42" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">B42-E42+D42</f>
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="G42" s="109">
         <f ca="1">IF(F42 &lt; Q29, (IF(F42&lt;0, Q28, Q28-F42)), 0 )</f>
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="14"/>
@@ -3148,28 +3148,28 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(C43 = 0.6, G42, 0)</f>
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="E43" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="F43" s="1">
         <f ca="1">B43-E43+D43</f>
-        <v>887</v>
+        <v>157</v>
       </c>
       <c r="G43" s="109"/>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M43" s="44"/>
     </row>
@@ -3179,28 +3179,28 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>887</v>
+        <v>157</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f ca="1">IF(C43 = 0.4, G42, 0)</f>
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="E44" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">B44-E44+D44</f>
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="G44" s="109">
         <f ca="1">IF(F44 &lt; Q29, (IF(F44&lt;0, Q28, Q28-F44)), 0 )</f>
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J44" s="106"/>
       <c r="K44" s="107"/>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(C45 = 0.6, G44, 0)</f>
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="E45" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="F45" s="1">
         <f ca="1">B45-E45+D45</f>
-        <v>829</v>
+        <v>899</v>
       </c>
       <c r="G45" s="109"/>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="J45" s="108" t="s">
         <v>79</v>
       </c>
       <c r="K45" s="40">
         <f ca="1">SUM(H5:H54) * K15</f>
-        <v>2581800</v>
+        <v>2585160</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="19">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>829</v>
+        <v>899</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -3258,19 +3258,19 @@
       </c>
       <c r="E46" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F46" s="1">
         <f ca="1">B46-E46+D46</f>
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G46" s="109">
         <f ca="1">IF(F46 &lt; Q29, (IF(F46&lt;0, Q28, Q28-F46)), 0 )</f>
-        <v>684</v>
+        <v>626</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="20" thickBot="1">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3287,20 +3287,20 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(C47 = 0.6, G46, 0)</f>
-        <v>684</v>
+        <v>626</v>
       </c>
       <c r="E47" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">B47-E47+D47</f>
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="G47" s="109"/>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="20" thickBot="1">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
@@ -3322,11 +3322,11 @@
       </c>
       <c r="F48" s="1">
         <f ca="1">B48-E48+D48</f>
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G48" s="109">
         <f ca="1">IF(F48 &lt; Q29, (IF(F48&lt;0, Q28, Q28-F48)), 0 )</f>
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3337,14 +3337,14 @@
       </c>
       <c r="K48" s="21">
         <f ca="1">(K18*K33)+(K21*K35)+(K23*COUNTIF(G5:G54,"&gt;0"))</f>
-        <v>34901.440000000002</v>
+        <v>34120.53</v>
       </c>
       <c r="L48" s="65" t="s">
         <v>57</v>
       </c>
       <c r="M48" s="21">
         <f ca="1">1-(K35/(COUNTIF(G5:G54,"&gt;0")))</f>
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="19">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3361,20 +3361,20 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(C49 = 0.6, G48, 0)</f>
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="E49" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F49" s="1">
         <f ca="1">B49-E49+D49</f>
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="G49" s="109"/>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="19">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
@@ -3392,19 +3392,19 @@
       </c>
       <c r="E50" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="F50" s="1">
         <f ca="1">B50-E50+D50</f>
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="G50" s="109">
         <f ca="1">IF(F50 &lt; Q29, (IF(F50&lt;0, Q28, Q28-F50)), 0 )</f>
-        <v>793</v>
+        <v>720</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="J50" s="102"/>
       <c r="K50" s="102"/>
@@ -3421,28 +3421,28 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(C51 = 0.6, G50, 0)</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E51" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F51" s="1">
         <f ca="1">B51-E51+D51</f>
-        <v>-6</v>
+        <v>839</v>
       </c>
       <c r="G51" s="109"/>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -3459,28 +3459,28 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">IF(C51 = 0.4, G50, 0)</f>
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="E52" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="F52" s="1">
         <f ca="1">B52-E52+D52</f>
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G52" s="109">
         <f ca="1">IF(F52 &lt; Q29, (IF(F52&lt;0, Q28, Q28-F52)), 0 )</f>
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">IF(RANDBETWEEN(0,100) &lt; 40, K12, K11)</f>
@@ -3505,20 +3505,20 @@
       </c>
       <c r="D53" s="1">
         <f ca="1">IF(C53 = 0.6, G52, 0)</f>
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="E53" s="30">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="F53" s="1">
         <f ca="1">B53-E53+D53</f>
-        <v>894</v>
+        <v>809</v>
       </c>
       <c r="G53" s="109"/>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>299</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="20" thickBot="1">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>894</v>
+        <v>809</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -3536,19 +3536,19 @@
       </c>
       <c r="E54" s="31">
         <f ca="1">INT(_xlfn.NORM.INV(RAND(), K8, L8))</f>
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="F54" s="2">
         <f ca="1">B54-E54+D54</f>
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="G54" s="112">
         <f ca="1">IF(F54 &lt; Q29, (IF(F54&lt;0, Q28, Q28-F54)), 0 )</f>
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>386</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3707,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Previsao.xlsx
+++ b/Previsao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/MEIO/InventoryManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EB513-087C-3D49-8B47-082298173344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE87DA-BE51-644A-801A-F02F694ACCCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0D2C59F3-1D13-48BD-903E-89ECABAE3337}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="4" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CE9F5-C0CF-6F4A-9226-C15012BC27ED}">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -3707,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C1133-A916-9C48-8978-6111ECFEB473}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
